--- a/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
+++ b/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>mess nr.</t>
   </si>
@@ -72,19 +72,31 @@
     <t>average</t>
   </si>
   <si>
-    <t>messung nr</t>
-  </si>
-  <si>
     <t>15,007 mA</t>
   </si>
   <si>
-    <t>temperatur1</t>
+    <t>B+</t>
   </si>
   <si>
-    <t>temperatur2</t>
+    <t>B-</t>
   </si>
   <si>
-    <t>Aver. Temp</t>
+    <t>t_1</t>
+  </si>
+  <si>
+    <t>t_2</t>
+  </si>
+  <si>
+    <t>&lt;t&gt;</t>
+  </si>
+  <si>
+    <t>Schaltung</t>
+  </si>
+  <si>
+    <t>$U / mV$</t>
+  </si>
+  <si>
+    <t>Messung</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="I21" sqref="A12:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +456,7 @@
     <col min="5" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -486,7 +498,7 @@
         <v>4.0000000000000034E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -506,15 +518,15 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="0">AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:H21" si="0">AVERAGE(B3:F3)</f>
         <v>0.24139999999999998</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" si="1">_xlfn.STDEV.P(B3:F3)</f>
+        <f t="shared" ref="H3:I21" si="1">_xlfn.STDEV.P(B3:F3)</f>
         <v>4.8989794855663611E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -542,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -570,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -598,7 +610,7 @@
         <v>4.0000000000000034E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -626,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -654,7 +666,7 @@
         <v>4.8989794855663611E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -682,17 +694,17 @@
         <v>4.89897948556636E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>-8.0000000000000002E-3</v>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12">
         <v>-8.0000000000000002E-3</v>
@@ -701,29 +713,32 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="E12">
-        <v>-7.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="F12">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>-7.6E-3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>4.8989794855663557E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
         <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C13">
-        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D13">
         <v>6.0000000000000001E-3</v>
@@ -735,20 +750,23 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14">
-        <v>9.4E-2</v>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
       <c r="C14">
         <v>9.4E-2</v>
@@ -757,110 +775,122 @@
         <v>9.4E-2</v>
       </c>
       <c r="E14">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F14">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="G14">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>4.89897948556636E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-9.6500000000000002E-2</v>
-      </c>
-      <c r="E15">
-        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="F15">
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="G15">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>-9.6299999999999983E-2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>4.0000000000000034E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="D16">
-        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="E16">
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="F16">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="G16">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>6.3245553203367642E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
         <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C17">
-        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D17">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E17">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F17">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>8.7399999999999992E-2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>1.5704776343520507E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>5.0000000000000001E-3</v>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
         <v>5.0000000000000001E-3</v>
@@ -872,23 +902,26 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>5.2000000000000006E-3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19">
-        <v>-8.0000000000000002E-3</v>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19">
         <v>-8.0000000000000002E-3</v>
@@ -900,23 +933,26 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="F19">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G19">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>-5.0999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>-5.0999999999999997E-2</v>
@@ -928,23 +964,26 @@
         <v>-5.0999999999999997E-2</v>
       </c>
       <c r="F20">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="G20">
         <v>-0.05</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>-5.0799999999999998E-2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>3.9999999999999758E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0.05</v>
@@ -956,13 +995,16 @@
         <v>0.05</v>
       </c>
       <c r="F21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>3.9999999999999758E-4</v>
       </c>
@@ -970,17 +1012,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:H21 G2:H2" formulaRange="1"/>
+    <ignoredError sqref="H12:I21 G2:H11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I23" sqref="A14:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1034,7 @@
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1063,7 +1105,7 @@
         <v>8.1092539730842923E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1083,15 +1125,15 @@
         <v>89.867999999999995</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G23" si="0">AVERAGE(B5:F5)</f>
+        <f t="shared" ref="G5:H23" si="0">AVERAGE(B5:F5)</f>
         <v>89.862399999999994</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H23" si="1">_xlfn.STDEV.P(B5:F5)</f>
+        <f t="shared" ref="H5:I23" si="1">_xlfn.STDEV.P(B5:F5)</f>
         <v>7.3102667529985847E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1119,7 +1161,7 @@
         <v>6.2801273872456842E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1147,7 +1189,7 @@
         <v>6.2417946137332857E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1175,7 +1217,7 @@
         <v>5.7758116312787615E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1203,7 +1245,7 @@
         <v>5.2000000000013268E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>4.4452221541761419E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1259,7 +1301,7 @@
         <v>4.7074409183775149E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1279,282 +1321,312 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
         <v>26.524000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>26.515999999999998</v>
       </c>
       <c r="D14" s="1">
         <v>26.515999999999998</v>
       </c>
       <c r="E14" s="1">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="F14" s="1">
         <v>26.513000000000002</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>26.498999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>26.513600000000004</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>8.1633326527838588E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
         <v>-26.462</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-26.454000000000001</v>
       </c>
       <c r="D15" s="1">
         <v>-26.454000000000001</v>
       </c>
       <c r="E15" s="1">
+        <v>-26.454000000000001</v>
+      </c>
+      <c r="F15" s="1">
         <v>-26.451000000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>-26.437000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>-26.451600000000003</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>8.1633326527830053E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
         <v>27.192</v>
-      </c>
-      <c r="C16" s="1">
-        <v>27.184000000000001</v>
       </c>
       <c r="D16" s="1">
         <v>27.184000000000001</v>
       </c>
       <c r="E16" s="1">
+        <v>27.184000000000001</v>
+      </c>
+      <c r="F16" s="1">
         <v>27.181999999999999</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>27.169</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>27.182200000000002</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>7.4404300950952924E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
         <v>-27.202999999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-27.193999999999999</v>
       </c>
       <c r="D17" s="1">
         <v>-27.193999999999999</v>
       </c>
       <c r="E17" s="1">
+        <v>-27.193999999999999</v>
+      </c>
+      <c r="F17" s="1">
         <v>-27.192</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>-27.178000000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>-27.192199999999996</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>8.0597766718434188E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
         <v>-27.196000000000002</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>-27.199000000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>-27.193000000000001</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>-27.187000000000001</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>-27.18</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>-27.191000000000003</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>6.7823299831259089E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
         <v>27.26</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>27.263000000000002</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>27.257000000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>27.25</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>27.242999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>27.2546</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>7.2277243998382455E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
         <v>-26.501000000000001</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>-26.504000000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>-26.495999999999999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>-26.49</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>-26.484000000000002</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>-26.494999999999997</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>7.2663608498341583E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
         <v>26.495000000000001</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>26.498999999999999</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>26.492000000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>26.486000000000001</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>26.478999999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>26.490200000000005</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>7.0256672281001683E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
-      <c r="B22" s="1">
-        <v>-0.33</v>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>-0.33</v>
       </c>
       <c r="D22" s="1">
+        <v>-0.33</v>
+      </c>
+      <c r="E22" s="1">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>-0.32900000000000001</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>-0.33019999999999999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>7.4833147735478892E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>0.39400000000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.39300000000000002</v>
       </c>
       <c r="D23" s="1">
         <v>0.39300000000000002</v>
       </c>
       <c r="E23" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>0.39340000000000008</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>4.89897948556636E-4</v>
       </c>
@@ -1562,81 +1634,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G4:H23" formulaRange="1"/>
+    <ignoredError sqref="H14:I23 G4:H13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F14:F15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1">
-        <v>-206</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>-196</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>-183</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>-172</v>
+        <v>4</v>
       </c>
       <c r="F1">
-        <v>-163</v>
+        <v>5</v>
       </c>
       <c r="G1">
-        <v>-153</v>
+        <v>6</v>
       </c>
       <c r="H1">
-        <v>-140</v>
+        <v>7</v>
       </c>
       <c r="I1">
-        <v>-125</v>
+        <v>8</v>
       </c>
       <c r="J1">
-        <v>-110</v>
+        <v>9</v>
       </c>
       <c r="K1">
-        <v>-93</v>
+        <v>10</v>
       </c>
       <c r="L1">
-        <v>-79</v>
+        <v>11</v>
       </c>
       <c r="M1">
-        <v>-64</v>
+        <v>12</v>
       </c>
       <c r="N1">
-        <v>-27</v>
+        <v>13</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
+      <c r="B2">
+        <v>-206</v>
+      </c>
+      <c r="C2">
+        <v>-196</v>
+      </c>
+      <c r="D2">
+        <v>-183</v>
+      </c>
+      <c r="E2">
+        <v>-172</v>
+      </c>
       <c r="F2">
-        <v>-160</v>
+        <v>-163</v>
       </c>
       <c r="G2">
-        <v>-151</v>
+        <v>-153</v>
       </c>
       <c r="H2">
         <v>-140</v>
@@ -1645,7 +1730,7 @@
         <v>-125</v>
       </c>
       <c r="J2">
-        <v>-109</v>
+        <v>-110</v>
       </c>
       <c r="K2">
         <v>-93</v>
@@ -1654,7 +1739,13 @@
         <v>-79</v>
       </c>
       <c r="M2">
-        <v>-62</v>
+        <v>-64</v>
+      </c>
+      <c r="N2">
+        <v>-27</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1662,958 +1753,1005 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <f>AVERAGE(B1:B2)</f>
-        <v>-206</v>
+        <v>-205</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:O3" si="0">AVERAGE(C1:C2)</f>
-        <v>-196</v>
+        <v>-195</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
         <v>-183</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>-172</v>
+        <v>-173</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>-161.5</v>
+        <v>-160</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>-152</v>
+        <v>-151</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
         <v>-140</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
         <v>-125</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>-109.5</v>
+        <v>-109</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
         <v>-93</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
         <v>-79</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
         <v>-27</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(B2:B3)</f>
+        <v>-205.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:O4" si="0">AVERAGE(C2:C3)</f>
+        <v>-195.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-183</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(E2:E3)</f>
+        <v>-172.5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>-161.5</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>-152</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>-140</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>-125</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>-109.5</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>-93</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>-79</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>-63</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>-27</v>
       </c>
       <c r="O4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>-82.382000000000005</v>
-      </c>
-      <c r="C5">
-        <v>-82.54</v>
-      </c>
-      <c r="D5">
-        <v>-82.9</v>
-      </c>
-      <c r="E5">
-        <v>-83.3</v>
-      </c>
-      <c r="F5">
-        <v>-83.596000000000004</v>
-      </c>
-      <c r="G5">
-        <v>-83.793000000000006</v>
-      </c>
-      <c r="H5">
-        <v>-84.02</v>
-      </c>
-      <c r="I5">
-        <v>-84.54</v>
-      </c>
-      <c r="J5">
-        <v>-85.194999999999993</v>
-      </c>
-      <c r="K5">
-        <v>-85.71</v>
-      </c>
-      <c r="L5">
-        <v>-86.432000000000002</v>
-      </c>
-      <c r="M5">
-        <v>-87.257999999999996</v>
-      </c>
-      <c r="N5">
-        <v>-88.869</v>
-      </c>
-      <c r="O5">
-        <v>-90.2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>82.504999999999995</v>
-      </c>
-      <c r="C6">
-        <v>82.665000000000006</v>
-      </c>
-      <c r="D6">
-        <v>83.027000000000001</v>
-      </c>
-      <c r="E6">
-        <v>83.412000000000006</v>
-      </c>
-      <c r="F6">
-        <v>83.712000000000003</v>
-      </c>
-      <c r="G6">
-        <v>83.9</v>
-      </c>
-      <c r="H6">
-        <v>84.12</v>
-      </c>
-      <c r="I6">
-        <v>84.614999999999995</v>
-      </c>
-      <c r="J6">
-        <v>85.274000000000001</v>
-      </c>
-      <c r="K6">
-        <v>85.75</v>
-      </c>
-      <c r="L6">
-        <v>86.475999999999999</v>
-      </c>
-      <c r="M6">
-        <v>87.287999999999997</v>
-      </c>
-      <c r="N6">
-        <v>88.869</v>
-      </c>
-      <c r="O6">
-        <v>90.165999999999997</v>
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>-82.076999999999998</v>
+        <v>-82.382000000000005</v>
       </c>
       <c r="C7">
-        <v>-82.24</v>
+        <v>-82.54</v>
       </c>
       <c r="D7">
-        <v>-82.608000000000004</v>
+        <v>-82.9</v>
       </c>
       <c r="E7">
-        <v>-82.986999999999995</v>
+        <v>-83.3</v>
       </c>
       <c r="F7">
-        <v>-83.305000000000007</v>
+        <v>-83.596000000000004</v>
       </c>
       <c r="G7">
-        <v>-83.495000000000005</v>
+        <v>-83.793000000000006</v>
       </c>
       <c r="H7">
-        <v>-83.713999999999999</v>
+        <v>-84.02</v>
       </c>
       <c r="I7">
-        <v>-84.2</v>
+        <v>-84.54</v>
       </c>
       <c r="J7">
-        <v>-84.888000000000005</v>
+        <v>-85.194999999999993</v>
       </c>
       <c r="K7">
-        <v>-85.343999999999994</v>
+        <v>-85.71</v>
       </c>
       <c r="L7">
-        <v>-86.102000000000004</v>
+        <v>-86.432000000000002</v>
       </c>
       <c r="M7">
-        <v>-86.906999999999996</v>
+        <v>-87.257999999999996</v>
       </c>
       <c r="N7">
-        <v>-88.522999999999996</v>
+        <v>-88.869</v>
       </c>
       <c r="O7">
-        <v>-89.837000000000003</v>
+        <v>-90.2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>82.111000000000004</v>
+        <v>82.504999999999995</v>
       </c>
       <c r="C8">
-        <v>82.277000000000001</v>
+        <v>82.665000000000006</v>
       </c>
       <c r="D8">
-        <v>82.65</v>
+        <v>83.027000000000001</v>
       </c>
       <c r="E8">
-        <v>83.025000000000006</v>
+        <v>83.412000000000006</v>
       </c>
       <c r="F8">
-        <v>83.320999999999998</v>
+        <v>83.712000000000003</v>
       </c>
       <c r="G8">
-        <v>83.55</v>
+        <v>83.9</v>
       </c>
       <c r="H8">
-        <v>83.754999999999995</v>
+        <v>84.12</v>
       </c>
       <c r="I8">
-        <v>84.227999999999994</v>
+        <v>84.614999999999995</v>
       </c>
       <c r="J8">
-        <v>84.927999999999997</v>
+        <v>85.274000000000001</v>
       </c>
       <c r="K8">
-        <v>85.372</v>
+        <v>85.75</v>
       </c>
       <c r="L8">
-        <v>86.129000000000005</v>
+        <v>86.475999999999999</v>
       </c>
       <c r="M8">
-        <v>86.924000000000007</v>
+        <v>87.287999999999997</v>
       </c>
       <c r="N8">
-        <v>88.527000000000001</v>
+        <v>88.869</v>
       </c>
       <c r="O8">
-        <v>89.802000000000007</v>
+        <v>90.165999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>-82.429000000000002</v>
+        <v>-82.076999999999998</v>
       </c>
       <c r="C9">
-        <v>-82.597999999999999</v>
+        <v>-82.24</v>
       </c>
       <c r="D9">
-        <v>-82.97</v>
+        <v>-82.608000000000004</v>
       </c>
       <c r="E9">
-        <v>-83.334999999999994</v>
+        <v>-82.986999999999995</v>
       </c>
       <c r="F9">
-        <v>-83.626999999999995</v>
+        <v>-83.305000000000007</v>
       </c>
       <c r="G9">
-        <v>-83.884</v>
+        <v>-83.495000000000005</v>
       </c>
       <c r="H9">
-        <v>-84.058000000000007</v>
+        <v>-83.713999999999999</v>
       </c>
       <c r="I9">
-        <v>-84.52</v>
+        <v>-84.2</v>
       </c>
       <c r="J9">
-        <v>-85.242999999999995</v>
+        <v>-84.888000000000005</v>
       </c>
       <c r="K9">
-        <v>-85.688000000000002</v>
+        <v>-85.343999999999994</v>
       </c>
       <c r="L9">
-        <v>-86.454999999999998</v>
+        <v>-86.102000000000004</v>
       </c>
       <c r="M9">
-        <v>-87.253</v>
+        <v>-86.906999999999996</v>
       </c>
       <c r="N9">
-        <v>-88.875</v>
+        <v>-88.522999999999996</v>
       </c>
       <c r="O9">
-        <v>-90.156999999999996</v>
+        <v>-89.837000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>82.457999999999998</v>
+        <v>82.111000000000004</v>
       </c>
       <c r="C10">
-        <v>82.622</v>
+        <v>82.277000000000001</v>
       </c>
       <c r="D10">
-        <v>82.99</v>
+        <v>82.65</v>
       </c>
       <c r="E10">
-        <v>83.349000000000004</v>
+        <v>83.025000000000006</v>
       </c>
       <c r="F10">
-        <v>83.64</v>
+        <v>83.320999999999998</v>
       </c>
       <c r="G10">
-        <v>83.902000000000001</v>
+        <v>83.55</v>
       </c>
       <c r="H10">
-        <v>84.066000000000003</v>
+        <v>83.754999999999995</v>
       </c>
       <c r="I10">
-        <v>84.513000000000005</v>
+        <v>84.227999999999994</v>
       </c>
       <c r="J10">
-        <v>85.251000000000005</v>
+        <v>84.927999999999997</v>
       </c>
       <c r="K10">
-        <v>85.692999999999998</v>
+        <v>85.372</v>
       </c>
       <c r="L10">
-        <v>86.462999999999994</v>
+        <v>86.129000000000005</v>
       </c>
       <c r="M10">
-        <v>87.265000000000001</v>
+        <v>86.924000000000007</v>
       </c>
       <c r="N10">
-        <v>88.91</v>
+        <v>88.527000000000001</v>
       </c>
       <c r="O10">
-        <v>90.182000000000002</v>
+        <v>89.802000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>-82.192999999999998</v>
+        <v>-82.429000000000002</v>
       </c>
       <c r="C11">
-        <v>-82.364000000000004</v>
+        <v>-82.597999999999999</v>
       </c>
       <c r="D11">
-        <v>-82.73</v>
+        <v>-82.97</v>
       </c>
       <c r="E11">
-        <v>-83.081000000000003</v>
+        <v>-83.334999999999994</v>
       </c>
       <c r="F11">
-        <v>-83.378</v>
+        <v>-83.626999999999995</v>
       </c>
       <c r="G11">
-        <v>-83.63</v>
+        <v>-83.884</v>
       </c>
       <c r="H11">
-        <v>-83.786000000000001</v>
+        <v>-84.058000000000007</v>
       </c>
       <c r="I11">
-        <v>-84.222999999999999</v>
+        <v>-84.52</v>
       </c>
       <c r="J11">
-        <v>-84.933999999999997</v>
+        <v>-85.242999999999995</v>
       </c>
       <c r="K11">
-        <v>-85.393000000000001</v>
+        <v>-85.688000000000002</v>
       </c>
       <c r="L11">
-        <v>-86.150999999999996</v>
+        <v>-86.454999999999998</v>
       </c>
       <c r="M11">
-        <v>-86.94</v>
+        <v>-87.253</v>
       </c>
       <c r="N11">
-        <v>-88.563000000000002</v>
+        <v>-88.875</v>
       </c>
       <c r="O11">
-        <v>-89.8</v>
+        <v>-90.156999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>81.992000000000004</v>
+        <v>82.457999999999998</v>
       </c>
       <c r="C12">
-        <v>82.171999999999997</v>
+        <v>82.622</v>
       </c>
       <c r="D12">
-        <v>82.48</v>
+        <v>82.99</v>
       </c>
       <c r="E12">
-        <v>82.905000000000001</v>
+        <v>83.349000000000004</v>
       </c>
       <c r="F12">
-        <v>83.218000000000004</v>
+        <v>83.64</v>
       </c>
       <c r="G12">
-        <v>83.466999999999999</v>
+        <v>83.902000000000001</v>
       </c>
       <c r="H12">
-        <v>83.628</v>
+        <v>84.066000000000003</v>
       </c>
       <c r="I12">
-        <v>84.075999999999993</v>
+        <v>84.513000000000005</v>
       </c>
       <c r="J12">
-        <v>84.805000000000007</v>
+        <v>85.251000000000005</v>
       </c>
       <c r="K12">
-        <v>85.28</v>
+        <v>85.692999999999998</v>
       </c>
       <c r="L12">
-        <v>86.057000000000002</v>
+        <v>86.462999999999994</v>
       </c>
       <c r="M12">
-        <v>86.864999999999995</v>
+        <v>87.265000000000001</v>
       </c>
       <c r="N12">
-        <v>88.546999999999997</v>
+        <v>88.91</v>
       </c>
       <c r="O12">
-        <v>89.822999999999993</v>
+        <v>90.182000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>-82.192999999999998</v>
+      </c>
+      <c r="C13">
+        <v>-82.364000000000004</v>
+      </c>
+      <c r="D13">
+        <v>-82.73</v>
+      </c>
+      <c r="E13">
+        <v>-83.081000000000003</v>
+      </c>
+      <c r="F13">
+        <v>-83.378</v>
+      </c>
+      <c r="G13">
+        <v>-83.63</v>
+      </c>
+      <c r="H13">
+        <v>-83.786000000000001</v>
+      </c>
+      <c r="I13">
+        <v>-84.222999999999999</v>
+      </c>
+      <c r="J13">
+        <v>-84.933999999999997</v>
+      </c>
+      <c r="K13">
+        <v>-85.393000000000001</v>
+      </c>
+      <c r="L13">
+        <v>-86.150999999999996</v>
+      </c>
+      <c r="M13">
+        <v>-86.94</v>
+      </c>
+      <c r="N13">
+        <v>-88.563000000000002</v>
+      </c>
+      <c r="O13">
+        <v>-89.8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>26.978000000000002</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="C14">
-        <v>27.03</v>
+        <v>82.171999999999997</v>
       </c>
       <c r="D14">
-        <v>27.041</v>
+        <v>82.48</v>
       </c>
       <c r="E14">
-        <v>27.047999999999998</v>
+        <v>82.905000000000001</v>
       </c>
       <c r="F14">
-        <v>27.044</v>
+        <v>83.218000000000004</v>
       </c>
       <c r="G14">
-        <v>27.047000000000001</v>
+        <v>83.466999999999999</v>
       </c>
       <c r="H14">
-        <v>27.027999999999999</v>
+        <v>83.628</v>
       </c>
       <c r="I14">
-        <v>26.99</v>
+        <v>84.075999999999993</v>
       </c>
       <c r="J14">
-        <v>26.922000000000001</v>
+        <v>84.805000000000007</v>
       </c>
       <c r="K14">
-        <v>26.879000000000001</v>
+        <v>85.28</v>
       </c>
       <c r="L14">
-        <v>26.831</v>
+        <v>86.057000000000002</v>
       </c>
       <c r="M14">
-        <v>26.779</v>
+        <v>86.864999999999995</v>
       </c>
       <c r="N14">
-        <v>26.620999999999999</v>
+        <v>88.546999999999997</v>
       </c>
       <c r="O14">
-        <v>26.483000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>-27.15</v>
-      </c>
-      <c r="C15">
-        <v>-27.204999999999998</v>
-      </c>
-      <c r="D15">
-        <v>-27.213999999999999</v>
-      </c>
-      <c r="E15">
-        <v>-27.219000000000001</v>
-      </c>
-      <c r="F15">
-        <v>-27.2</v>
-      </c>
-      <c r="G15">
-        <v>-27.196999999999999</v>
-      </c>
-      <c r="H15">
-        <v>-27.172999999999998</v>
-      </c>
-      <c r="I15">
-        <v>-27.126999999999999</v>
-      </c>
-      <c r="J15">
-        <v>-27.04</v>
-      </c>
-      <c r="K15">
-        <v>-26.983000000000001</v>
-      </c>
-      <c r="L15">
-        <v>-26.916</v>
-      </c>
-      <c r="M15">
-        <v>-26.85</v>
-      </c>
-      <c r="N15">
-        <v>-26.63</v>
-      </c>
-      <c r="O15">
-        <v>-26.443000000000001</v>
+        <v>89.822999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>27.808</v>
+        <v>26.978000000000002</v>
       </c>
       <c r="C16">
-        <v>27.849</v>
+        <v>27.03</v>
       </c>
       <c r="D16">
-        <v>27.847999999999999</v>
+        <v>27.041</v>
       </c>
       <c r="E16">
-        <v>27.85</v>
+        <v>27.047999999999998</v>
       </c>
       <c r="F16">
-        <v>27.832000000000001</v>
+        <v>27.044</v>
       </c>
       <c r="G16">
-        <v>27.827999999999999</v>
+        <v>27.047000000000001</v>
       </c>
       <c r="H16">
-        <v>27.806000000000001</v>
+        <v>27.027999999999999</v>
       </c>
       <c r="I16">
-        <v>27.760999999999999</v>
+        <v>26.99</v>
       </c>
       <c r="J16">
-        <v>27.684000000000001</v>
+        <v>26.922000000000001</v>
       </c>
       <c r="K16">
-        <v>27.631</v>
+        <v>26.879000000000001</v>
       </c>
       <c r="L16">
-        <v>27.573</v>
+        <v>26.831</v>
       </c>
       <c r="M16">
-        <v>27.518000000000001</v>
+        <v>26.779</v>
       </c>
       <c r="N16">
-        <v>27.317</v>
+        <v>26.620999999999999</v>
       </c>
       <c r="O16">
-        <v>27.154</v>
+        <v>26.483000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>-27.742000000000001</v>
+        <v>-27.15</v>
       </c>
       <c r="C17">
-        <v>-27.786999999999999</v>
+        <v>-27.204999999999998</v>
       </c>
       <c r="D17">
-        <v>-27.786000000000001</v>
+        <v>-27.213999999999999</v>
       </c>
       <c r="E17">
-        <v>-27.789000000000001</v>
+        <v>-27.219000000000001</v>
       </c>
       <c r="F17">
-        <v>-27.774999999999999</v>
+        <v>-27.2</v>
       </c>
       <c r="G17">
-        <v>-27.771000000000001</v>
+        <v>-27.196999999999999</v>
       </c>
       <c r="H17">
-        <v>-27.745999999999999</v>
+        <v>-27.172999999999998</v>
       </c>
       <c r="I17">
-        <v>-27.707000000000001</v>
+        <v>-27.126999999999999</v>
       </c>
       <c r="J17">
-        <v>-27.63</v>
+        <v>-27.04</v>
       </c>
       <c r="K17">
-        <v>-27.584</v>
+        <v>-26.983000000000001</v>
       </c>
       <c r="L17">
-        <v>-27.533000000000001</v>
+        <v>-26.916</v>
       </c>
       <c r="M17">
-        <v>-27.481000000000002</v>
+        <v>-26.85</v>
       </c>
       <c r="N17">
-        <v>-27.303000000000001</v>
+        <v>-26.63</v>
       </c>
       <c r="O17">
-        <v>-27.16</v>
+        <v>-26.443000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>-27.888999999999999</v>
+        <v>27.808</v>
       </c>
       <c r="C18">
-        <v>-27.922999999999998</v>
+        <v>27.849</v>
       </c>
       <c r="D18">
-        <v>-27.940999999999999</v>
+        <v>27.847999999999999</v>
       </c>
       <c r="E18">
-        <v>-27.937999999999999</v>
+        <v>27.85</v>
       </c>
       <c r="F18">
-        <v>-27.914000000000001</v>
+        <v>27.832000000000001</v>
       </c>
       <c r="G18">
-        <v>-27.914000000000001</v>
+        <v>27.827999999999999</v>
       </c>
       <c r="H18">
-        <v>-27.88</v>
+        <v>27.806000000000001</v>
       </c>
       <c r="I18">
-        <v>-27.832000000000001</v>
+        <v>27.760999999999999</v>
       </c>
       <c r="J18">
-        <v>-27.754000000000001</v>
+        <v>27.684000000000001</v>
       </c>
       <c r="K18">
-        <v>-27.7</v>
+        <v>27.631</v>
       </c>
       <c r="L18">
-        <v>-27.638999999999999</v>
+        <v>27.573</v>
       </c>
       <c r="M18">
-        <v>-27.562999999999999</v>
+        <v>27.518000000000001</v>
       </c>
       <c r="N18">
-        <v>-27.352</v>
+        <v>27.317</v>
       </c>
       <c r="O18">
-        <v>-27.177</v>
+        <v>27.154</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>27.722000000000001</v>
+        <v>-27.742000000000001</v>
       </c>
       <c r="C19">
-        <v>27.751999999999999</v>
+        <v>-27.786999999999999</v>
       </c>
       <c r="D19">
-        <v>27.773</v>
+        <v>-27.786000000000001</v>
       </c>
       <c r="E19">
-        <v>27.774000000000001</v>
+        <v>-27.789000000000001</v>
       </c>
       <c r="F19">
-        <v>27.760999999999999</v>
+        <v>-27.774999999999999</v>
       </c>
       <c r="G19">
-        <v>27.765999999999998</v>
+        <v>-27.771000000000001</v>
       </c>
       <c r="H19">
-        <v>27.74</v>
+        <v>-27.745999999999999</v>
       </c>
       <c r="I19">
-        <v>27.699000000000002</v>
+        <v>-27.707000000000001</v>
       </c>
       <c r="J19">
-        <v>27.641999999999999</v>
+        <v>-27.63</v>
       </c>
       <c r="K19">
-        <v>27.6</v>
+        <v>-27.584</v>
       </c>
       <c r="L19">
-        <v>27.558</v>
+        <v>-27.533000000000001</v>
       </c>
       <c r="M19">
-        <v>27.5</v>
+        <v>-27.481000000000002</v>
       </c>
       <c r="N19">
-        <v>27.344999999999999</v>
+        <v>-27.303000000000001</v>
       </c>
       <c r="O19">
-        <v>27.219000000000001</v>
+        <v>-27.16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>-27.085000000000001</v>
+        <v>-27.888999999999999</v>
       </c>
       <c r="C20">
-        <v>-27.12</v>
+        <v>-27.922999999999998</v>
       </c>
       <c r="D20">
-        <v>-27.14</v>
+        <v>-27.940999999999999</v>
       </c>
       <c r="E20">
-        <v>-27.143000000000001</v>
+        <v>-27.937999999999999</v>
       </c>
       <c r="F20">
-        <v>-27.122</v>
+        <v>-27.914000000000001</v>
       </c>
       <c r="G20">
-        <v>-27.125</v>
+        <v>-27.914000000000001</v>
       </c>
       <c r="H20">
-        <v>-27.094999999999999</v>
+        <v>-27.88</v>
       </c>
       <c r="I20">
-        <v>-27.052</v>
+        <v>-27.832000000000001</v>
       </c>
       <c r="J20">
-        <v>-26.98</v>
+        <v>-27.754000000000001</v>
       </c>
       <c r="K20">
-        <v>-26.928000000000001</v>
+        <v>-27.7</v>
       </c>
       <c r="L20">
-        <v>-26.88</v>
+        <v>-27.638999999999999</v>
       </c>
       <c r="M20">
-        <v>-26.811</v>
+        <v>-27.562999999999999</v>
       </c>
       <c r="N20">
-        <v>-26.628</v>
+        <v>-27.352</v>
       </c>
       <c r="O20">
-        <v>-26.48</v>
+        <v>-27.177</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>27.15</v>
+        <v>27.722000000000001</v>
       </c>
       <c r="C21">
-        <v>27.18</v>
+        <v>27.751999999999999</v>
       </c>
       <c r="D21">
-        <v>27.198</v>
+        <v>27.773</v>
       </c>
       <c r="E21">
-        <v>27.199000000000002</v>
+        <v>27.774000000000001</v>
       </c>
       <c r="F21">
-        <v>27.175000000000001</v>
+        <v>27.760999999999999</v>
       </c>
       <c r="G21">
-        <v>27.177</v>
+        <v>27.765999999999998</v>
       </c>
       <c r="H21">
-        <v>27.15</v>
+        <v>27.74</v>
       </c>
       <c r="I21">
-        <v>27.100999999999999</v>
+        <v>27.699000000000002</v>
       </c>
       <c r="J21">
-        <v>27.027999999999999</v>
+        <v>27.641999999999999</v>
       </c>
       <c r="K21">
-        <v>26.972999999999999</v>
+        <v>27.6</v>
       </c>
       <c r="L21">
-        <v>26.917999999999999</v>
+        <v>27.558</v>
       </c>
       <c r="M21">
-        <v>26.841999999999999</v>
+        <v>27.5</v>
       </c>
       <c r="N21">
-        <v>26.641999999999999</v>
+        <v>27.344999999999999</v>
       </c>
       <c r="O21">
-        <v>26.471</v>
+        <v>27.219000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>-0.44</v>
+        <v>-27.085000000000001</v>
       </c>
       <c r="C22">
-        <v>-0.439</v>
+        <v>-27.12</v>
       </c>
       <c r="D22">
-        <v>-0.435</v>
+        <v>-27.14</v>
       </c>
       <c r="E22">
-        <v>-0.43099999999999999</v>
+        <v>-27.143000000000001</v>
       </c>
       <c r="F22">
-        <v>-0.42599999999999999</v>
+        <v>-27.122</v>
       </c>
       <c r="G22">
-        <v>-0.42099999999999999</v>
+        <v>-27.125</v>
       </c>
       <c r="H22">
-        <v>-0.41599999999999998</v>
+        <v>-27.094999999999999</v>
       </c>
       <c r="I22">
-        <v>-0.41399999999999998</v>
+        <v>-27.052</v>
       </c>
       <c r="J22">
-        <v>-0.40400000000000003</v>
+        <v>-26.98</v>
       </c>
       <c r="K22">
-        <v>-0.39900000000000002</v>
+        <v>-26.928000000000001</v>
       </c>
       <c r="L22">
-        <v>-0.39100000000000001</v>
+        <v>-26.88</v>
       </c>
       <c r="M22">
-        <v>-0.38400000000000001</v>
+        <v>-26.811</v>
       </c>
       <c r="N22">
-        <v>-0.36</v>
+        <v>-26.628</v>
       </c>
       <c r="O22">
-        <v>-0.33900000000000002</v>
+        <v>-26.48</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>27.15</v>
+      </c>
+      <c r="C23">
+        <v>27.18</v>
+      </c>
+      <c r="D23">
+        <v>27.198</v>
+      </c>
+      <c r="E23">
+        <v>27.199000000000002</v>
+      </c>
+      <c r="F23">
+        <v>27.175000000000001</v>
+      </c>
+      <c r="G23">
+        <v>27.177</v>
+      </c>
+      <c r="H23">
+        <v>27.15</v>
+      </c>
+      <c r="I23">
+        <v>27.100999999999999</v>
+      </c>
+      <c r="J23">
+        <v>27.027999999999999</v>
+      </c>
+      <c r="K23">
+        <v>26.972999999999999</v>
+      </c>
+      <c r="L23">
+        <v>26.917999999999999</v>
+      </c>
+      <c r="M23">
+        <v>26.841999999999999</v>
+      </c>
+      <c r="N23">
+        <v>26.641999999999999</v>
+      </c>
+      <c r="O23">
+        <v>26.471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>-0.44</v>
+      </c>
+      <c r="C24">
+        <v>-0.439</v>
+      </c>
+      <c r="D24">
+        <v>-0.435</v>
+      </c>
+      <c r="E24">
+        <v>-0.43099999999999999</v>
+      </c>
+      <c r="F24">
+        <v>-0.42599999999999999</v>
+      </c>
+      <c r="G24">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="H24">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="I24">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="J24">
+        <v>-0.40400000000000003</v>
+      </c>
+      <c r="K24">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="L24">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="M24">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="N24">
+        <v>-0.36</v>
+      </c>
+      <c r="O24">
+        <v>-0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>0.26800000000000002</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>0.26600000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>0.27200000000000002</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <v>0.28699999999999998</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="L23">
+      <c r="L25">
         <v>0.30399999999999999</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <v>0.318</v>
       </c>
-      <c r="N23">
+      <c r="N25">
         <v>0.47</v>
       </c>
-      <c r="O23">
+      <c r="O25">
         <v>0.376</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>19</v>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
+++ b/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
   <si>
     <t>mess nr.</t>
   </si>
@@ -97,13 +97,179 @@
   </si>
   <si>
     <t>Messung</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>strom</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>R12,34</t>
+  </si>
+  <si>
+    <t>R23,41</t>
+  </si>
+  <si>
+    <t>R34, 12</t>
+  </si>
+  <si>
+    <t>R41,23</t>
+  </si>
+  <si>
+    <t>dR</t>
+  </si>
+  <si>
+    <t>Spannung</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>R12,34/R23,41</t>
+  </si>
+  <si>
+    <t>R34,12/R41,23</t>
+  </si>
+  <si>
+    <t>rho1</t>
+  </si>
+  <si>
+    <t>rho2</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>drho</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>average v</t>
+  </si>
+  <si>
+    <t>sigma v</t>
+  </si>
+  <si>
+    <t>V_A</t>
+  </si>
+  <si>
+    <t>V_B</t>
+  </si>
+  <si>
+    <t>V_C</t>
+  </si>
+  <si>
+    <t>V_D</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>V_H+</t>
+  </si>
+  <si>
+    <t>V_H-</t>
+  </si>
+  <si>
+    <t>mit nullfeld</t>
+  </si>
+  <si>
+    <t>R_H+</t>
+  </si>
+  <si>
+    <t>R_H-</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ohne nullfeld</t>
+  </si>
+  <si>
+    <t>R_H1</t>
+  </si>
+  <si>
+    <t>R_H2</t>
+  </si>
+  <si>
+    <t>R_H</t>
+  </si>
+  <si>
+    <t>Beweglichkeit</t>
+  </si>
+  <si>
+    <t>mu_HS</t>
+  </si>
+  <si>
+    <t>p_S</t>
+  </si>
+  <si>
+    <t>R_HS</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>T^-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +281,69 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,16 +351,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
+    <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -152,6 +420,695 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>leitfähigkeit - temperatur</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tag 2'!$B$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.4781966001478202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2878300064391505E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1092623405435388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.935419771485347E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9565606806986144E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2542302930251766E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5103266992114174E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7499156260546755E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1106018942865877E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.550929780738274E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1506567087303634E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7585058291696415E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0625634775543372E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6609921288669233E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tag 2'!$B$65:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0236553950290521E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0155346005055291E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9980927558064566E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9798325913251185E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9655115660480439E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9547097944541545E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9457178938029754E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9236892457156614E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8913838094983312E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8702727551732395E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8364348869958424E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8010000391448043E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.731464227369382E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6781640370630676E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="53680320"/>
+        <c:axId val="53679744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53680320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53679744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53679744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53680320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ladungsträgerkonzentration - Temperatur</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tag 2'!$B$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.4781966001478202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2878300064391505E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1092623405435388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.935419771485347E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9565606806986144E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2542302930251766E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5103266992114174E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7499156260546755E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1106018942865877E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.550929780738274E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1506567087303634E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7585058291696415E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0625634775543372E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6609921288669233E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tag 2'!$B$71:$O$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.7098021480183168E+17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7029038815424122E+17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7008725373694445E+17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7004664790942586E+17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7033959446535309E+17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7033531524693421E+17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7077862777257472E+17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7152794364072128E+17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7279797271884627E+17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7366871912953805E+17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7460367170760032E+17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7570423234208115E+17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7902343736578957E+17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8181604978007667E+17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="53613632"/>
+        <c:axId val="53613056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53613632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53613056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53613056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53613632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Beweglichkeit - Temperatur</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tag 2'!$B$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.4781966001478202E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2878300064391505E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1092623405435388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.935419771485347E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9565606806986144E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2542302930251766E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5103266992114174E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7499156260546755E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1106018942865877E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.550929780738274E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1506567087303634E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7585058291696415E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0625634775543372E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6609921288669233E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tag 2'!$B$69:$O$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.53328037709991671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5329847193500542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53089896441293127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5285198858705753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5262900614221232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52486125997378097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52317475659531243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51942716361246311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51376669802579045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51004013958905348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50458487243509642</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49876772985251289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48625044067693274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47652678777122143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="72645376"/>
+        <c:axId val="53681472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72645376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53681472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53681472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72645376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,600 +1398,1630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="A12:I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="J1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="6"/>
+      <c r="D2" s="4">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="C2">
+      <c r="E2" s="4">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="D2">
+      <c r="F2" s="4">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="E2">
+      <c r="G2" s="4">
         <v>-0.24399999999999999</v>
       </c>
-      <c r="F2">
+      <c r="H2" s="4">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="G2">
-        <f>AVERAGE(B2:F2)</f>
+      <c r="I2" s="3">
+        <f>AVERAGE(D2:H2)</f>
         <v>-0.24379999999999996</v>
       </c>
-      <c r="H2">
-        <f>_xlfn.STDEV.P(B2:F2)</f>
+      <c r="J2" s="11">
+        <f>_xlfn.STDEV.P(D2:H2)</f>
         <v>4.0000000000000034E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="K2" s="3">
+        <f>I2/1000</f>
+        <v>-2.4379999999999996E-4</v>
+      </c>
+      <c r="L2" s="11">
+        <f>J2/1000</f>
+        <v>4.0000000000000035E-7</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3">
+        <f>ABS(D2-D3)/(2*$D$31)/1000</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" ref="P2:S2" si="0">ABS(E2-E3)/(2*$D$31)/1000</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" si="0"/>
+        <v>2.42</v>
+      </c>
+      <c r="U2" s="3">
+        <f>O2/O3</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="V2" s="3">
+        <f t="shared" ref="V2:Y2" si="1">P2/P3</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="W2" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2689295039164492</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2689295039164492</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2637075718015665</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((O2+O3)/2)*$V$7</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((P2+P3)/2)*$V$7</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((Q2+Q3)/2)*$V$7</f>
+        <v>9.8465524081195799</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((R2+R3)/2)*$V$7</f>
+        <v>9.8465524081195799</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((S2+S3)/2)*$V$7</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="AG2" s="16">
+        <f>AVERAGE(AA2:AE2)</f>
+        <v>9.8374876878359245</v>
+      </c>
+      <c r="AH2" s="15">
+        <f>_xlfn.STDEV.P(AA2:AE2)</f>
+        <v>8.4792694020943207E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="C3">
+      <c r="E3" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D3">
+      <c r="F3" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F3">
+      <c r="H3" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:H21" si="0">AVERAGE(B3:F3)</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I21" si="2">AVERAGE(D3:H3)</f>
         <v>0.24139999999999998</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:I21" si="1">_xlfn.STDEV.P(B3:F3)</f>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J21" si="3">_xlfn.STDEV.P(D3:H3)</f>
         <v>4.8989794855663611E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K21" si="4">I3/1000</f>
+        <v>2.4139999999999999E-4</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L21" si="5">J3/1000</f>
+        <v>4.898979485566361E-7</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3">
+        <f>ABS(D4-D5)/(2*$D$31)/1000</f>
+        <v>1.915</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:S3" si="6">ABS(E4-E5)/(2*$D$31)/1000</f>
+        <v>1.915</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="6"/>
+        <v>1.915</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="6"/>
+        <v>1.915</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="6"/>
+        <v>1.915</v>
+      </c>
+      <c r="U3" s="3">
+        <f>O4/O5</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:Y3" si="7">P4/P5</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2696335078534031</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="7"/>
+        <v>1.2637075718015665</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((O4+O5)/2)*$V$8</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((P4+P5)/2)*$V$8</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((Q4+Q5)/2)*$V$8</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="AD3" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((R4+R5)/2)*$V$8</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((S4+S5)/2)*$V$8</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="AG3" s="16">
+        <f>AVERAGE(AA3:AE3)</f>
+        <v>9.8306891476231826</v>
+      </c>
+      <c r="AH3" s="15">
+        <f>_xlfn.STDEV.P(AA3:AE3)</f>
+        <v>5.5509848390028812E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
         <v>-0.193</v>
       </c>
-      <c r="C4">
+      <c r="E4" s="4">
         <v>-0.193</v>
       </c>
-      <c r="D4">
+      <c r="F4" s="4">
         <v>-0.193</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="4">
         <v>-0.193</v>
       </c>
-      <c r="F4">
+      <c r="H4" s="4">
         <v>-0.193</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
         <v>-0.193</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="J4" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="K4" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.93E-4</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3">
+        <f>ABS(D6-D7)/(2*$D$31)/1000</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:S4" si="8">ABS(E6-E7)/(2*$D$31)/1000</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="8"/>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
         <v>0.19</v>
       </c>
-      <c r="C5">
+      <c r="E5" s="4">
         <v>0.19</v>
       </c>
-      <c r="D5">
+      <c r="F5" s="4">
         <v>0.19</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="4">
         <v>0.19</v>
       </c>
-      <c r="F5">
+      <c r="H5" s="4">
         <v>0.19</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
         <v>0.19</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="J5" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="K5" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="3">
+        <f>ABS(D8-D9)/(2*$D$31)/1000</f>
+        <v>1.915</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:S5" si="9">ABS(E8-E9)/(2*$D$31)/1000</f>
+        <v>1.915</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="9"/>
+        <v>1.915</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="9"/>
+        <v>1.91</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="9"/>
+        <v>1.915</v>
+      </c>
+      <c r="AG5" s="14">
+        <f>(AG2+AG3)/2</f>
+        <v>9.8340884177295536</v>
+      </c>
+      <c r="AH5" s="18">
+        <f>(AH2+AH3)/2</f>
+        <v>7.015127120548601E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="4">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="C6">
+      <c r="E6" s="4">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="D6">
+      <c r="F6" s="4">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="E6">
+      <c r="G6" s="4">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="F6">
+      <c r="H6" s="4">
         <v>-0.24199999999999999</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
         <v>-0.24279999999999999</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="J6" s="11">
+        <f t="shared" si="3"/>
         <v>4.0000000000000034E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="K6" s="3">
+        <f t="shared" si="4"/>
+        <v>-2.4279999999999999E-4</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000035E-7</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="10"/>
+      <c r="Z6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="C7">
+      <c r="E7" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D7">
+      <c r="F7" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E7">
+      <c r="G7" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="F7">
+      <c r="H7" s="4">
         <v>0.24199999999999999</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
         <v>0.24199999999999999</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="J7" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K7" s="3">
+        <f t="shared" si="4"/>
+        <v>2.42E-4</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="3">
+        <f>ABS(K2-K3)/(2*$D$31)</f>
+        <v>2.4259999999999997</v>
+      </c>
+      <c r="P7" s="11">
+        <f>SQRT((L2/(2*$D$31))^2+(L3/(2*$D$31))^2+(($E$31*ABS(K2-K3))/(2*$D$31^2))^2)</f>
+        <v>3.1646032436942265E-3</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="3">
+        <f>O7/O8</f>
+        <v>1.2668407310704961</v>
+      </c>
+      <c r="T7" s="11">
+        <f>SQRT((P7/O8)^2+(O7*P8/O8^2)^2)</f>
+        <v>1.6537478430624273E-3</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((O7+O8)/2)*V7</f>
+        <v>9.8374876878359228</v>
+      </c>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="6"/>
+      <c r="D8" s="4">
         <v>-0.193</v>
       </c>
-      <c r="C8">
+      <c r="E8" s="4">
         <v>-0.192</v>
       </c>
-      <c r="D8">
+      <c r="F8" s="4">
         <v>-0.193</v>
       </c>
-      <c r="E8">
+      <c r="G8" s="4">
         <v>-0.192</v>
       </c>
-      <c r="F8">
+      <c r="H8" s="4">
         <v>-0.192</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
         <v>-0.19239999999999999</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="J8" s="11">
+        <f t="shared" si="3"/>
         <v>4.8989794855663611E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="K8" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.9239999999999999E-4</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="5"/>
+        <v>4.898979485566361E-7</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="3">
+        <f>ABS(K4-K5)/(2*$D$31)</f>
+        <v>1.9149999999999998</v>
+      </c>
+      <c r="P8" s="11">
+        <f>SQRT((L4/(2*$D$31))^2+(L5/(2*$D$31))^2+(($E$31*ABS(K4-K5))/(2*$D$31^2))^2)</f>
+        <v>9.5749999999999983E-5</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="3">
+        <f>O9/O10</f>
+        <v>1.2664576802507839</v>
+      </c>
+      <c r="T8" s="11">
+        <f>SQRT((P9/O10)^2+(O9*P10/O10^2)^2)</f>
+        <v>2.5206676929198438E-3</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((O9+O10)/2)*V8</f>
+        <v>9.8306891476231826</v>
+      </c>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="6"/>
+      <c r="D9" s="4">
         <v>0.19</v>
       </c>
-      <c r="C9">
+      <c r="E9" s="4">
         <v>0.191</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="4">
         <v>0.19</v>
       </c>
-      <c r="E9">
+      <c r="G9" s="4">
         <v>0.19</v>
       </c>
-      <c r="F9">
+      <c r="H9" s="4">
         <v>0.191</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
         <v>0.19039999999999999</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="J9" s="11">
+        <f t="shared" si="3"/>
         <v>4.89897948556636E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="K9" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9039999999999999E-4</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="5"/>
+        <v>4.8989794855663599E-7</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3">
+        <f>ABS(K6-K7)/(2*$D$31)</f>
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="P9" s="11">
+        <f>SQRT((L6/(2*$D$31))^2+(L7/(2*$D$31))^2+(($E$31*ABS(K6-K7))/(2*$D$31^2))^2)</f>
+        <v>2.003668994619622E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="3">
+        <f>ABS(K8-K9)/(2*$D$31)</f>
+        <v>1.9139999999999997</v>
+      </c>
+      <c r="P10" s="11">
+        <f>SQRT((L8/(2*$D$31))^2+(L9/(2*$D$31))^2+(($E$31*ABS(K8-K9))/(2*$D$31^2))^2)</f>
+        <v>3.4654232771769771E-3</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>(Z7+Z8)/2</f>
+        <v>9.8340884177295536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="7"/>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="4">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="4">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
         <v>-7.6E-3</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="J12" s="11">
+        <f t="shared" si="3"/>
         <v>4.8989794855663557E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="K12" s="3">
+        <f t="shared" si="4"/>
+        <v>-7.6000000000000001E-6</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="5"/>
+        <v>4.8989794855663557E-7</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="3">
+        <f>(D12-D20)/1000</f>
+        <v>4.2999999999999995E-5</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" ref="P12:R12" si="10">(E12-E20)/1000</f>
+        <v>4.2999999999999995E-5</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="10"/>
+        <v>4.2999999999999995E-5</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="10"/>
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="S12" s="3">
+        <f>(H12-H20)/1000</f>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="3">
+        <f>(O12-O13)/2</f>
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" ref="W12:Z12" si="11">(P12-P13)/2</f>
+        <v>4.35E-5</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="11"/>
+        <v>4.35E-5</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="11"/>
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="11"/>
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" s="3">
+        <f>V12/($D$25*$D$31)</f>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" ref="AD12:AG13" si="12">W12/($D$25*$D$31)</f>
+        <v>3.152173913043478</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="12"/>
+        <v>3.152173913043478</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="AI12" s="16">
+        <f>AVERAGE(AC12:AG12)</f>
+        <v>3.1739130434782608</v>
+      </c>
+      <c r="AJ12" s="15">
+        <f>_xlfn.STDEV.P(AC12:AG12)</f>
+        <v>1.7749925672341731E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="J13" s="11">
+        <f t="shared" si="3"/>
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="K13" s="3">
+        <f t="shared" si="4"/>
+        <v>5.7999999999999995E-6</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3">
+        <f>(D13-D21)/1000</f>
+        <v>-4.5000000000000003E-5</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13:S13" si="13">(E13-E21)/1000</f>
+        <v>-4.4000000000000006E-5</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="13"/>
+        <v>-4.4000000000000006E-5</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="13"/>
+        <v>-4.4000000000000006E-5</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="13"/>
+        <v>-4.4999999999999996E-5</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="3">
+        <f>-(O14-O15)/2</f>
+        <v>2.55E-5</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" ref="W13:Z13" si="14">-(P14-P15)/2</f>
+        <v>4.5500000000000001E-5</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4999999999999996E-5</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="14"/>
+        <v>4.5500000000000001E-5</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4499999999999997E-5</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>V13/($D$25*$D$31)</f>
+        <v>1.8478260869565215</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2971014492753619</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2608695652173907</v>
+      </c>
+      <c r="AF13" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2971014492753619</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2246376811594195</v>
+      </c>
+      <c r="AI13" s="16">
+        <f>AVERAGE(AC13:AG13)</f>
+        <v>2.9855072463768111</v>
+      </c>
+      <c r="AJ13" s="15">
+        <f>_xlfn.STDEV.P(AC13:AG13)</f>
+        <v>0.56947486099676825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="J14" s="11">
+        <f t="shared" si="3"/>
         <v>4.89897948556636E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="5"/>
+        <v>4.8989794855663599E-7</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="3">
+        <f>(D16-D20)/1000</f>
+        <v>-4.5000000000000003E-5</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14:S14" si="15">(E16-E20)/1000</f>
+        <v>-4.6000000000000007E-5</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="15"/>
+        <v>-4.5000000000000003E-5</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="15"/>
+        <v>-4.5000000000000003E-5</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="15"/>
+        <v>-4.4999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="4">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="4">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="4">
         <v>-9.6500000000000002E-2</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="4">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="4">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
         <v>-9.6299999999999983E-2</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="J15" s="11">
+        <f t="shared" si="3"/>
         <v>4.0000000000000034E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="K15" s="3">
+        <f t="shared" si="4"/>
+        <v>-9.6299999999999983E-5</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000035E-7</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="3">
+        <f>(D17-D21)/1000</f>
+        <v>5.9999999999999985E-6</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" ref="P15:R15" si="16">(E17-E21)/1000</f>
+        <v>4.4999999999999996E-5</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="16"/>
+        <v>4.4999999999999996E-5</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="16"/>
+        <v>4.6E-5</v>
+      </c>
+      <c r="S15" s="3">
+        <f>(H17-H21)/1000</f>
+        <v>4.4000000000000006E-5</v>
+      </c>
+      <c r="AI15" s="19">
+        <f>(AI12+AI13)/2</f>
+        <v>3.0797101449275361</v>
+      </c>
+      <c r="AJ15" s="20">
+        <f>(AJ12+AJ13)/2</f>
+        <v>0.29361239333455497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="4">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="4">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="4">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="4">
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="4">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="J16" s="11">
+        <f t="shared" si="3"/>
         <v>6.3245553203367642E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>-9.6000000000000002E-5</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="5"/>
+        <v>6.3245553203367647E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
         <v>8.7399999999999992E-2</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
+      <c r="J17" s="11">
+        <f t="shared" si="3"/>
         <v>1.5704776343520507E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>8.7399999999999997E-5</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="5"/>
+        <v>1.5704776343520507E-5</v>
+      </c>
+      <c r="P17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G18">
+      <c r="H18" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
         <v>5.2000000000000006E-3</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+      <c r="J18" s="11">
+        <f t="shared" si="3"/>
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="K18" s="3">
+        <f t="shared" si="4"/>
+        <v>5.200000000000001E-6</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="3">
+        <f>((D12-D13)-(D16-D17))/(4*1000*$D$25*$D$31)</f>
+        <v>2.5181159420289849</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" ref="P18:S18" si="17">((E12-E13)-(E16-E17))/(4*1000*$D$25*$D$31)</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="17"/>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="17"/>
+        <v>3.2427536231884053</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="17"/>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="U18" s="16">
+        <f>AVERAGE(O18:S18)</f>
+        <v>3.0797101449275353</v>
+      </c>
+      <c r="V18" s="15">
+        <f>_xlfn.STDEV.P(O18:S18)</f>
+        <v>0.28111832958363514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F19">
+      <c r="G19" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="G19">
+      <c r="H19" s="4">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
+      <c r="J19" s="11">
+        <f t="shared" si="3"/>
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="K19" s="3">
+        <f t="shared" si="4"/>
+        <v>-7.7999999999999999E-6</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="3">
+        <f>((D14-D15)-(D18-D19))/(4*1000*$D$25*$D$31)</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19:S19" si="18">((E14-E15)-(E18-E19))/(4*1000*$D$25*$D$31)</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="18"/>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="18"/>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="18"/>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="U19" s="16">
+        <f>AVERAGE(O19:S19)</f>
+        <v>3.2192028985507242</v>
+      </c>
+      <c r="V19" s="15">
+        <f>_xlfn.STDEV.P(O19:S19)</f>
+        <v>7.2463768115943461E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="4">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="4">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="4">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="4">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20" s="4">
         <v>-0.05</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
         <v>-5.0799999999999998E-2</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
+      <c r="J20" s="11">
+        <f t="shared" si="3"/>
         <v>3.9999999999999758E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="K20" s="3">
+        <f t="shared" si="4"/>
+        <v>-5.0799999999999995E-5</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="5"/>
+        <v>3.999999999999976E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7">
         <v>10</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="4">
         <v>0.05</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="4">
         <v>0.05</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="4">
         <v>0.05</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="4">
         <v>0.05</v>
       </c>
-      <c r="G21">
+      <c r="H21" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
+      <c r="J21" s="11">
+        <f t="shared" si="3"/>
         <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>5.02E-5</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="5"/>
+        <v>3.999999999999976E-7</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="3">
+        <f>AVERAGE(O18:O19)</f>
+        <v>2.8713768115942022</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" ref="P21:S21" si="19">AVERAGE(P18:P19)</f>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="19"/>
+        <v>3.2110507246376807</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="19"/>
+        <v>3.2336956521739126</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="19"/>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="U21" s="14">
+        <f>(U18+U19)/2</f>
+        <v>3.1494565217391299</v>
+      </c>
+      <c r="V21" s="18">
+        <f>(V18+V19)/2</f>
+        <v>0.14418235319761474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S23" s="3">
+        <f>AVERAGE(O21:S21)</f>
+        <v>3.1494565217391299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" s="11">
+        <f>_xlfn.STDEV.P(O21:S21)</f>
+        <v>0.13925728290563494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="14">
+        <f>AG5</f>
+        <v>9.8340884177295536</v>
+      </c>
+      <c r="P27" s="18">
+        <f>AH5</f>
+        <v>7.015127120548601E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="3">
+        <f>1/O27</f>
+        <v>0.10168710687989474</v>
+      </c>
+      <c r="P28" s="18">
+        <f>P27/O27^2</f>
+        <v>7.2538292415309403E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" s="3">
+        <f>S23</f>
+        <v>3.1494565217391299</v>
+      </c>
+      <c r="P29" s="11">
+        <f>S24</f>
+        <v>0.13925728290563494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="3">
+        <f>ABS(O29/O27)</f>
+        <v>0.32025912193966843</v>
+      </c>
+      <c r="P30" s="11">
+        <f>SQRT((P29/O27)^2+(O29*P27/O27^2)^2)</f>
+        <v>1.416251294963777E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1E-4</v>
+      </c>
+      <c r="E31">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" s="3">
+        <f>1/(D33*O29)</f>
+        <v>1.9819918802963082E+18</v>
+      </c>
+      <c r="P31" s="11">
+        <f>P29/(D33*O29^2)</f>
+        <v>8.7636327755584752E+16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>1.602*10^-19</f>
+        <v>1.602E-19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H12:I21 G2:H11" formulaRange="1"/>
+    <ignoredError sqref="I12:J21 I2:J9 H10:I11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="A14:I23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1054,1708 +3041,4266 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6"/>
+      <c r="C4" s="12">
         <v>-89.887</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="12">
         <v>-89.905000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="12">
         <v>-89.906999999999996</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="12">
         <v>-89.905000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="12">
         <v>-89.91</v>
       </c>
-      <c r="G4">
-        <f>AVERAGE(B4:F4)</f>
+      <c r="H4" s="3">
+        <f>AVERAGE(C4:G4)</f>
         <v>-89.902799999999999</v>
       </c>
-      <c r="H4">
-        <f>_xlfn.STDEV.P(B4:F4)</f>
+      <c r="I4" s="11">
+        <f>_xlfn.STDEV.P(C4:G4)</f>
         <v>8.1092539730842923E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="J4" s="3">
+        <f>H4/1000</f>
+        <v>-8.9902800000000005E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <f>I4/1000</f>
+        <v>8.1092539730842927E-6</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3">
+        <f>ABS(C4-C5)/(2*$D$31)/1000</f>
+        <v>5.98996867293208</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:R4" si="0">ABS(D4-D5)/(2*$D$31)/1000</f>
+        <v>5.9911017796440706</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.9912350863160704</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>ABS(F4-F5)/(2*$D$31)/1000</f>
+        <v>5.9911684329800714</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.9914017196560678</v>
+      </c>
+      <c r="T4" s="3">
+        <f>N4/N5</f>
+        <v>1.0040332266371716</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" ref="U4:W4" si="1">O4/O5</f>
+        <v>1.0040717158176944</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.004077232843507</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0040548465469574</v>
+      </c>
+      <c r="X4" s="3">
+        <f>R4/R5</f>
+        <v>1.0040827268817683</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((N4+N5)/2)*$U$9</f>
+        <v>27.094166769316509</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4:AD4" si="2">(PI()*$D$27/(LN(2)))*((O4+O5)/2)*$U$9</f>
+        <v>27.098773747398415</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="2"/>
+        <v>27.099302417014375</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="2"/>
+        <v>27.099302417014375</v>
+      </c>
+      <c r="AD4" s="3">
+        <f t="shared" si="2"/>
+        <v>27.099982135092027</v>
+      </c>
+      <c r="AF4" s="16">
+        <f>AVERAGE(Z4:AD4)</f>
+        <v>27.098305497167139</v>
+      </c>
+      <c r="AG4" s="15">
+        <f>_xlfn.STDEV.P(Z4:AD4)</f>
+        <v>2.1046206116766635E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="12">
         <v>89.847999999999999</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="12">
         <v>89.864000000000004</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="12">
         <v>89.866</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="12">
         <v>89.866</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="12">
         <v>89.867999999999995</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:H23" si="0">AVERAGE(B5:F5)</f>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H23" si="3">AVERAGE(C5:G5)</f>
         <v>89.862399999999994</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:I23" si="1">_xlfn.STDEV.P(B5:F5)</f>
+      <c r="I5" s="11">
+        <f t="shared" ref="I5:I23" si="4">_xlfn.STDEV.P(C5:G5)</f>
         <v>7.3102667529985847E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:K23" si="5">H5/1000</f>
+        <v>8.9862399999999995E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="5"/>
+        <v>7.3102667529985847E-6</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3">
+        <f>ABS(C6-C7)/(2*$D$31)/1000</f>
+        <v>5.965906818636272</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:R5" si="6">ABS(D6-D7)/(2*$D$31)/1000</f>
+        <v>5.9668066386722654</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="6"/>
+        <v>5.9669066186762647</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="6"/>
+        <v>5.9669732720122646</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="6"/>
+        <v>5.9670399253482644</v>
+      </c>
+      <c r="T5" s="3">
+        <f>N6/N7</f>
+        <v>1.003949058816958</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5:X5" si="7">O6/O7</f>
+        <v>1.0039766317035843</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0039709578330076</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="7"/>
+        <v>1.003976476238879</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0039764096148691</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((N6+N7)/2)*$U$10</f>
+        <v>27.095601729702672</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" ref="AA5:AD5" si="8">(PI()*$D$27/(LN(2)))*((O6+O7)/2)*$U$10</f>
+        <v>27.098396126244158</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((P6+P7)/2)*$U$10</f>
+        <v>27.098924795860118</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="8"/>
+        <v>27.099453465476067</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" si="8"/>
+        <v>27.099906610861179</v>
+      </c>
+      <c r="AF5" s="16">
+        <f>AVERAGE(Z5:AD5)</f>
+        <v>27.098456545628842</v>
+      </c>
+      <c r="AG5" s="15">
+        <f>_xlfn.STDEV.P(Z5:AD5)</f>
+        <v>1.5145574345843921E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="12">
         <v>-89.528999999999996</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="12">
         <v>-89.543000000000006</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="12">
         <v>-89.543999999999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="12">
         <v>-89.545000000000002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="12">
         <v>-89.546000000000006</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
         <v>-89.541399999999996</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="I6" s="11">
+        <f t="shared" si="4"/>
         <v>6.2801273872456842E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="J6" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.9541399999999993E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="5"/>
+        <v>6.2801273872456842E-6</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3">
+        <f>ABS(C8-C9)/(2*$D$31)/1000</f>
+        <v>5.990035326268079</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6:R6" si="9">ABS(D8-D9)/(2*$D$31)/1000</f>
+        <v>5.9907351862960727</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9908351663000738</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>ABS(F8-F9)/(2*$D$31)/1000</f>
+        <v>5.9909684729720709</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9910684529760712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="12">
         <v>89.483999999999995</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="12">
         <v>89.497</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="12">
         <v>89.498999999999995</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="12">
         <v>89.5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="12">
         <v>89.501000000000005</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
         <v>89.496200000000002</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="I7" s="11">
+        <f t="shared" si="4"/>
         <v>6.2417946137332857E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="J7" s="3">
+        <f t="shared" si="5"/>
+        <v>8.9496199999999998E-2</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="5"/>
+        <v>6.2417946137332857E-6</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="3">
+        <f>ABS(C10-C11)/(2*$D$31)/1000</f>
+        <v>5.9664733719922678</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" ref="O7:R7" si="10">ABS(D10-D11)/(2*$D$31)/1000</f>
+        <v>5.9670065986802641</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9671399053522629</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9672398853562614</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="10"/>
+        <v>5.9673398653602607</v>
+      </c>
+      <c r="AF7" s="19">
+        <f>(AF4+AF5)/2</f>
+        <v>27.098381021397991</v>
+      </c>
+      <c r="AG7" s="20">
+        <f>(AG4+AG5)/2</f>
+        <v>1.8095890231305278E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="12">
         <v>-89.847999999999999</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="12">
         <v>-89.86</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="12">
         <v>-89.861000000000004</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="12">
         <v>-89.863</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="12">
         <v>-89.864000000000004</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
         <v>-89.859200000000016</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="I8" s="11">
+        <f t="shared" si="4"/>
         <v>5.7758116312787615E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="J8" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.9859200000000014E-2</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="5"/>
+        <v>5.7758116312787613E-6</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="Y8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="12">
         <v>89.888999999999996</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="12">
         <v>89.897999999999996</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="12">
         <v>89.9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="12">
         <v>89.902000000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="12">
         <v>89.903999999999996</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
         <v>89.898600000000002</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="I9" s="11">
+        <f t="shared" si="4"/>
         <v>5.2000000000013268E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="J9" s="3">
+        <f t="shared" si="5"/>
+        <v>8.9898599999999995E-2</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="5"/>
+        <v>5.2000000000013266E-6</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="3">
+        <f>ABS(J4-J5)/(2*$D$31)</f>
+        <v>5.9909751383056724</v>
+      </c>
+      <c r="O9" s="11">
+        <f>SQRT((K4/(2*$D$31))^2+(K5/(2*$D$31))^2+(($E$31*ABS(J4-J5))/(2*$D$31^2))^2)</f>
+        <v>2.0294759598209621E-3</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="3">
+        <f>N9/N10</f>
+        <v>1.0040639508125668</v>
+      </c>
+      <c r="S9" s="11">
+        <f>SQRT((O9/N10)^2+(N9*O10/N10^2)^2)</f>
+        <v>4.7971547301332797E-4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((N9+N10)/2)*U9</f>
+        <v>27.098305497167139</v>
+      </c>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="12">
         <v>-89.492000000000004</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="12">
         <v>-89.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="12">
         <v>-89.501000000000005</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="12">
         <v>-89.503</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="12">
         <v>-89.504999999999995</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
         <v>-89.500200000000007</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="I10" s="11">
+        <f t="shared" si="4"/>
         <v>4.4452221541761419E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="J10" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.9500200000000002E-2</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="5"/>
+        <v>4.4452221541761421E-6</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="3">
+        <f>ABS(J6-J7)/(2*$D$31)</f>
+        <v>5.966726654669066</v>
+      </c>
+      <c r="O10" s="11">
+        <f>SQRT((K6/(2*$D$31))^2+(K7/(2*$D$31))^2+(($E$31*ABS(J6-J7))/(2*$D$31^2))^2)</f>
+        <v>2.0102867956224416E-3</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="3">
+        <f>N11/N12</f>
+        <v>1.0039699073427648</v>
+      </c>
+      <c r="S10" s="11">
+        <f>SQRT((O11/N12)^2+(N11*O12/N12^2)^2)</f>
+        <v>4.7655292852805467E-4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="11">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="3">
+        <f>(PI()*$D$27/(LN(2)))*((N11+N12)/2)*U10</f>
+        <v>27.098456545628842</v>
+      </c>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="12">
         <v>89.537999999999997</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="12">
         <v>89.546000000000006</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="12">
         <v>89.549000000000007</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="12">
         <v>89.55</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="12">
         <v>89.551000000000002</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
         <v>89.546800000000005</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="I11" s="11">
+        <f t="shared" si="4"/>
         <v>4.7074409183775149E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="J11" s="3">
+        <f t="shared" si="5"/>
+        <v>8.954680000000001E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
+        <v>4.7074409183775146E-6</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="3">
+        <f>ABS(J8-J9)/(2*$D$31)</f>
+        <v>5.9907285209624748</v>
+      </c>
+      <c r="O11" s="11">
+        <f>SQRT((K8/(2*$D$31))^2+(K9/(2*$D$31))^2+(($E$31*ABS(J8-J9))/(2*$D$31^2))^2)</f>
+        <v>2.013240490645221E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="M12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="3">
+        <f>ABS(J10-J11)/(2*$D$31)</f>
+        <v>5.9670399253482636</v>
+      </c>
+      <c r="O12" s="11">
+        <f>SQRT((K10/(2*$D$31))^2+(K11/(2*$D$31))^2+(($E$31*ABS(J10-J11))/(2*$D$31^2))^2)</f>
+        <v>2.0002877539197325E-3</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>(Y9+Y10)/2</f>
+        <v>27.098381021397991</v>
+      </c>
+      <c r="Z12" s="11">
+        <f>(Z9+Z10)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="12">
         <v>26.524000000000001</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="12">
         <v>26.515999999999998</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="12">
         <v>26.515999999999998</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="12">
         <v>26.513000000000002</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="12">
         <v>26.498999999999999</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
         <v>26.513600000000004</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="I14" s="11">
+        <f t="shared" si="4"/>
         <v>8.1633326527838588E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="J14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6513600000000005E-2</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="5"/>
+        <v>8.1633326527838584E-6</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="3">
+        <f>(C14-C22)/1000</f>
+        <v>2.6853999999999999E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" ref="O14:R15" si="11">(D14-D22)/1000</f>
+        <v>2.6845999999999995E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="11"/>
+        <v>2.6846999999999999E-2</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="11"/>
+        <v>2.6842000000000001E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <f>(G14-G22)/1000</f>
+        <v>2.683E-2</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="3">
+        <f>(N14-N15)/2</f>
+        <v>2.6854999999999997E-2</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" ref="V14:Y14" si="12">(O14-O15)/2</f>
+        <v>2.6846499999999999E-2</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="12"/>
+        <v>2.6847000000000003E-2</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" si="12"/>
+        <v>2.6843499999999999E-2</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="12"/>
+        <v>2.683E-2</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>U14/($D$25*$D$31)</f>
+        <v>12.970835784533911</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" ref="AC14:AF15" si="13">V14/($D$25*$D$31)</f>
+        <v>12.966730325432495</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="13"/>
+        <v>12.966971823026698</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="13"/>
+        <v>12.965281339867289</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="13"/>
+        <v>12.958760904823864</v>
+      </c>
+      <c r="AH14" s="16">
+        <f>AVERAGE(AB14:AF14)</f>
+        <v>12.965716035536852</v>
+      </c>
+      <c r="AI14" s="15">
+        <f>_xlfn.STDEV.P(AB14:AF14)</f>
+        <v>3.9339654183745444E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="12">
         <v>-26.462</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="12">
         <v>-26.454000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="12">
         <v>-26.454000000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="12">
         <v>-26.451000000000001</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="12">
         <v>-26.437000000000001</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
         <v>-26.451600000000003</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="I15" s="11">
+        <f t="shared" si="4"/>
         <v>8.1633326527830053E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="J15" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.6451600000000002E-2</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="5"/>
+        <v>8.1633326527830046E-6</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="3">
+        <f>(C15-C23)/1000</f>
+        <v>-2.6855999999999998E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="11"/>
+        <v>-2.6847000000000003E-2</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="11"/>
+        <v>-2.6847000000000003E-2</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="11"/>
+        <v>-2.6844999999999997E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="11"/>
+        <v>-2.6830000000000003E-2</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="3">
+        <f>-(N16-N17)/2</f>
+        <v>2.6866000000000004E-2</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" ref="V15:Y15" si="14">-(O16-O17)/2</f>
+        <v>2.6869500000000004E-2</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="14"/>
+        <v>2.6863000000000001E-2</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="14"/>
+        <v>2.6856999999999999E-2</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="14"/>
+        <v>2.6849499999999998E-2</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>U15/($D$25*$D$31)</f>
+        <v>12.976148731606335</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="13"/>
+        <v>12.977839214765742</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="13"/>
+        <v>12.974699746041129</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="13"/>
+        <v>12.971801774910714</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="13"/>
+        <v>12.9681793109977</v>
+      </c>
+      <c r="AH15" s="16">
+        <f>AVERAGE(AB15:AF15)</f>
+        <v>12.973733755664323</v>
+      </c>
+      <c r="AI15" s="15">
+        <f>_xlfn.STDEV.P(AB15:AF15)</f>
+        <v>3.41187472891074E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="12">
         <v>27.192</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="12">
         <v>27.184000000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="12">
         <v>27.184000000000001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="12">
         <v>27.181999999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="12">
         <v>27.169</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
         <v>27.182200000000002</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="I16" s="11">
+        <f t="shared" si="4"/>
         <v>7.4404300950952924E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="J16" s="3">
+        <f t="shared" si="5"/>
+        <v>2.71822E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="5"/>
+        <v>7.4404300950952924E-6</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="3">
+        <f>(C18-C22)/1000</f>
+        <v>-2.6866000000000004E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" ref="O16:R17" si="15">(D18-D22)/1000</f>
+        <v>-2.6869000000000004E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.6862E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.6858E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="15"/>
+        <v>-2.6849000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="12">
         <v>-27.202999999999999</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="12">
         <v>-27.193999999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="12">
         <v>-27.193999999999999</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="12">
         <v>-27.192</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="12">
         <v>-27.178000000000001</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
         <v>-27.192199999999996</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
+      <c r="I17" s="11">
+        <f t="shared" si="4"/>
         <v>8.0597766718434188E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="J17" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.7192199999999996E-2</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="5"/>
+        <v>8.0597766718434196E-6</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="3">
+        <f>(C19-C23)/1000</f>
+        <v>2.6866000000000004E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="15"/>
+        <v>2.6870000000000002E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="15"/>
+        <v>2.6864000000000002E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="15"/>
+        <v>2.6856000000000001E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <f>(G19-G23)/1000</f>
+        <v>2.6849999999999999E-2</v>
+      </c>
+      <c r="AH17" s="19">
+        <f>(AH14+AH15)/2</f>
+        <v>12.969724895600589</v>
+      </c>
+      <c r="AI17" s="20">
+        <f>(AI14+AI15)/2</f>
+        <v>3.672920073642642E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="12">
         <v>-27.196000000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="12">
         <v>-27.199000000000002</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="12">
         <v>-27.193000000000001</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="12">
         <v>-27.187000000000001</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="12">
         <v>-27.18</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
         <v>-27.191000000000003</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+      <c r="I18" s="11">
+        <f t="shared" si="4"/>
         <v>6.7823299831259089E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.7191000000000003E-2</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="5"/>
+        <v>6.7823299831259092E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="12">
         <v>27.26</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="12">
         <v>27.263000000000002</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="12">
         <v>27.257000000000001</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="12">
         <v>27.25</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="12">
         <v>27.242999999999999</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
         <v>27.2546</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
+      <c r="I19" s="11">
+        <f t="shared" si="4"/>
         <v>7.2277243998382455E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="J19" s="3">
+        <f t="shared" si="5"/>
+        <v>2.72546E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="5"/>
+        <v>7.2277243998382454E-6</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="12">
         <v>-26.501000000000001</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="12">
         <v>-26.504000000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="12">
         <v>-26.495999999999999</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="12">
         <v>-26.49</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="12">
         <v>-26.484000000000002</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
         <v>-26.494999999999997</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
+      <c r="I20" s="11">
+        <f t="shared" si="4"/>
         <v>7.2663608498341583E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="J20" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.6494999999999998E-2</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="5"/>
+        <v>7.2663608498341582E-6</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="3">
+        <f>((C14-C15)-(C18-C19))/(4*1000*$D$25*$D$31)</f>
+        <v>12.973492258070126</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" ref="O20:R20" si="16">((D14-D15)-(D18-D19))/(4*1000*$D$25*$D$31)</f>
+        <v>12.972284770099121</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="16"/>
+        <v>12.970835784533914</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="16"/>
+        <v>12.968541557389004</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="16"/>
+        <v>12.963470107910787</v>
+      </c>
+      <c r="T20" s="16">
+        <f>AVERAGE(N20:R20)</f>
+        <v>12.969724895600592</v>
+      </c>
+      <c r="U20" s="15">
+        <f>_xlfn.STDEV.P(N20:R20)</f>
+        <v>3.5356105558950997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="12">
         <v>26.495000000000001</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="12">
         <v>26.498999999999999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="12">
         <v>26.492000000000001</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="12">
         <v>26.486000000000001</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="12">
         <v>26.478999999999999</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
         <v>26.490200000000005</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
+      <c r="I21" s="11">
+        <f t="shared" si="4"/>
         <v>7.0256672281001683E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="J21" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6490200000000005E-2</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="5"/>
+        <v>7.025667228100168E-6</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="3">
+        <f>((C16-C17)-(C20-C21))/(4*1000*$D$25*$D$31)</f>
+        <v>12.967334069417999</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" ref="O21:R21" si="17">((D16-D17)-(D20-D21))/(4*1000*$D$25*$D$31)</f>
+        <v>12.966126581446996</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="17"/>
+        <v>12.964315349490489</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="17"/>
+        <v>12.96238336873688</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="17"/>
+        <v>12.957553416852862</v>
+      </c>
+      <c r="T21" s="16">
+        <f>AVERAGE(N21:R21)</f>
+        <v>12.963542557189047</v>
+      </c>
+      <c r="U21" s="15">
+        <f>_xlfn.STDEV.P(N21:R21)</f>
+        <v>3.4311360836692673E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="12">
         <v>-0.33</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="12">
         <v>-0.33</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="12">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>-0.32900000000000001</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="12">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
         <v>-0.33019999999999999</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
+      <c r="I22" s="11">
+        <f t="shared" si="4"/>
         <v>7.4833147735478892E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="J22" s="3">
+        <f t="shared" si="5"/>
+        <v>-3.302E-4</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="5"/>
+        <v>7.483314773547889E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>0</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="12">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="12">
         <v>0.39300000000000002</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="12">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="12">
         <v>0.39400000000000002</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="12">
         <v>0.39300000000000002</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
         <v>0.39340000000000008</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
+      <c r="I23" s="11">
+        <f t="shared" si="4"/>
         <v>4.89897948556636E-4</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="5"/>
+        <v>3.9340000000000008E-4</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="5"/>
+        <v>4.8989794855663599E-7</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="3">
+        <f>AVERAGE(N20:N21)</f>
+        <v>12.970413163744063</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" ref="O23:R23" si="18">AVERAGE(O20:O21)</f>
+        <v>12.969205675773058</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="18"/>
+        <v>12.967575567012201</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="18"/>
+        <v>12.965462463062941</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="18"/>
+        <v>12.960511762381824</v>
+      </c>
+      <c r="T23" s="14">
+        <f>(T20+T21)/2</f>
+        <v>12.96663372639482</v>
+      </c>
+      <c r="U23" s="18">
+        <f>(U20+U21)/2</f>
+        <v>3.4833733197821835E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="R25" s="3">
+        <f>AVERAGE(N23:R23)</f>
+        <v>12.966633726394818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="11">
+        <f>_xlfn.STDEV.P(N23:R23)</f>
+        <v>3.4824254535779637E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="3">
+        <f>AF7</f>
+        <v>27.098381021397991</v>
+      </c>
+      <c r="O29" s="18">
+        <f>AG7</f>
+        <v>1.8095890231305278E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="3">
+        <f>1/N29</f>
+        <v>3.6902573596937729E-2</v>
+      </c>
+      <c r="O30" s="18">
+        <f>O29/N29^2</f>
+        <v>2.4642982196447058E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1.5003000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="3">
+        <f>R25</f>
+        <v>12.966633726394818</v>
+      </c>
+      <c r="O31" s="11">
+        <f>R26</f>
+        <v>3.4824254535779637E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="3">
+        <f>ABS(N31/N29)</f>
+        <v>0.47850215539281971</v>
+      </c>
+      <c r="O32" s="11">
+        <f>SQRT((O31/N29)^2+(N31*O29/N29^2)^2)</f>
+        <v>1.324234671116824E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>1.602*10^-19</f>
+        <v>1.602E-19</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" s="3">
+        <f>1/(D33*N31)</f>
+        <v>4.8140461010529056E+17</v>
+      </c>
+      <c r="O33" s="11">
+        <f>O31/(D33*N31^2)</f>
+        <v>129289968628315.17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H14:I23 G4:H13" formulaRange="1"/>
+    <ignoredError sqref="H4:I11 H13:I23 G12:H12" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="10">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="10">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="10">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="10">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="10">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="10">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="10">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="10">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="10">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="10">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="10">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="10">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="10">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>-206</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>-196</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>-183</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>-172</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>-163</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>-153</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>-140</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>-125</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>-110</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>-93</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>-79</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>-64</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>-27</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>-205</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>-195</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>-183</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>-173</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>-160</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>-151</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>-140</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>-125</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>-109</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>-93</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>-79</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>-62</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>-27</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f>AVERAGE(B2:B3)</f>
         <v>-205.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:O4" si="0">AVERAGE(C2:C3)</f>
         <v>-195.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>-183</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f>AVERAGE(E2:E3)</f>
         <v>-172.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>-161.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>-152</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>-140</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>-125</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>-109.5</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>-93</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>-79</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>-63</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>-27</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <f>_xlfn.STDEV.P(B2:B3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:O5" si="1">_xlfn.STDEV.P(C2:C3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O7" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="R7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="4">
         <v>-82.382000000000005</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="4">
         <v>-82.54</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="4">
         <v>-82.9</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="4">
         <v>-83.3</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="4">
         <v>-83.596000000000004</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="4">
         <v>-83.793000000000006</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="4">
         <v>-84.02</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="4">
         <v>-84.54</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="4">
         <v>-85.194999999999993</v>
       </c>
-      <c r="K7">
+      <c r="K8" s="4">
         <v>-85.71</v>
       </c>
-      <c r="L7">
+      <c r="L8" s="4">
         <v>-86.432000000000002</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="4">
         <v>-87.257999999999996</v>
       </c>
-      <c r="N7">
+      <c r="N8" s="4">
         <v>-88.869</v>
       </c>
-      <c r="O7">
+      <c r="O8" s="4">
         <v>-90.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="4">
         <v>82.504999999999995</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="4">
         <v>82.665000000000006</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="4">
         <v>83.027000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="4">
         <v>83.412000000000006</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="4">
         <v>83.712000000000003</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="4">
         <v>83.9</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="4">
         <v>84.12</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="4">
         <v>84.614999999999995</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="4">
         <v>85.274000000000001</v>
       </c>
-      <c r="K8">
+      <c r="K9" s="4">
         <v>85.75</v>
       </c>
-      <c r="L8">
+      <c r="L9" s="4">
         <v>86.475999999999999</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="4">
         <v>87.287999999999997</v>
       </c>
-      <c r="N8">
+      <c r="N9" s="4">
         <v>88.869</v>
       </c>
-      <c r="O8">
+      <c r="O9" s="4">
         <v>90.165999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="4">
         <v>-82.076999999999998</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="4">
         <v>-82.24</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="4">
         <v>-82.608000000000004</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="4">
         <v>-82.986999999999995</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="4">
         <v>-83.305000000000007</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="4">
         <v>-83.495000000000005</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="4">
         <v>-83.713999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="4">
         <v>-84.2</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="4">
         <v>-84.888000000000005</v>
       </c>
-      <c r="K9">
+      <c r="K10" s="4">
         <v>-85.343999999999994</v>
       </c>
-      <c r="L9">
+      <c r="L10" s="4">
         <v>-86.102000000000004</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="4">
         <v>-86.906999999999996</v>
       </c>
-      <c r="N9">
+      <c r="N10" s="4">
         <v>-88.522999999999996</v>
       </c>
-      <c r="O9">
+      <c r="O10" s="4">
         <v>-89.837000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="S10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="4">
         <v>82.111000000000004</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="4">
         <v>82.277000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="4">
         <v>82.65</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="4">
         <v>83.025000000000006</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="4">
         <v>83.320999999999998</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="4">
         <v>83.55</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="4">
         <v>83.754999999999995</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="4">
         <v>84.227999999999994</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="4">
         <v>84.927999999999997</v>
       </c>
-      <c r="K10">
+      <c r="K11" s="4">
         <v>85.372</v>
       </c>
-      <c r="L10">
+      <c r="L11" s="4">
         <v>86.129000000000005</v>
       </c>
-      <c r="M10">
+      <c r="M11" s="4">
         <v>86.924000000000007</v>
       </c>
-      <c r="N10">
+      <c r="N11" s="4">
         <v>88.527000000000001</v>
       </c>
-      <c r="O10">
+      <c r="O11" s="4">
         <v>89.802000000000007</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="4">
         <v>-82.429000000000002</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="4">
         <v>-82.597999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="4">
         <v>-82.97</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="4">
         <v>-83.334999999999994</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="4">
         <v>-83.626999999999995</v>
       </c>
-      <c r="G11">
+      <c r="G12" s="4">
         <v>-83.884</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="4">
         <v>-84.058000000000007</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="4">
         <v>-84.52</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="4">
         <v>-85.242999999999995</v>
       </c>
-      <c r="K11">
+      <c r="K12" s="4">
         <v>-85.688000000000002</v>
       </c>
-      <c r="L11">
+      <c r="L12" s="4">
         <v>-86.454999999999998</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="4">
         <v>-87.253</v>
       </c>
-      <c r="N11">
+      <c r="N12" s="4">
         <v>-88.875</v>
       </c>
-      <c r="O11">
+      <c r="O12" s="4">
         <v>-90.156999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="R12">
+        <v>1.5003000000000001E-2</v>
+      </c>
+      <c r="S12">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="4">
         <v>82.457999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="4">
         <v>82.622</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="4">
         <v>82.99</v>
       </c>
-      <c r="E12">
+      <c r="E13" s="4">
         <v>83.349000000000004</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="4">
         <v>83.64</v>
       </c>
-      <c r="G12">
+      <c r="G13" s="4">
         <v>83.902000000000001</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="4">
         <v>84.066000000000003</v>
       </c>
-      <c r="I12">
+      <c r="I13" s="4">
         <v>84.513000000000005</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="4">
         <v>85.251000000000005</v>
       </c>
-      <c r="K12">
+      <c r="K13" s="4">
         <v>85.692999999999998</v>
       </c>
-      <c r="L12">
+      <c r="L13" s="4">
         <v>86.462999999999994</v>
       </c>
-      <c r="M12">
+      <c r="M13" s="4">
         <v>87.265000000000001</v>
       </c>
-      <c r="N12">
+      <c r="N13" s="4">
         <v>88.91</v>
       </c>
-      <c r="O12">
+      <c r="O13" s="4">
         <v>90.182000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="R13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="4">
         <v>-82.192999999999998</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="4">
         <v>-82.364000000000004</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="4">
         <v>-82.73</v>
       </c>
-      <c r="E13">
+      <c r="E14" s="4">
         <v>-83.081000000000003</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="4">
         <v>-83.378</v>
       </c>
-      <c r="G13">
+      <c r="G14" s="4">
         <v>-83.63</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="4">
         <v>-83.786000000000001</v>
       </c>
-      <c r="I13">
+      <c r="I14" s="4">
         <v>-84.222999999999999</v>
       </c>
-      <c r="J13">
+      <c r="J14" s="4">
         <v>-84.933999999999997</v>
       </c>
-      <c r="K13">
+      <c r="K14" s="4">
         <v>-85.393000000000001</v>
       </c>
-      <c r="L13">
+      <c r="L14" s="4">
         <v>-86.150999999999996</v>
       </c>
-      <c r="M13">
+      <c r="M14" s="4">
         <v>-86.94</v>
       </c>
-      <c r="N13">
+      <c r="N14" s="4">
         <v>-88.563000000000002</v>
       </c>
-      <c r="O13">
+      <c r="O14" s="4">
         <v>-89.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="R14">
+        <f>1.602*10^-19</f>
+        <v>1.602E-19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="4">
         <v>81.992000000000004</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="4">
         <v>82.171999999999997</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="4">
         <v>82.48</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="4">
         <v>82.905000000000001</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="4">
         <v>83.218000000000004</v>
       </c>
-      <c r="G14">
+      <c r="G15" s="4">
         <v>83.466999999999999</v>
       </c>
-      <c r="H14">
+      <c r="H15" s="4">
         <v>83.628</v>
       </c>
-      <c r="I14">
+      <c r="I15" s="4">
         <v>84.075999999999993</v>
       </c>
-      <c r="J14">
+      <c r="J15" s="4">
         <v>84.805000000000007</v>
       </c>
-      <c r="K14">
+      <c r="K15" s="4">
         <v>85.28</v>
       </c>
-      <c r="L14">
+      <c r="L15" s="4">
         <v>86.057000000000002</v>
       </c>
-      <c r="M14">
+      <c r="M15" s="4">
         <v>86.864999999999995</v>
       </c>
-      <c r="N14">
+      <c r="N15" s="4">
         <v>88.546999999999997</v>
       </c>
-      <c r="O14">
+      <c r="O15" s="4">
         <v>89.822999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="4">
         <v>26.978000000000002</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="4">
         <v>27.03</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="4">
         <v>27.041</v>
       </c>
-      <c r="E16">
+      <c r="E17" s="4">
         <v>27.047999999999998</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="4">
         <v>27.044</v>
       </c>
-      <c r="G16">
+      <c r="G17" s="4">
         <v>27.047000000000001</v>
       </c>
-      <c r="H16">
+      <c r="H17" s="4">
         <v>27.027999999999999</v>
       </c>
-      <c r="I16">
+      <c r="I17" s="4">
         <v>26.99</v>
       </c>
-      <c r="J16">
+      <c r="J17" s="4">
         <v>26.922000000000001</v>
       </c>
-      <c r="K16">
+      <c r="K17" s="4">
         <v>26.879000000000001</v>
       </c>
-      <c r="L16">
+      <c r="L17" s="4">
         <v>26.831</v>
       </c>
-      <c r="M16">
+      <c r="M17" s="4">
         <v>26.779</v>
       </c>
-      <c r="N16">
+      <c r="N17" s="4">
         <v>26.620999999999999</v>
       </c>
-      <c r="O16">
+      <c r="O17" s="4">
         <v>26.483000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="4">
         <v>-27.15</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="4">
         <v>-27.204999999999998</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="4">
         <v>-27.213999999999999</v>
       </c>
-      <c r="E17">
+      <c r="E18" s="4">
         <v>-27.219000000000001</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="4">
         <v>-27.2</v>
       </c>
-      <c r="G17">
+      <c r="G18" s="4">
         <v>-27.196999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="4">
         <v>-27.172999999999998</v>
       </c>
-      <c r="I17">
+      <c r="I18" s="4">
         <v>-27.126999999999999</v>
       </c>
-      <c r="J17">
+      <c r="J18" s="4">
         <v>-27.04</v>
       </c>
-      <c r="K17">
+      <c r="K18" s="4">
         <v>-26.983000000000001</v>
       </c>
-      <c r="L17">
+      <c r="L18" s="4">
         <v>-26.916</v>
       </c>
-      <c r="M17">
+      <c r="M18" s="4">
         <v>-26.85</v>
       </c>
-      <c r="N17">
+      <c r="N18" s="4">
         <v>-26.63</v>
       </c>
-      <c r="O17">
+      <c r="O18" s="4">
         <v>-26.443000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="4">
         <v>27.808</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="4">
         <v>27.849</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="4">
         <v>27.847999999999999</v>
       </c>
-      <c r="E18">
+      <c r="E19" s="4">
         <v>27.85</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="4">
         <v>27.832000000000001</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="4">
         <v>27.827999999999999</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="4">
         <v>27.806000000000001</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="4">
         <v>27.760999999999999</v>
       </c>
-      <c r="J18">
+      <c r="J19" s="4">
         <v>27.684000000000001</v>
       </c>
-      <c r="K18">
+      <c r="K19" s="4">
         <v>27.631</v>
       </c>
-      <c r="L18">
+      <c r="L19" s="4">
         <v>27.573</v>
       </c>
-      <c r="M18">
+      <c r="M19" s="4">
         <v>27.518000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N19" s="4">
         <v>27.317</v>
       </c>
-      <c r="O18">
+      <c r="O19" s="4">
         <v>27.154</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="4">
         <v>-27.742000000000001</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="4">
         <v>-27.786999999999999</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="4">
         <v>-27.786000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E20" s="4">
         <v>-27.789000000000001</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="4">
         <v>-27.774999999999999</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="4">
         <v>-27.771000000000001</v>
       </c>
-      <c r="H19">
+      <c r="H20" s="4">
         <v>-27.745999999999999</v>
       </c>
-      <c r="I19">
+      <c r="I20" s="4">
         <v>-27.707000000000001</v>
       </c>
-      <c r="J19">
+      <c r="J20" s="4">
         <v>-27.63</v>
       </c>
-      <c r="K19">
+      <c r="K20" s="4">
         <v>-27.584</v>
       </c>
-      <c r="L19">
+      <c r="L20" s="4">
         <v>-27.533000000000001</v>
       </c>
-      <c r="M19">
+      <c r="M20" s="4">
         <v>-27.481000000000002</v>
       </c>
-      <c r="N19">
+      <c r="N20" s="4">
         <v>-27.303000000000001</v>
       </c>
-      <c r="O19">
+      <c r="O20" s="4">
         <v>-27.16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="4">
         <v>-27.888999999999999</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="4">
         <v>-27.922999999999998</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="4">
         <v>-27.940999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="4">
         <v>-27.937999999999999</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="4">
         <v>-27.914000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G21" s="4">
         <v>-27.914000000000001</v>
       </c>
-      <c r="H20">
+      <c r="H21" s="4">
         <v>-27.88</v>
       </c>
-      <c r="I20">
+      <c r="I21" s="4">
         <v>-27.832000000000001</v>
       </c>
-      <c r="J20">
+      <c r="J21" s="4">
         <v>-27.754000000000001</v>
       </c>
-      <c r="K20">
+      <c r="K21" s="4">
         <v>-27.7</v>
       </c>
-      <c r="L20">
+      <c r="L21" s="4">
         <v>-27.638999999999999</v>
       </c>
-      <c r="M20">
+      <c r="M21" s="4">
         <v>-27.562999999999999</v>
       </c>
-      <c r="N20">
+      <c r="N21" s="4">
         <v>-27.352</v>
       </c>
-      <c r="O20">
+      <c r="O21" s="4">
         <v>-27.177</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="4">
         <v>27.722000000000001</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="4">
         <v>27.751999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D22" s="4">
         <v>27.773</v>
       </c>
-      <c r="E21">
+      <c r="E22" s="4">
         <v>27.774000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F22" s="4">
         <v>27.760999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G22" s="4">
         <v>27.765999999999998</v>
       </c>
-      <c r="H21">
+      <c r="H22" s="4">
         <v>27.74</v>
       </c>
-      <c r="I21">
+      <c r="I22" s="4">
         <v>27.699000000000002</v>
       </c>
-      <c r="J21">
+      <c r="J22" s="4">
         <v>27.641999999999999</v>
       </c>
-      <c r="K21">
+      <c r="K22" s="4">
         <v>27.6</v>
       </c>
-      <c r="L21">
+      <c r="L22" s="4">
         <v>27.558</v>
       </c>
-      <c r="M21">
+      <c r="M22" s="4">
         <v>27.5</v>
       </c>
-      <c r="N21">
+      <c r="N22" s="4">
         <v>27.344999999999999</v>
       </c>
-      <c r="O21">
+      <c r="O22" s="4">
         <v>27.219000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="4">
         <v>-27.085000000000001</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="4">
         <v>-27.12</v>
       </c>
-      <c r="D22">
+      <c r="D23" s="4">
         <v>-27.14</v>
       </c>
-      <c r="E22">
+      <c r="E23" s="4">
         <v>-27.143000000000001</v>
       </c>
-      <c r="F22">
+      <c r="F23" s="4">
         <v>-27.122</v>
       </c>
-      <c r="G22">
+      <c r="G23" s="4">
         <v>-27.125</v>
       </c>
-      <c r="H22">
+      <c r="H23" s="4">
         <v>-27.094999999999999</v>
       </c>
-      <c r="I22">
+      <c r="I23" s="4">
         <v>-27.052</v>
       </c>
-      <c r="J22">
+      <c r="J23" s="4">
         <v>-26.98</v>
       </c>
-      <c r="K22">
+      <c r="K23" s="4">
         <v>-26.928000000000001</v>
       </c>
-      <c r="L22">
+      <c r="L23" s="4">
         <v>-26.88</v>
       </c>
-      <c r="M22">
+      <c r="M23" s="4">
         <v>-26.811</v>
       </c>
-      <c r="N22">
+      <c r="N23" s="4">
         <v>-26.628</v>
       </c>
-      <c r="O22">
+      <c r="O23" s="4">
         <v>-26.48</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="4">
         <v>27.15</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="4">
         <v>27.18</v>
       </c>
-      <c r="D23">
+      <c r="D24" s="4">
         <v>27.198</v>
       </c>
-      <c r="E23">
+      <c r="E24" s="4">
         <v>27.199000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F24" s="4">
         <v>27.175000000000001</v>
       </c>
-      <c r="G23">
+      <c r="G24" s="4">
         <v>27.177</v>
       </c>
-      <c r="H23">
+      <c r="H24" s="4">
         <v>27.15</v>
       </c>
-      <c r="I23">
+      <c r="I24" s="4">
         <v>27.100999999999999</v>
       </c>
-      <c r="J23">
+      <c r="J24" s="4">
         <v>27.027999999999999</v>
       </c>
-      <c r="K23">
+      <c r="K24" s="4">
         <v>26.972999999999999</v>
       </c>
-      <c r="L23">
+      <c r="L24" s="4">
         <v>26.917999999999999</v>
       </c>
-      <c r="M23">
+      <c r="M24" s="4">
         <v>26.841999999999999</v>
       </c>
-      <c r="N23">
+      <c r="N24" s="4">
         <v>26.641999999999999</v>
       </c>
-      <c r="O23">
+      <c r="O24" s="4">
         <v>26.471</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="4">
         <v>-0.44</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="4">
         <v>-0.439</v>
       </c>
-      <c r="D24">
+      <c r="D25" s="4">
         <v>-0.435</v>
       </c>
-      <c r="E24">
+      <c r="E25" s="4">
         <v>-0.43099999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F25" s="4">
         <v>-0.42599999999999999</v>
       </c>
-      <c r="G24">
+      <c r="G25" s="4">
         <v>-0.42099999999999999</v>
       </c>
-      <c r="H24">
+      <c r="H25" s="4">
         <v>-0.41599999999999998</v>
       </c>
-      <c r="I24">
+      <c r="I25" s="4">
         <v>-0.41399999999999998</v>
       </c>
-      <c r="J24">
+      <c r="J25" s="4">
         <v>-0.40400000000000003</v>
       </c>
-      <c r="K24">
+      <c r="K25" s="4">
         <v>-0.39900000000000002</v>
       </c>
-      <c r="L24">
+      <c r="L25" s="4">
         <v>-0.39100000000000001</v>
       </c>
-      <c r="M24">
+      <c r="M25" s="4">
         <v>-0.38400000000000001</v>
       </c>
-      <c r="N24">
+      <c r="N25" s="4">
         <v>-0.36</v>
       </c>
-      <c r="O24">
+      <c r="O25" s="4">
         <v>-0.33900000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>10</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="4">
         <v>0.26800000000000002</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D25">
+      <c r="D26" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E25">
+      <c r="E26" s="4">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F25">
+      <c r="F26" s="4">
         <v>0.26600000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G26" s="4">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H25">
+      <c r="H26" s="4">
         <v>0.27200000000000002</v>
       </c>
-      <c r="I25">
+      <c r="I26" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J25">
+      <c r="J26" s="4">
         <v>0.28699999999999998</v>
       </c>
-      <c r="K25">
+      <c r="K26" s="4">
         <v>0.29599999999999999</v>
       </c>
-      <c r="L25">
+      <c r="L26" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="M25">
+      <c r="M26" s="4">
         <v>0.318</v>
       </c>
-      <c r="N25">
+      <c r="N26" s="4">
         <v>0.47</v>
       </c>
-      <c r="O25">
+      <c r="O26" s="4">
         <v>0.376</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3">
+        <f>1/(B4+273.15)</f>
+        <v>1.4781966001478202E-2</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:O28" si="2">1/(C4+273.15)</f>
+        <v>1.2878300064391505E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1092623405435388E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="2"/>
+        <v>9.935419771485347E-3</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9565606806986144E-3</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>8.2542302930251766E-3</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5103266992114174E-3</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>6.7499156260546755E-3</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>6.1106018942865877E-3</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="2"/>
+        <v>5.550929780738274E-3</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="2"/>
+        <v>5.1506567087303634E-3</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7585058291696415E-3</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0625634775543372E-3</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6609921288669233E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <f>B5/(B4+273.15)^2</f>
+        <v>1.0925325943442871E-4</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:O29" si="3">C5/(C4+273.15)^2</f>
+        <v>8.2925306274253107E-5</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="3"/>
+        <v>4.9356283017810976E-5</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2032996884055462E-4</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="3"/>
+        <v>6.8132317730294499E-5</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="3"/>
+        <v>1.8669727755229422E-5</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="3"/>
+        <v>2.2643377726241456E-5</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3">
+        <f>ABS(B8-B9)/(2*$R$12)/1000</f>
+        <v>5.4951343064720382</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:O31" si="4">ABS(C8-C9)/(2*$R$12)/1000</f>
+        <v>5.5057321868959539</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.5297940411917628</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.5559554755715519</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.5758181696993931</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.5886489368792907</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.6035459574751716</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.6373725254949001</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.6811637672465505</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.7141904952342859</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.7624475104979007</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.8170365926814629</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="4"/>
+        <v>5.9234153169366124</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="4"/>
+        <v>6.0109978004399105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3">
+        <f>ABS(B10-B11)/(2*$R$12)/1000</f>
+        <v>5.4718389655402246</v>
+      </c>
+      <c r="C33" s="3">
+        <f>ABS(C10-C11)/(2*$R$12)/1000</f>
+        <v>5.4828034393121374</v>
+      </c>
+      <c r="D33" s="3">
+        <f>ABS(D10-D11)/(2*$R$12)/1000</f>
+        <v>5.5074985002999401</v>
+      </c>
+      <c r="E33" s="3">
+        <f>ABS(E10-E11)/(2*$R$12)/1000</f>
+        <v>5.532626807971738</v>
+      </c>
+      <c r="F33" s="3">
+        <f>ABS(F10-F11)/(2*$R$12)/1000</f>
+        <v>5.5530893821235754</v>
+      </c>
+      <c r="G33" s="3">
+        <f>ABS(G10-G11)/(2*$R$12)/1000</f>
+        <v>5.5670532560154644</v>
+      </c>
+      <c r="H33" s="3">
+        <f>ABS(H10-H11)/(2*$R$12)/1000</f>
+        <v>5.58118376324735</v>
+      </c>
+      <c r="I33" s="3">
+        <f>ABS(I10-I11)/(2*$R$12)/1000</f>
+        <v>5.6131440378590938</v>
+      </c>
+      <c r="J33" s="3">
+        <f>ABS(J10-J11)/(2*$R$12)/1000</f>
+        <v>5.659401453042725</v>
+      </c>
+      <c r="K33" s="3">
+        <f>ABS(K10-K11)/(2*$R$12)/1000</f>
+        <v>5.6893954542424847</v>
+      </c>
+      <c r="L33" s="3">
+        <f>ABS(L10-L11)/(2*$R$12)/1000</f>
+        <v>5.7398853562620804</v>
+      </c>
+      <c r="M33" s="3">
+        <f>ABS(M10-M11)/(2*$R$12)/1000</f>
+        <v>5.7932080250616549</v>
+      </c>
+      <c r="N33" s="3">
+        <f>ABS(N10-N11)/(2*$R$12)/1000</f>
+        <v>5.9004865693527959</v>
+      </c>
+      <c r="O33" s="3">
+        <f>ABS(O10-O11)/(2*$R$12)/1000</f>
+        <v>5.986769312804106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3">
+        <f>ABS(B12-B13)/(2*$R$12)/1000</f>
+        <v>5.4951343064720382</v>
+      </c>
+      <c r="C35" s="3">
+        <f>ABS(C12-C13)/(2*$R$12)/1000</f>
+        <v>5.5062320869159507</v>
+      </c>
+      <c r="D35" s="3">
+        <f>ABS(D12-D13)/(2*$R$12)/1000</f>
+        <v>5.5308938212357512</v>
+      </c>
+      <c r="E35" s="3">
+        <f>ABS(E12-E13)/(2*$R$12)/1000</f>
+        <v>5.55502232886756</v>
+      </c>
+      <c r="F35" s="3">
+        <f>ABS(F12-F13)/(2*$R$12)/1000</f>
+        <v>5.5744517763114034</v>
+      </c>
+      <c r="G35" s="3">
+        <f>ABS(G12-G13)/(2*$R$12)/1000</f>
+        <v>5.5917483170032654</v>
+      </c>
+      <c r="H35" s="3">
+        <f>ABS(H12-H13)/(2*$R$12)/1000</f>
+        <v>5.6030127307871762</v>
+      </c>
+      <c r="I35" s="3">
+        <f>ABS(I12-I13)/(2*$R$12)/1000</f>
+        <v>5.633306671998934</v>
+      </c>
+      <c r="J35" s="3">
+        <f>ABS(J12-J13)/(2*$R$12)/1000</f>
+        <v>5.681996933946543</v>
+      </c>
+      <c r="K35" s="3">
+        <f>ABS(K12-K13)/(2*$R$12)/1000</f>
+        <v>5.7115576884623067</v>
+      </c>
+      <c r="L35" s="3">
+        <f>ABS(L12-L13)/(2*$R$12)/1000</f>
+        <v>5.7627807771778983</v>
+      </c>
+      <c r="M35" s="3">
+        <f>ABS(M12-M13)/(2*$R$12)/1000</f>
+        <v>5.816103445977471</v>
+      </c>
+      <c r="N35" s="3">
+        <f>ABS(N12-N13)/(2*$R$12)/1000</f>
+        <v>5.9249816703325999</v>
+      </c>
+      <c r="O35" s="3">
+        <f>ABS(O12-O13)/(2*$R$12)/1000</f>
+        <v>6.010097980403919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="3">
+        <f>ABS(B14-B15)/(2*$R$12)/1000</f>
+        <v>5.4717389855362262</v>
+      </c>
+      <c r="C37" s="3">
+        <f>ABS(C14-C15)/(2*$R$12)/1000</f>
+        <v>5.4834366460041322</v>
+      </c>
+      <c r="D37" s="3">
+        <f>ABS(D14-D15)/(2*$R$12)/1000</f>
+        <v>5.5058988202359522</v>
+      </c>
+      <c r="E37" s="3">
+        <f>ABS(E14-E15)/(2*$R$12)/1000</f>
+        <v>5.5317603146037451</v>
+      </c>
+      <c r="F37" s="3">
+        <f>ABS(F14-F15)/(2*$R$12)/1000</f>
+        <v>5.5520895820835827</v>
+      </c>
+      <c r="G37" s="3">
+        <f>ABS(G14-G15)/(2*$R$12)/1000</f>
+        <v>5.5687862427514494</v>
+      </c>
+      <c r="H37" s="3">
+        <f>ABS(H14-H15)/(2*$R$12)/1000</f>
+        <v>5.5793507965073639</v>
+      </c>
+      <c r="I37" s="3">
+        <f>ABS(I14-I15)/(2*$R$12)/1000</f>
+        <v>5.6088448976871286</v>
+      </c>
+      <c r="J37" s="3">
+        <f>ABS(J14-J15)/(2*$R$12)/1000</f>
+        <v>5.6568352996067448</v>
+      </c>
+      <c r="K37" s="3">
+        <f>ABS(K14-K15)/(2*$R$12)/1000</f>
+        <v>5.687962407518496</v>
+      </c>
+      <c r="L37" s="3">
+        <f>ABS(L14-L15)/(2*$R$12)/1000</f>
+        <v>5.7391188428980868</v>
+      </c>
+      <c r="M37" s="3">
+        <f>ABS(M14-M15)/(2*$R$12)/1000</f>
+        <v>5.7923415316936619</v>
+      </c>
+      <c r="N37" s="3">
+        <f>ABS(N14-N15)/(2*$R$12)/1000</f>
+        <v>5.9024861694327804</v>
+      </c>
+      <c r="O37" s="3">
+        <f>ABS(O14-O15)/(2*$R$12)/1000</f>
+        <v>5.9862360861161097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B31/B33</f>
+        <v>1.0042573147854899</v>
+      </c>
+      <c r="C40" s="3">
+        <f>C31/C33</f>
+        <v>1.0041819386446384</v>
+      </c>
+      <c r="D40" s="3">
+        <f>D31/D33</f>
+        <v>1.0040482155175545</v>
+      </c>
+      <c r="E40" s="3">
+        <f>E31/E33</f>
+        <v>1.0042165626581212</v>
+      </c>
+      <c r="F40" s="3">
+        <f>F31/F33</f>
+        <v>1.0040929986916807</v>
+      </c>
+      <c r="G40" s="3">
+        <f>G31/G33</f>
+        <v>1.0038791942290997</v>
+      </c>
+      <c r="H40" s="3">
+        <f>H31/H33</f>
+        <v>1.0040067116899247</v>
+      </c>
+      <c r="I40" s="3">
+        <f>I31/I33</f>
+        <v>1.0043163844491414</v>
+      </c>
+      <c r="J40" s="3">
+        <f>J31/J33</f>
+        <v>1.003845338484006</v>
+      </c>
+      <c r="K40" s="3">
+        <f>K31/K33</f>
+        <v>1.0043581152323156</v>
+      </c>
+      <c r="L40" s="3">
+        <f>L31/L33</f>
+        <v>1.0039307673995972</v>
+      </c>
+      <c r="M40" s="3">
+        <f>M31/M33</f>
+        <v>1.0041131903975697</v>
+      </c>
+      <c r="N40" s="3">
+        <f>N31/N33</f>
+        <v>1.0038859079356115</v>
+      </c>
+      <c r="O40" s="3">
+        <f>O31/O33</f>
+        <v>1.0040470053830179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B35/B37</f>
+        <v>1.0042756646465876</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:O42" si="5">C35/C37</f>
+        <v>1.004157144940925</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0045396767750134</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0042051739303317</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.004027707748085</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0041233535012597</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0042409834302988</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0043612855691362</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0044480054672171</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0041482835597897</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0041229211186473</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0041022985529759</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0038111907853875</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="5"/>
+        <v>1.003986126498277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((B31+B33)/2)*1</f>
+        <v>24.853136267276273</v>
+      </c>
+      <c r="C45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((C31+C33)/2)*1</f>
+        <v>24.902000444636837</v>
+      </c>
+      <c r="D45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((D31+D33)/2)*1</f>
+        <v>25.012492394371783</v>
+      </c>
+      <c r="E45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((E31+E33)/2)*1</f>
+        <v>25.128724185651386</v>
+      </c>
+      <c r="F45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((F31+F33)/2)*1</f>
+        <v>25.220108504981042</v>
+      </c>
+      <c r="G45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((G31+G33)/2)*1</f>
+        <v>25.280829986585204</v>
+      </c>
+      <c r="H45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((H31+H33)/2)*1</f>
+        <v>25.346611591656384</v>
+      </c>
+      <c r="I45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((I31+I33)/2)*1</f>
+        <v>25.495696423356151</v>
+      </c>
+      <c r="J45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((J31+J33)/2)*1</f>
+        <v>25.69976289511542</v>
+      </c>
+      <c r="K45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((K31+K33)/2)*1</f>
+        <v>25.842579215654567</v>
+      </c>
+      <c r="L45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((L31+L33)/2)*1</f>
+        <v>26.066357511665935</v>
+      </c>
+      <c r="M45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((M31+M33)/2)*1</f>
+        <v>26.310904971161307</v>
+      </c>
+      <c r="N45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((N31+N33)/2)*1</f>
+        <v>26.795090815146747</v>
+      </c>
+      <c r="O45" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((O31+O33)/2)*1</f>
+        <v>27.189100727496147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3">
+        <f>(PI()*$R$8/(LN(2)))*((B35+B37)/2)*1</f>
+        <v>24.852909694583722</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:O47" si="6">(PI()*$R$8/(LN(2)))*((C35+C37)/2)*1</f>
+        <v>24.904568268485775</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.011359530909008</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.12464587718544</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.214746284590621</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.291781000058592</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.341249371265963</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.476739841412567</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.69583563511117</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="6"/>
+        <v>25.833365259490751</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="6"/>
+        <v>26.065375696664873</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="6"/>
+        <v>26.306826662695361</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="6"/>
+        <v>26.803171907847798</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="6"/>
+        <v>27.185853185569556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3">
+        <f>AVERAGE(B45:B47)</f>
+        <v>24.85302298093</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" ref="C50:O50" si="7">AVERAGE(C45:C47)</f>
+        <v>24.903284356561308</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.011925962640397</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.126685031418411</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.21742739478583</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.286305493321898</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.343930481461172</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.486218132384359</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.697799265113296</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="7"/>
+        <v>25.837972237572657</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="7"/>
+        <v>26.065866604165404</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="7"/>
+        <v>26.308865816928332</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="7"/>
+        <v>26.799131361497274</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="7"/>
+        <v>27.187476956532851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3">
+        <f>((B17-B18)-(B21-B22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.250852245009936</v>
+      </c>
+      <c r="C55" s="3">
+        <f>((C17-C18)-(C21-C22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.271500289314117</v>
+      </c>
+      <c r="D55" s="3">
+        <f>((D17-D18)-(D21-D22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.278624468343045</v>
+      </c>
+      <c r="E55" s="3">
+        <f>((E17-E18)-(E21-E22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.279831956314052</v>
+      </c>
+      <c r="F55" s="3">
+        <f>((F17-F18)-(F21-F22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.272587028488022</v>
+      </c>
+      <c r="G55" s="3">
+        <f>((G17-G18)-(G21-G22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.273190772473525</v>
+      </c>
+      <c r="H55" s="3">
+        <f>((H17-H18)-(H21-H22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.260753646372175</v>
+      </c>
+      <c r="I55" s="3">
+        <f>((I17-I18)-(I21-I22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.23986410447379</v>
+      </c>
+      <c r="J55" s="3">
+        <f>((J17-J18)-(J21-J22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.204846953314652</v>
+      </c>
+      <c r="K55" s="3">
+        <f>((K17-K18)-(K21-K22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.181180189082957</v>
+      </c>
+      <c r="L55" s="3">
+        <f>((L17-L18)-(L21-L22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.154856951315052</v>
+      </c>
+      <c r="M55" s="3">
+        <f>((M17-M18)-(M21-M22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.12442825444573</v>
+      </c>
+      <c r="N55" s="3">
+        <f>((N17-N18)-(N21-N22))/(4*1000*$R$6*$R$12)</f>
+        <v>13.034591149402971</v>
+      </c>
+      <c r="O55" s="3">
+        <f>((O17-O18)-(O21-O22))/(4*1000*$R$6*$R$12)</f>
+        <v>12.959002402418067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3">
+        <f>((B19-B20)-(B23-B24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.256406689676558</v>
+      </c>
+      <c r="C57" s="3">
+        <f>((C19-C20)-(C23-C24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.274639758038729</v>
+      </c>
+      <c r="D57" s="3">
+        <f>((D19-D20)-(D23-D24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.27898671473435</v>
+      </c>
+      <c r="E57" s="3">
+        <f>((E19-E20)-(E23-E24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.280073453908251</v>
+      </c>
+      <c r="F57" s="3">
+        <f>((F19-F20)-(F23-F24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.270775796531515</v>
+      </c>
+      <c r="G57" s="3">
+        <f>((G19-G20)-(G23-G24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.270413550140216</v>
+      </c>
+      <c r="H57" s="3">
+        <f>((H19-H20)-(H23-H24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.257855675241762</v>
+      </c>
+      <c r="I57" s="3">
+        <f>((I19-I20)-(I23-I24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.23660388695208</v>
+      </c>
+      <c r="J57" s="3">
+        <f>((J19-J20)-(J23-J24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.200499996619033</v>
+      </c>
+      <c r="K57" s="3">
+        <f>((K19-K20)-(K23-K24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.175625744416335</v>
+      </c>
+      <c r="L57" s="3">
+        <f>((L19-L20)-(L23-L24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.150026999431031</v>
+      </c>
+      <c r="M57" s="3">
+        <f>((M19-M20)-(M23-M24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.119598302561711</v>
+      </c>
+      <c r="N57" s="3">
+        <f>((N19-N20)-(N23-N24))/(4*1000*$R$6*$R$12)</f>
+        <v>13.027587719171143</v>
+      </c>
+      <c r="O57" s="3">
+        <f>((O19-O20)-(O23-O24))/(4*1000*$R$6*$R$12)</f>
+        <v>12.95211972098334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="3">
+        <f>AVERAGE(B55:B57)</f>
+        <v>13.253629467343247</v>
+      </c>
+      <c r="C60" s="3">
+        <f>AVERAGE(C55:C57)</f>
+        <v>13.273070023676423</v>
+      </c>
+      <c r="D60" s="3">
+        <f>AVERAGE(D55:D57)</f>
+        <v>13.278805591538697</v>
+      </c>
+      <c r="E60" s="3">
+        <f>AVERAGE(E55:E57)</f>
+        <v>13.279952705111151</v>
+      </c>
+      <c r="F60" s="3">
+        <f>AVERAGE(F55:F57)</f>
+        <v>13.271681412509768</v>
+      </c>
+      <c r="G60" s="3">
+        <f>AVERAGE(G55:G57)</f>
+        <v>13.271802161306869</v>
+      </c>
+      <c r="H60" s="3">
+        <f>AVERAGE(H55:H57)</f>
+        <v>13.259304660806968</v>
+      </c>
+      <c r="I60" s="3">
+        <f>AVERAGE(I55:I57)</f>
+        <v>13.238233995712935</v>
+      </c>
+      <c r="J60" s="3">
+        <f>AVERAGE(J55:J57)</f>
+        <v>13.202673474966844</v>
+      </c>
+      <c r="K60" s="3">
+        <f>AVERAGE(K55:K57)</f>
+        <v>13.178402966749646</v>
+      </c>
+      <c r="L60" s="3">
+        <f>AVERAGE(L55:L57)</f>
+        <v>13.152441975373041</v>
+      </c>
+      <c r="M60" s="3">
+        <f>AVERAGE(M55:M57)</f>
+        <v>13.12201327850372</v>
+      </c>
+      <c r="N60" s="3">
+        <f>AVERAGE(N55:N57)</f>
+        <v>13.031089434287058</v>
+      </c>
+      <c r="O60" s="3">
+        <f>AVERAGE(O55:O57)</f>
+        <v>12.955561061700703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B50</f>
+        <v>24.85302298093</v>
+      </c>
+      <c r="C63" s="3">
+        <f>C50</f>
+        <v>24.903284356561308</v>
+      </c>
+      <c r="D63" s="3">
+        <f>D50</f>
+        <v>25.011925962640397</v>
+      </c>
+      <c r="E63" s="3">
+        <f>E50</f>
+        <v>25.126685031418411</v>
+      </c>
+      <c r="F63" s="3">
+        <f>F50</f>
+        <v>25.21742739478583</v>
+      </c>
+      <c r="G63" s="3">
+        <f>G50</f>
+        <v>25.286305493321898</v>
+      </c>
+      <c r="H63" s="3">
+        <f>H50</f>
+        <v>25.343930481461172</v>
+      </c>
+      <c r="I63" s="3">
+        <f>I50</f>
+        <v>25.486218132384359</v>
+      </c>
+      <c r="J63" s="3">
+        <f>J50</f>
+        <v>25.697799265113296</v>
+      </c>
+      <c r="K63" s="3">
+        <f>K50</f>
+        <v>25.837972237572657</v>
+      </c>
+      <c r="L63" s="3">
+        <f>L50</f>
+        <v>26.065866604165404</v>
+      </c>
+      <c r="M63" s="3">
+        <f>M50</f>
+        <v>26.308865816928332</v>
+      </c>
+      <c r="N63" s="3">
+        <f>N50</f>
+        <v>26.799131361497274</v>
+      </c>
+      <c r="O63" s="3">
+        <f>O50</f>
+        <v>27.187476956532851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="3">
+        <f>1/B63</f>
+        <v>4.0236553950290521E-2</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" ref="C65:O65" si="8">1/C63</f>
+        <v>4.0155346005055291E-2</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9980927558064566E-2</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9798325913251185E-2</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9655115660480439E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9547097944541545E-2</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9457178938029754E-2</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.9236892457156614E-2</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8913838094983312E-2</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8702727551732395E-2</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8364348869958424E-2</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8010000391448043E-2</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.731464227369382E-2</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="8"/>
+        <v>3.6781640370630676E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="3">
+        <f>B60</f>
+        <v>13.253629467343247</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:O67" si="9">C60</f>
+        <v>13.273070023676423</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.278805591538697</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.279952705111151</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.271681412509768</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.271802161306869</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.259304660806968</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.238233995712935</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.202673474966844</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.178402966749646</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.152441975373041</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.12201327850372</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="9"/>
+        <v>13.031089434287058</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="9"/>
+        <v>12.955561061700703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="3">
+        <f>ABS(B67/B63)</f>
+        <v>0.53328037709991671</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" ref="C69:O69" si="10">ABS(C67/C63)</f>
+        <v>0.5329847193500542</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.53089896441293127</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5285198858705753</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5262900614221232</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.52486125997378097</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.52317475659531243</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.51942716361246311</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.51376669802579045</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.51004013958905348</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.50458487243509642</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.49876772985251289</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.48625044067693274</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="10"/>
+        <v>0.47652678777122143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="3">
+        <f>1/($R$14*B67)</f>
+        <v>4.7098021480183168E+17</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ref="C71:O71" si="11">1/($R$14*C67)</f>
+        <v>4.7029038815424122E+17</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7008725373694445E+17</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7004664790942586E+17</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7033959446535309E+17</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7033531524693421E+17</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7077862777257472E+17</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7152794364072128E+17</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7279797271884627E+17</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7366871912953805E+17</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7460367170760032E+17</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7570423234208115E+17</v>
+      </c>
+      <c r="N71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.7902343736578957E+17</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="11"/>
+        <v>4.8181604978007667E+17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="3">
+        <f>LN(B71/10^17)</f>
+        <v>1.54964590035585</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ref="C72:O72" si="12">LN(C71/10^17)</f>
+        <v>1.5481801650637359</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5477481377346984</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5476617546620901</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5482847892242793</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.548275691036638</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5492177928123421</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5508081797390969</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5534979922749053</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.555337986569171</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.557309894409268</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5596261144929309</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5665793400082428</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5723922157592145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
+++ b/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tag 1 probe 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>mess nr.</t>
   </si>
@@ -150,9 +150,6 @@
     <t>R41,23</t>
   </si>
   <si>
-    <t>dR</t>
-  </si>
-  <si>
     <t>Spannung</t>
   </si>
   <si>
@@ -174,16 +171,7 @@
     <t>rho2</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
     <t>rho</t>
-  </si>
-  <si>
-    <t>drho</t>
   </si>
   <si>
     <t>d</t>
@@ -265,9 +253,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -375,7 +364,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -403,6 +392,12 @@
     <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -573,11 +568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53680320"/>
-        <c:axId val="53679744"/>
+        <c:axId val="55706752"/>
+        <c:axId val="55707328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53680320"/>
+        <c:axId val="55706752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,12 +582,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53679744"/>
+        <c:crossAx val="55707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53679744"/>
+        <c:axId val="55707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53680320"/>
+        <c:crossAx val="55706752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,11 +766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53613632"/>
-        <c:axId val="53613056"/>
+        <c:axId val="55709056"/>
+        <c:axId val="55709632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53613632"/>
+        <c:axId val="55709056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,12 +780,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53613056"/>
+        <c:crossAx val="55709632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53613056"/>
+        <c:axId val="55709632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53613632"/>
+        <c:crossAx val="55709056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -969,11 +964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72645376"/>
-        <c:axId val="53681472"/>
+        <c:axId val="55711360"/>
+        <c:axId val="55711936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72645376"/>
+        <c:axId val="55711360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,12 +978,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53681472"/>
+        <c:crossAx val="55711936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53681472"/>
+        <c:axId val="55711936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72645376"/>
+        <c:crossAx val="55711360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1398,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:P31"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,17 +1413,19 @@
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1447,20 +1444,20 @@
         <v>16</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1503,75 +1500,51 @@
         <v>40</v>
       </c>
       <c r="O2" s="3">
-        <f>ABS(D2-D3)/(2*$D$31)/1000</f>
+        <f>ABS(D2-D3)/(2*$D$39)/1000</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:S2" si="0">ABS(E2-E3)/(2*$D$31)/1000</f>
+        <f>ABS(E2-E3)/(2*$D$39)/1000</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(F2-F3)/(2*$D$39)/1000</f>
         <v>2.4300000000000002</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(G2-G3)/(2*$D$39)/1000</f>
         <v>2.4300000000000002</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(H2-H3)/(2*$D$39)/1000</f>
         <v>2.42</v>
       </c>
-      <c r="U2" s="3">
-        <f>O2/O3</f>
+      <c r="X2" s="23">
+        <f>O2</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="Y2" s="23">
+        <f>O3</f>
+        <v>1.915</v>
+      </c>
+      <c r="Z2" s="21">
+        <f>O7</f>
         <v>1.2663185378590076</v>
       </c>
-      <c r="V2" s="3">
-        <f t="shared" ref="V2:Y2" si="1">P2/P3</f>
+      <c r="AA2" s="23">
+        <f>O4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="AB2" s="23">
+        <f>O5</f>
+        <v>1.915</v>
+      </c>
+      <c r="AC2" s="21">
+        <f>O8</f>
         <v>1.2663185378590076</v>
       </c>
-      <c r="W2" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2689295039164492</v>
-      </c>
-      <c r="X2" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2689295039164492</v>
-      </c>
-      <c r="Y2" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2637075718015665</v>
-      </c>
-      <c r="AA2" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((O2+O3)/2)*$V$7</f>
-        <v>9.8352215077650111</v>
-      </c>
-      <c r="AB2" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((P2+P3)/2)*$V$7</f>
-        <v>9.8352215077650111</v>
-      </c>
-      <c r="AC2" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((Q2+Q3)/2)*$V$7</f>
-        <v>9.8465524081195799</v>
-      </c>
-      <c r="AD2" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((R2+R3)/2)*$V$7</f>
-        <v>9.8465524081195799</v>
-      </c>
-      <c r="AE2" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((S2+S3)/2)*$V$7</f>
-        <v>9.8238906074104424</v>
-      </c>
-      <c r="AG2" s="16">
-        <f>AVERAGE(AA2:AE2)</f>
-        <v>9.8374876878359245</v>
-      </c>
-      <c r="AH2" s="15">
-        <f>_xlfn.STDEV.P(AA2:AE2)</f>
-        <v>8.4792694020943207E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1595,94 +1568,70 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I21" si="2">AVERAGE(D3:H3)</f>
+        <f t="shared" ref="I3:I9" si="0">AVERAGE(D3:H3)</f>
         <v>0.24139999999999998</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J21" si="3">_xlfn.STDEV.P(D3:H3)</f>
+        <f t="shared" ref="J3:J9" si="1">_xlfn.STDEV.P(D3:H3)</f>
         <v>4.8989794855663611E-4</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K21" si="4">I3/1000</f>
+        <f t="shared" ref="K3:K9" si="2">I3/1000</f>
         <v>2.4139999999999999E-4</v>
       </c>
       <c r="L3" s="11">
-        <f t="shared" ref="L3:L21" si="5">J3/1000</f>
+        <f t="shared" ref="L3:L9" si="3">J3/1000</f>
         <v>4.898979485566361E-7</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="O3" s="3">
-        <f>ABS(D4-D5)/(2*$D$31)/1000</f>
+        <f>ABS(D4-D5)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:S3" si="6">ABS(E4-E5)/(2*$D$31)/1000</f>
+        <f>ABS(E4-E5)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" si="6"/>
+        <f>ABS(F4-F5)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" si="6"/>
+        <f>ABS(G4-G5)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" si="6"/>
+        <f>ABS(H4-H5)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
-      <c r="U3" s="3">
-        <f>O4/O5</f>
+      <c r="X3" s="23">
+        <f>P2</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="Y3" s="23">
+        <f>P3</f>
+        <v>1.915</v>
+      </c>
+      <c r="Z3" s="21">
+        <f>P7</f>
         <v>1.2663185378590076</v>
       </c>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:Y3" si="7">P4/P5</f>
+      <c r="AA3" s="23">
+        <f>P4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="AB3" s="23">
+        <f>P5</f>
+        <v>1.915</v>
+      </c>
+      <c r="AC3" s="21">
+        <f>P8</f>
         <v>1.2663185378590076</v>
       </c>
-      <c r="W3" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2663185378590076</v>
-      </c>
-      <c r="X3" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2696335078534031</v>
-      </c>
-      <c r="Y3" s="3">
-        <f t="shared" si="7"/>
-        <v>1.2637075718015665</v>
-      </c>
-      <c r="AA3" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((O4+O5)/2)*$V$8</f>
-        <v>9.8352215077650111</v>
-      </c>
-      <c r="AB3" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((P4+P5)/2)*$V$8</f>
-        <v>9.8352215077650111</v>
-      </c>
-      <c r="AC3" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((Q4+Q5)/2)*$V$8</f>
-        <v>9.8352215077650111</v>
-      </c>
-      <c r="AD3" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((R4+R5)/2)*$V$8</f>
-        <v>9.8238906074104424</v>
-      </c>
-      <c r="AE3" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((S4+S5)/2)*$V$8</f>
-        <v>9.8238906074104424</v>
-      </c>
-      <c r="AG3" s="16">
-        <f>AVERAGE(AA3:AE3)</f>
-        <v>9.8306891476231826</v>
-      </c>
-      <c r="AH3" s="15">
-        <f>_xlfn.STDEV.P(AA3:AE3)</f>
-        <v>5.5509848390028812E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1706,46 +1655,70 @@
         <v>-0.193</v>
       </c>
       <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.193</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
-        <v>-0.193</v>
-      </c>
-      <c r="J4" s="11">
+        <v>-1.93E-4</v>
+      </c>
+      <c r="L4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="4"/>
-        <v>-1.93E-4</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="N4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="O4" s="3">
-        <f>ABS(D6-D7)/(2*$D$31)/1000</f>
+        <f>ABS(D6-D7)/(2*$D$39)/1000</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:S4" si="8">ABS(E6-E7)/(2*$D$31)/1000</f>
+        <f>ABS(E6-E7)/(2*$D$39)/1000</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="8"/>
+        <f>ABS(F6-F7)/(2*$D$39)/1000</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" si="8"/>
+        <f>ABS(G6-G7)/(2*$D$39)/1000</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" si="8"/>
+        <f>ABS(H6-H7)/(2*$D$39)/1000</f>
         <v>2.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="X4" s="23">
+        <f>Q2</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Y4" s="23">
+        <f>Q3</f>
+        <v>1.915</v>
+      </c>
+      <c r="Z4" s="21">
+        <f>Q7</f>
+        <v>1.2689295039164492</v>
+      </c>
+      <c r="AA4" s="23">
+        <f>Q4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="AB4" s="23">
+        <f>Q5</f>
+        <v>1.915</v>
+      </c>
+      <c r="AC4" s="21">
+        <f>Q8</f>
+        <v>1.2663185378590076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1769,54 +1742,70 @@
         <v>0.19</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
-        <v>0.19</v>
-      </c>
-      <c r="J5" s="11">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="L5" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="4"/>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="L5" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="N5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O5" s="3">
-        <f>ABS(D8-D9)/(2*$D$31)/1000</f>
+        <f>ABS(D8-D9)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:S5" si="9">ABS(E8-E9)/(2*$D$31)/1000</f>
+        <f>ABS(E8-E9)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(F8-F9)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(G8-G9)/(2*$D$39)/1000</f>
         <v>1.91</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(H8-H9)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
-      <c r="AG5" s="14">
-        <f>(AG2+AG3)/2</f>
-        <v>9.8340884177295536</v>
-      </c>
-      <c r="AH5" s="18">
-        <f>(AH2+AH3)/2</f>
-        <v>7.015127120548601E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="X5" s="23">
+        <f>R2</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Y5" s="23">
+        <f>R3</f>
+        <v>1.915</v>
+      </c>
+      <c r="Z5" s="21">
+        <f>R7</f>
+        <v>1.2689295039164492</v>
+      </c>
+      <c r="AA5" s="23">
+        <f>R4</f>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="AB5" s="23">
+        <f>R5</f>
+        <v>1.91</v>
+      </c>
+      <c r="AC5" s="21">
+        <f>R8</f>
+        <v>1.2696335078534031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1840,48 +1829,48 @@
         <v>-0.24199999999999999</v>
       </c>
       <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.24279999999999999</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000034E-4</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
-        <v>-0.24279999999999999</v>
-      </c>
-      <c r="J6" s="11">
+        <v>-2.4279999999999999E-4</v>
+      </c>
+      <c r="L6" s="11">
         <f t="shared" si="3"/>
-        <v>4.0000000000000034E-4</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="4"/>
-        <v>-2.4279999999999999E-4</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" si="5"/>
         <v>4.0000000000000035E-7</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6" s="10"/>
-      <c r="Z6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="X6" s="23">
+        <f>S2</f>
+        <v>2.42</v>
+      </c>
+      <c r="Y6" s="23">
+        <f>S3</f>
+        <v>1.915</v>
+      </c>
+      <c r="Z6" s="21">
+        <f>S7</f>
+        <v>1.2637075718015665</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>S4</f>
+        <v>2.42</v>
+      </c>
+      <c r="AB6" s="23">
+        <f>S5</f>
+        <v>1.915</v>
+      </c>
+      <c r="AC6" s="21">
+        <f>S8</f>
+        <v>1.2637075718015665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1905,59 +1894,46 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="J7" s="11">
+        <v>2.42E-4</v>
+      </c>
+      <c r="L7" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="4"/>
-        <v>2.42E-4</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="N7" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O7" s="3">
-        <f>ABS(K2-K3)/(2*$D$31)</f>
-        <v>2.4259999999999997</v>
-      </c>
-      <c r="P7" s="11">
-        <f>SQRT((L2/(2*$D$31))^2+(L3/(2*$D$31))^2+(($E$31*ABS(K2-K3))/(2*$D$31^2))^2)</f>
-        <v>3.1646032436942265E-3</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>48</v>
+        <f>O2/O3</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="P7" s="3">
+        <f>P2/P3</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>Q2/Q3</f>
+        <v>1.2689295039164492</v>
+      </c>
+      <c r="R7" s="3">
+        <f>R2/R3</f>
+        <v>1.2689295039164492</v>
       </c>
       <c r="S7" s="3">
-        <f>O7/O8</f>
-        <v>1.2668407310704961</v>
-      </c>
-      <c r="T7" s="11">
-        <f>SQRT((P7/O8)^2+(O7*P8/O8^2)^2)</f>
-        <v>1.6537478430624273E-3</v>
-      </c>
-      <c r="V7" s="3">
-        <v>1</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((O7+O8)/2)*V7</f>
-        <v>9.8374876878359228</v>
-      </c>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+        <f>S2/S3</f>
+        <v>1.2637075718015665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1981,59 +1957,46 @@
         <v>-0.192</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.19239999999999999</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8989794855663611E-4</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
-        <v>-0.19239999999999999</v>
-      </c>
-      <c r="J8" s="11">
+        <v>-1.9239999999999999E-4</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="3"/>
-        <v>4.8989794855663611E-4</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="4"/>
-        <v>-1.9239999999999999E-4</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="5"/>
         <v>4.898979485566361E-7</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O8" s="3">
-        <f>ABS(K4-K5)/(2*$D$31)</f>
-        <v>1.9149999999999998</v>
-      </c>
-      <c r="P8" s="11">
-        <f>SQRT((L4/(2*$D$31))^2+(L5/(2*$D$31))^2+(($E$31*ABS(K4-K5))/(2*$D$31^2))^2)</f>
-        <v>9.5749999999999983E-5</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>49</v>
+        <f>O4/O5</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="P8" s="3">
+        <f>P4/P5</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>Q4/Q5</f>
+        <v>1.2663185378590076</v>
+      </c>
+      <c r="R8" s="3">
+        <f>R4/R5</f>
+        <v>1.2696335078534031</v>
       </c>
       <c r="S8" s="3">
-        <f>O9/O10</f>
-        <v>1.2664576802507839</v>
-      </c>
-      <c r="T8" s="11">
-        <f>SQRT((P9/O10)^2+(O9*P10/O10^2)^2)</f>
-        <v>2.5206676929198438E-3</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z8" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((O9+O10)/2)*V8</f>
-        <v>9.8306891476231826</v>
-      </c>
-      <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+        <f>S4/S5</f>
+        <v>1.2637075718015665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2057,944 +2020,1325 @@
         <v>0.191</v>
       </c>
       <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19039999999999999</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>4.89897948556636E-4</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
-        <v>0.19039999999999999</v>
-      </c>
-      <c r="J9" s="11">
+        <v>1.9039999999999999E-4</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="3"/>
-        <v>4.89897948556636E-4</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="4"/>
-        <v>1.9039999999999999E-4</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="5"/>
         <v>4.8989794855663599E-7</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="3">
-        <f>ABS(K6-K7)/(2*$D$31)</f>
-        <v>2.4239999999999999</v>
-      </c>
-      <c r="P9" s="11">
-        <f>SQRT((L6/(2*$D$31))^2+(L7/(2*$D$31))^2+(($E$31*ABS(K6-K7))/(2*$D$31^2))^2)</f>
-        <v>2.003668994619622E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="X9" s="21">
+        <f>O10</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Y9" s="21">
+        <f>O11</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Z9" s="21">
+        <f>AVERAGE(X9:Y9)</f>
+        <v>9.8352215077650111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="N10" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="3">
-        <f>ABS(K8-K9)/(2*$D$31)</f>
-        <v>1.9139999999999997</v>
-      </c>
-      <c r="P10" s="11">
-        <f>SQRT((L8/(2*$D$31))^2+(L9/(2*$D$31))^2+(($E$31*ABS(K8-K9))/(2*$D$31^2))^2)</f>
-        <v>3.4654232771769771E-3</v>
-      </c>
-      <c r="Z10" s="3">
-        <f>(Z7+Z8)/2</f>
+        <f>(PI()*$D$35/(LN(2)))*((O2+O3)/2)</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="P10" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((P2+P3)/2)</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((Q2+Q3)/2)</f>
+        <v>9.8465524081195799</v>
+      </c>
+      <c r="R10" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((R2+R3)/2)</f>
+        <v>9.8465524081195799</v>
+      </c>
+      <c r="S10" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((S2+S3)/2)</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="U10" s="16">
+        <f>AVERAGE(O10:S10)</f>
+        <v>9.8374876878359245</v>
+      </c>
+      <c r="V10" s="15">
+        <f>_xlfn.STDEV.P(O10:S10)</f>
+        <v>8.4792694020943207E-3</v>
+      </c>
+      <c r="X10" s="21">
+        <f>P10</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Y10" s="21">
+        <f>P11</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Z10" s="21">
+        <f t="shared" ref="Z10:Z13" si="4">AVERAGE(X10:Y10)</f>
+        <v>9.8352215077650111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O11" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((O4+O5)/2)</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="P11" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((P4+P5)/2)</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((Q4+Q5)/2)</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="R11" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((R4+R5)/2)</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="S11" s="3">
+        <f>(PI()*$D$35/(LN(2)))*((S4+S5)/2)</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="U11" s="16">
+        <f>AVERAGE(O11:S11)</f>
+        <v>9.8306891476231826</v>
+      </c>
+      <c r="V11" s="15">
+        <f>_xlfn.STDEV.P(O11:S11)</f>
+        <v>5.5509848390028812E-3</v>
+      </c>
+      <c r="X11" s="21">
+        <f>Q10</f>
+        <v>9.8465524081195799</v>
+      </c>
+      <c r="Y11" s="21">
+        <f>Q11</f>
+        <v>9.8352215077650111</v>
+      </c>
+      <c r="Z11" s="21">
+        <f t="shared" si="4"/>
+        <v>9.8408869579422955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X12" s="21">
+        <f>R10</f>
+        <v>9.8465524081195799</v>
+      </c>
+      <c r="Y12" s="21">
+        <f>R11</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="Z12" s="21">
+        <f t="shared" si="4"/>
+        <v>9.8352215077650111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U13" s="14">
+        <f>(U10+U11)/2</f>
         <v>9.8340884177295536</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="V13" s="18">
+        <f>(V10+V11)/2</f>
+        <v>7.015127120548601E-3</v>
+      </c>
+      <c r="X13" s="21">
+        <f>S10</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>S11</f>
+        <v>9.8238906074104424</v>
+      </c>
+      <c r="Z13" s="21">
+        <f t="shared" si="4"/>
+        <v>9.8238906074104424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="O11" t="s">
+      <c r="C19" s="7"/>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="3">
+        <f>AVERAGE(D20:H20)</f>
+        <v>-7.6E-3</v>
+      </c>
+      <c r="J20" s="11">
+        <f>_xlfn.STDEV.P(D20:H20)</f>
+        <v>4.8989794855663557E-4</v>
+      </c>
+      <c r="K20" s="3">
+        <f>I20/1000</f>
+        <v>-7.6000000000000001E-6</v>
+      </c>
+      <c r="L20" s="11">
+        <f>J20/1000</f>
+        <v>4.8989794855663557E-7</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="3">
+        <f>(D20-D28)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20:S20" si="5">(E20-E28)</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3000000000000003E-2</v>
+      </c>
+      <c r="X20" s="21">
+        <f>O20</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Y20" s="21">
+        <f>O21</f>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="Z20" s="21">
+        <f>O22</f>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="AA20" s="21">
+        <f>O23</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="3">
+        <f>AVERAGE(D21:H21)</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J21" s="11">
+        <f>_xlfn.STDEV.P(D21:H21)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K21" s="3">
+        <f>I21/1000</f>
+        <v>5.7999999999999995E-6</v>
+      </c>
+      <c r="L21" s="11">
+        <f>J21/1000</f>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="3">
+        <f>(D21-D29)</f>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" ref="P21:S21" si="6">(E21-E29)</f>
+        <v>-4.4000000000000004E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="6"/>
+        <v>-4.4000000000000004E-2</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="6"/>
+        <v>-4.4000000000000004E-2</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="6"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="X21" s="21">
+        <f>P20</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Y21" s="21">
+        <f>P21</f>
+        <v>-4.4000000000000004E-2</v>
+      </c>
+      <c r="Z21" s="21">
+        <f>P22</f>
+        <v>-4.6000000000000006E-2</v>
+      </c>
+      <c r="AA21" s="21">
+        <f>P23</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <f>AVERAGE(D22:H22)</f>
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="J22" s="11">
+        <f>_xlfn.STDEV.P(D22:H22)</f>
+        <v>4.89897948556636E-4</v>
+      </c>
+      <c r="K22" s="3">
+        <f>I22/1000</f>
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="L22" s="11">
+        <f>J22/1000</f>
+        <v>4.8989794855663599E-7</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="3">
+        <f>(D24-D28)</f>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:S22" si="7">(E24-E28)</f>
+        <v>-4.6000000000000006E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="7"/>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="7"/>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="7"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="X22" s="21">
+        <f>Q20</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Y22" s="21">
+        <f>Q21</f>
+        <v>-4.4000000000000004E-2</v>
+      </c>
+      <c r="Z22" s="21">
+        <f>Q22</f>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="AA22" s="21">
+        <f>Q23</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-9.6500000000000002E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <f>AVERAGE(D23:H23)</f>
+        <v>-9.6299999999999983E-2</v>
+      </c>
+      <c r="J23" s="11">
+        <f>_xlfn.STDEV.P(D23:H23)</f>
+        <v>4.0000000000000034E-4</v>
+      </c>
+      <c r="K23" s="3">
+        <f>I23/1000</f>
+        <v>-9.6299999999999983E-5</v>
+      </c>
+      <c r="L23" s="11">
+        <f>J23/1000</f>
+        <v>4.0000000000000035E-7</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="3">
+        <f>(D25-D29)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" ref="P23:S23" si="8">(E25-E29)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="X23" s="21">
+        <f>R20</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y23" s="21">
+        <f>R21</f>
+        <v>-4.4000000000000004E-2</v>
+      </c>
+      <c r="Z23" s="21">
+        <f>R22</f>
+        <v>-4.5000000000000005E-2</v>
+      </c>
+      <c r="AA23" s="21">
+        <f>R23</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <f>AVERAGE(D24:H24)</f>
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="J24" s="11">
+        <f>_xlfn.STDEV.P(D24:H24)</f>
+        <v>6.3245553203367642E-4</v>
+      </c>
+      <c r="K24" s="3">
+        <f>I24/1000</f>
+        <v>-9.6000000000000002E-5</v>
+      </c>
+      <c r="L24" s="11">
+        <f>J24/1000</f>
+        <v>6.3245553203367647E-7</v>
+      </c>
+      <c r="X24" s="21">
+        <f>S20</f>
+        <v>4.3000000000000003E-2</v>
+      </c>
+      <c r="Y24" s="21">
+        <f>S21</f>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="Z24" s="21">
+        <f>S22</f>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="AA24" s="21">
+        <f>S23</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f>AVERAGE(D25:H25)</f>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="J25" s="11">
+        <f>_xlfn.STDEV.P(D25:H25)</f>
+        <v>4.89897948556636E-4</v>
+      </c>
+      <c r="K25" s="3">
+        <f>I25/1000</f>
+        <v>9.5400000000000001E-5</v>
+      </c>
+      <c r="L25" s="11">
+        <f>J25/1000</f>
+        <v>4.8989794855663599E-7</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3">
+        <f>(O20-O21)/2</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P25" s="3">
+        <f>(P20-P21)/2</f>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>(Q20-Q21)/2</f>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <f>(R20-R21)/2</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <f>(S20-S21)/2</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I26" s="3">
+        <f>AVERAGE(D26:H26)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="J26" s="11">
+        <f>_xlfn.STDEV.P(D26:H26)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K26" s="3">
+        <f>I26/1000</f>
+        <v>5.200000000000001E-6</v>
+      </c>
+      <c r="L26" s="11">
+        <f>J26/1000</f>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="3">
+        <f>-(O22-O23)/2</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="P26" s="3">
+        <f>-(P22-P23)/2</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>-(Q22-Q23)/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f>-(R22-R23)/2</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <f>-(S22-S23)/2</f>
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="X26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="P11" t="s">
+      <c r="AA26" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <f>AVERAGE(D27:H27)</f>
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="J27" s="11">
+        <f>_xlfn.STDEV.P(D27:H27)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K27" s="3">
+        <f>I27/1000</f>
+        <v>-7.7999999999999999E-6</v>
+      </c>
+      <c r="L27" s="11">
+        <f>J27/1000</f>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="X27" s="21">
+        <f>O25</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y27" s="21">
+        <f>O26</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Z27" s="21">
+        <f>O28</f>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="AA27" s="21">
+        <f>O29</f>
+        <v>3.2971014492753619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="I28" s="3">
+        <f>AVERAGE(D28:H28)</f>
+        <v>-5.0799999999999998E-2</v>
+      </c>
+      <c r="J28" s="11">
+        <f>_xlfn.STDEV.P(D28:H28)</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K28" s="3">
+        <f>I28/1000</f>
+        <v>-5.0799999999999995E-5</v>
+      </c>
+      <c r="L28" s="11">
+        <f>J28/1000</f>
+        <v>3.999999999999976E-7</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="3">
+        <f>O25/($D$33*$D$39)/1000</f>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" ref="P28:S28" si="9">P25/($D$33*$D$39)/1000</f>
+        <v>3.1521739130434776</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1521739130434776</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="U28" s="16">
+        <f>AVERAGE(O28:S28)</f>
+        <v>3.1739130434782603</v>
+      </c>
+      <c r="V28" s="15">
+        <f>_xlfn.STDEV.P(O28:S28)</f>
+        <v>1.7749925672341949E-2</v>
+      </c>
+      <c r="X28" s="21">
+        <f>P25</f>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="Y28" s="21">
+        <f>P26</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Z28" s="21">
+        <f>P28</f>
+        <v>3.1521739130434776</v>
+      </c>
+      <c r="AA28" s="21">
+        <f>P29</f>
+        <v>3.2971014492753619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="7">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <f>AVERAGE(D29:H29)</f>
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="J29" s="11">
+        <f>_xlfn.STDEV.P(D29:H29)</f>
+        <v>3.9999999999999758E-4</v>
+      </c>
+      <c r="K29" s="3">
+        <f>I29/1000</f>
+        <v>5.02E-5</v>
+      </c>
+      <c r="L29" s="11">
+        <f>J29/1000</f>
+        <v>3.999999999999976E-7</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="3">
+        <f>O26/($D$33*$D$39)/1000</f>
+        <v>3.2971014492753619</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" ref="P29:S29" si="10">P26/($D$33*$D$39)/1000</f>
+        <v>3.2971014492753619</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2608695652173907</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2971014492753619</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2246376811594195</v>
+      </c>
+      <c r="U29" s="16">
+        <f>AVERAGE(O29:S29)</f>
+        <v>3.2753623188405792</v>
+      </c>
+      <c r="V29" s="15">
+        <f>_xlfn.STDEV.P(O29:S29)</f>
+        <v>2.8985507246376937E-2</v>
+      </c>
+      <c r="X29" s="21">
+        <f>Q25</f>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="Y29" s="21">
+        <f>Q26</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Z29" s="21">
+        <f>Q28</f>
+        <v>3.1521739130434776</v>
+      </c>
+      <c r="AA29" s="21">
+        <f>Q29</f>
+        <v>3.2608695652173907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X30" s="21">
+        <f>R25</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y30" s="21">
+        <f>R26</f>
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Z30" s="21">
+        <f>R28</f>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="AA30" s="21">
+        <f>R29</f>
+        <v>3.2971014492753619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U31" s="19">
+        <f>(U28+U29)/2</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="V31" s="20">
+        <f>(V28+V29)/2</f>
+        <v>2.3367716459359443E-2</v>
+      </c>
+      <c r="X31" s="21">
+        <f>S25</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y31" s="21">
+        <f>S26</f>
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="Z31" s="21">
+        <f>S28</f>
+        <v>3.1884057971014488</v>
+      </c>
+      <c r="AA31" s="21">
+        <f>S29</f>
+        <v>3.2246376811594195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="2"/>
-        <v>-7.6E-3</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" si="3"/>
-        <v>4.8989794855663557E-4</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="4"/>
-        <v>-7.6000000000000001E-6</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" si="5"/>
-        <v>4.8989794855663557E-7</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="3">
-        <f>(D12-D20)/1000</f>
-        <v>4.2999999999999995E-5</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" ref="P12:R12" si="10">(E12-E20)/1000</f>
-        <v>4.2999999999999995E-5</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="10"/>
-        <v>4.2999999999999995E-5</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="10"/>
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="S12" s="3">
-        <f>(H12-H20)/1000</f>
-        <v>4.3000000000000002E-5</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="V12" s="3">
-        <f>(O12-O13)/2</f>
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" ref="W12:Z12" si="11">(P12-P13)/2</f>
-        <v>4.35E-5</v>
-      </c>
-      <c r="X12" s="3">
+      <c r="X36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" s="3">
+        <f>((D20-D21)-(D24-D25))/(4*1000*$D$33*$D$39)</f>
+        <v>3.2427536231884053</v>
+      </c>
+      <c r="P37" s="3">
+        <f>((E20-E21)-(E24-E25))/(4*1000*$D$33*$D$39)</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>((F20-F21)-(F24-F25))/(4*1000*$D$33*$D$39)</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="R37" s="3">
+        <f>((G20-G21)-(G24-G25))/(4*1000*$D$33*$D$39)</f>
+        <v>3.2427536231884053</v>
+      </c>
+      <c r="S37" s="3">
+        <f>((H20-H21)-(H24-H25))/(4*1000*$D$33*$D$39)</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="U37" s="16">
+        <f>AVERAGE(O37:S37)</f>
+        <v>3.2246376811594195</v>
+      </c>
+      <c r="V37" s="15">
+        <f>_xlfn.STDEV.P(O37:S37)</f>
+        <v>1.6203391141302894E-2</v>
+      </c>
+      <c r="X37" s="21">
+        <f>O37</f>
+        <v>3.2427536231884053</v>
+      </c>
+      <c r="Y37" s="21">
+        <f>O38</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="Z37" s="21">
+        <f>AVERAGE(X37:Y37)</f>
+        <v>3.2336956521739126</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38" s="3">
+        <f>((D22-D23)-(D26-D27))/(4*1000*$D$33*$D$39)</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="P38" s="3">
+        <f>((E22-E23)-(E26-E27))/(4*1000*$D$33*$D$39)</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>((F22-F23)-(F26-F27))/(4*1000*$D$33*$D$39)</f>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="R38" s="3">
+        <f>((G22-G23)-(G26-G27))/(4*1000*$D$33*$D$39)</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="S38" s="3">
+        <f>((H22-H23)-(H26-H27))/(4*1000*$D$33*$D$39)</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="U38" s="16">
+        <f>AVERAGE(O38:S38)</f>
+        <v>3.2192028985507242</v>
+      </c>
+      <c r="V38" s="15">
+        <f>_xlfn.STDEV.P(O38:S38)</f>
+        <v>7.2463768115943461E-3</v>
+      </c>
+      <c r="X38" s="21">
+        <f>P37</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="Y38" s="21">
+        <f>P38</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="Z38" s="21">
+        <f t="shared" ref="Z38:Z41" si="11">AVERAGE(X38:Y38)</f>
+        <v>3.2155797101449268</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1E-4</v>
+      </c>
+      <c r="E39">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="X39" s="21">
+        <f>Q37</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="Y39" s="21">
+        <f>Q38</f>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="Z39" s="21">
         <f t="shared" si="11"/>
-        <v>4.35E-5</v>
-      </c>
-      <c r="Y12" s="3">
+        <v>3.2110507246376807</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="3">
+        <f>AVERAGE(O37:O38)</f>
+        <v>3.2336956521739126</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" ref="P40:S40" si="12">AVERAGE(P37:P38)</f>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2110507246376807</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2336956521739126</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="12"/>
+        <v>3.2155797101449268</v>
+      </c>
+      <c r="U40" s="14">
+        <f>(U37+U38)/2</f>
+        <v>3.2219202898550718</v>
+      </c>
+      <c r="V40" s="18">
+        <f>(V37+V38)/2</f>
+        <v>1.172488397644862E-2</v>
+      </c>
+      <c r="X40" s="21">
+        <f>R37</f>
+        <v>3.2427536231884053</v>
+      </c>
+      <c r="Y40" s="21">
+        <f>R38</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="Z40" s="21">
         <f t="shared" si="11"/>
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="11"/>
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC12" s="3">
-        <f>V12/($D$25*$D$31)</f>
-        <v>3.1884057971014488</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" ref="AD12:AG13" si="12">W12/($D$25*$D$31)</f>
-        <v>3.152173913043478</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="12"/>
-        <v>3.152173913043478</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="12"/>
-        <v>3.1884057971014488</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="12"/>
-        <v>3.1884057971014488</v>
-      </c>
-      <c r="AI12" s="16">
-        <f>AVERAGE(AC12:AG12)</f>
-        <v>3.1739130434782608</v>
-      </c>
-      <c r="AJ12" s="15">
-        <f>_xlfn.STDEV.P(AC12:AG12)</f>
-        <v>1.7749925672341731E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="4"/>
-        <v>5.7999999999999995E-6</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000003E-7</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="3">
-        <f>(D13-D21)/1000</f>
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" ref="P13:S13" si="13">(E13-E21)/1000</f>
-        <v>-4.4000000000000006E-5</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="13"/>
-        <v>-4.4000000000000006E-5</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="13"/>
-        <v>-4.4000000000000006E-5</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="13"/>
-        <v>-4.4999999999999996E-5</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" s="3">
-        <f>-(O14-O15)/2</f>
-        <v>2.55E-5</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" ref="W13:Z13" si="14">-(P14-P15)/2</f>
-        <v>4.5500000000000001E-5</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" si="14"/>
-        <v>4.4999999999999996E-5</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="14"/>
-        <v>4.5500000000000001E-5</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="14"/>
-        <v>4.4499999999999997E-5</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC13" s="3">
-        <f>V13/($D$25*$D$31)</f>
-        <v>1.8478260869565215</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2971014492753619</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2608695652173907</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2971014492753619</v>
-      </c>
-      <c r="AG13" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2246376811594195</v>
-      </c>
-      <c r="AI13" s="16">
-        <f>AVERAGE(AC13:AG13)</f>
-        <v>2.9855072463768111</v>
-      </c>
-      <c r="AJ13" s="15">
-        <f>_xlfn.STDEV.P(AC13:AG13)</f>
-        <v>0.56947486099676825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>9.4E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="2"/>
-        <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="3"/>
-        <v>4.89897948556636E-4</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="4"/>
-        <v>9.4400000000000004E-5</v>
-      </c>
-      <c r="L14" s="11">
-        <f t="shared" si="5"/>
-        <v>4.8989794855663599E-7</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="3">
-        <f>(D16-D20)/1000</f>
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" ref="P14:S14" si="15">(E16-E20)/1000</f>
-        <v>-4.6000000000000007E-5</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="15"/>
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="15"/>
-        <v>-4.5000000000000003E-5</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="15"/>
-        <v>-4.4999999999999996E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-9.6500000000000002E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="2"/>
-        <v>-9.6299999999999983E-2</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000034E-4</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="4"/>
-        <v>-9.6299999999999983E-5</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000035E-7</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="O15" s="3">
-        <f>(D17-D21)/1000</f>
-        <v>5.9999999999999985E-6</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" ref="P15:R15" si="16">(E17-E21)/1000</f>
-        <v>4.4999999999999996E-5</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="16"/>
-        <v>4.4999999999999996E-5</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="16"/>
-        <v>4.6E-5</v>
-      </c>
-      <c r="S15" s="3">
-        <f>(H17-H21)/1000</f>
-        <v>4.4000000000000006E-5</v>
-      </c>
-      <c r="AI15" s="19">
-        <f>(AI12+AI13)/2</f>
-        <v>3.0797101449275361</v>
-      </c>
-      <c r="AJ15" s="20">
-        <f>(AJ12+AJ13)/2</f>
-        <v>0.29361239333455497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>-9.5000000000000001E-2</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="2"/>
-        <v>-9.6000000000000002E-2</v>
-      </c>
-      <c r="J16" s="11">
-        <f t="shared" si="3"/>
-        <v>6.3245553203367642E-4</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="4"/>
-        <v>-9.6000000000000002E-5</v>
-      </c>
-      <c r="L16" s="11">
-        <f t="shared" si="5"/>
-        <v>6.3245553203367647E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="2"/>
-        <v>8.7399999999999992E-2</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="3"/>
-        <v>1.5704776343520507E-2</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="4"/>
-        <v>8.7399999999999997E-5</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="5"/>
-        <v>1.5704776343520507E-5</v>
-      </c>
-      <c r="P17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H18" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="2"/>
-        <v>5.2000000000000006E-3</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="4"/>
-        <v>5.200000000000001E-6</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000003E-7</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="3">
-        <f>((D12-D13)-(D16-D17))/(4*1000*$D$25*$D$31)</f>
-        <v>2.5181159420289849</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" ref="P18:S18" si="17">((E12-E13)-(E16-E17))/(4*1000*$D$25*$D$31)</f>
-        <v>3.22463768115942</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="17"/>
-        <v>3.2065217391304341</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="17"/>
-        <v>3.2427536231884053</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="17"/>
-        <v>3.2065217391304341</v>
-      </c>
-      <c r="U18" s="16">
-        <f>AVERAGE(O18:S18)</f>
-        <v>3.0797101449275353</v>
-      </c>
-      <c r="V18" s="15">
-        <f>_xlfn.STDEV.P(O18:S18)</f>
-        <v>0.28111832958363514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="7">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="H19" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="2"/>
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="4"/>
-        <v>-7.7999999999999999E-6</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000003E-7</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="3">
-        <f>((D14-D15)-(D18-D19))/(4*1000*$D$25*$D$31)</f>
-        <v>3.22463768115942</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" ref="P19:S19" si="18">((E14-E15)-(E18-E19))/(4*1000*$D$25*$D$31)</f>
-        <v>3.2065217391304341</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="18"/>
-        <v>3.2155797101449268</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="18"/>
-        <v>3.22463768115942</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="18"/>
-        <v>3.22463768115942</v>
-      </c>
-      <c r="U19" s="16">
-        <f>AVERAGE(O19:S19)</f>
-        <v>3.2192028985507242</v>
-      </c>
-      <c r="V19" s="15">
-        <f>_xlfn.STDEV.P(O19:S19)</f>
-        <v>7.2463768115943461E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="7">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="2"/>
-        <v>-5.0799999999999998E-2</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999758E-4</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="4"/>
-        <v>-5.0799999999999995E-5</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" si="5"/>
-        <v>3.999999999999976E-7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="7">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="H21" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="3"/>
-        <v>3.9999999999999758E-4</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="4"/>
-        <v>5.02E-5</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="5"/>
-        <v>3.999999999999976E-7</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="3">
-        <f>AVERAGE(O18:O19)</f>
-        <v>2.8713768115942022</v>
-      </c>
-      <c r="P21" s="3">
-        <f t="shared" ref="P21:S21" si="19">AVERAGE(P18:P19)</f>
-        <v>3.2155797101449268</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="19"/>
-        <v>3.2110507246376807</v>
-      </c>
-      <c r="R21" s="3">
-        <f t="shared" si="19"/>
         <v>3.2336956521739126</v>
       </c>
-      <c r="S21" s="3">
-        <f t="shared" si="19"/>
-        <v>3.2155797101449268</v>
-      </c>
-      <c r="U21" s="14">
-        <f>(U18+U19)/2</f>
-        <v>3.1494565217391299</v>
-      </c>
-      <c r="V21" s="18">
-        <f>(V18+V19)/2</f>
-        <v>0.14418235319761474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S23" s="3">
-        <f>AVERAGE(O21:S21)</f>
-        <v>3.1494565217391299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-      <c r="S24" s="11">
-        <f>_xlfn.STDEV.P(O21:S21)</f>
-        <v>0.13925728290563494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O27" s="14">
-        <f>AG5</f>
-        <v>9.8340884177295536</v>
-      </c>
-      <c r="P27" s="18">
-        <f>AH5</f>
-        <v>7.015127120548601E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="3">
-        <f>1/O27</f>
-        <v>0.10168710687989474</v>
-      </c>
-      <c r="P28" s="18">
-        <f>P27/O27^2</f>
-        <v>7.2538292415309403E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="3">
-        <f>S23</f>
-        <v>3.1494565217391299</v>
-      </c>
-      <c r="P29" s="11">
-        <f>S24</f>
-        <v>0.13925728290563494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O30" s="3">
-        <f>ABS(O29/O27)</f>
-        <v>0.32025912193966843</v>
-      </c>
-      <c r="P30" s="11">
-        <f>SQRT((P29/O27)^2+(O29*P27/O27^2)^2)</f>
-        <v>1.416251294963777E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>1E-4</v>
-      </c>
-      <c r="E31">
-        <v>5.0000000000000001E-9</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O31" s="3">
-        <f>1/(D33*O29)</f>
-        <v>1.9819918802963082E+18</v>
-      </c>
-      <c r="P31" s="11">
-        <f>P29/(D33*O29^2)</f>
-        <v>8.7636327755584752E+16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33">
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D41">
         <f>1.602*10^-19</f>
         <v>1.602E-19</v>
+      </c>
+      <c r="X41" s="21">
+        <f>S37</f>
+        <v>3.2065217391304341</v>
+      </c>
+      <c r="Y41" s="21">
+        <f>S38</f>
+        <v>3.22463768115942</v>
+      </c>
+      <c r="Z41" s="21">
+        <f t="shared" si="11"/>
+        <v>3.2155797101449268</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="S42" s="3">
+        <f>AVERAGE(O40:S40)</f>
+        <v>3.2219202898550718</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="S43" s="11">
+        <f>_xlfn.STDEV.P(O40:S40)</f>
+        <v>9.7557333462582486E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="N45" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="N46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" s="14">
+        <f>U13</f>
+        <v>9.8340884177295536</v>
+      </c>
+      <c r="P46" s="18">
+        <f>V13</f>
+        <v>7.015127120548601E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="N47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O47" s="3">
+        <f>1/O46</f>
+        <v>0.10168710687989474</v>
+      </c>
+      <c r="P47" s="18">
+        <f>P46/O46^2</f>
+        <v>7.2538292415309403E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="N48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48" s="3">
+        <f>S42</f>
+        <v>3.2219202898550718</v>
+      </c>
+      <c r="P48" s="11">
+        <f>S43</f>
+        <v>9.7557333462582486E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O49" s="3">
+        <f>ABS(O48/O46)</f>
+        <v>0.32762775287299412</v>
+      </c>
+      <c r="P49" s="11">
+        <f>SQRT((P48/O46)^2+(O48*P46/O46^2)^2)</f>
+        <v>1.0191906891177411E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" s="3">
+        <f>1/(D41*O48)</f>
+        <v>1.9374151722772741E+18</v>
+      </c>
+      <c r="P50" s="11">
+        <f>P48/(D41*O48^2)</f>
+        <v>5866348047543495</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I12:J21 I2:J9 H10:I11" formulaRange="1"/>
+    <ignoredError sqref="I2:J9 H10:I10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,7 +3355,7 @@
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="12" bestFit="1" customWidth="1"/>
@@ -3021,7 +3365,7 @@
     <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3041,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -3066,17 +3410,17 @@
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3116,75 +3460,51 @@
         <v>40</v>
       </c>
       <c r="N4" s="3">
-        <f>ABS(C4-C5)/(2*$D$31)/1000</f>
+        <f>ABS(C4-C5)/(2*$D$41)/1000</f>
         <v>5.98996867293208</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:R4" si="0">ABS(D4-D5)/(2*$D$31)/1000</f>
+        <f>ABS(D4-D5)/(2*$D$41)/1000</f>
         <v>5.9911017796440706</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(E4-E5)/(2*$D$41)/1000</f>
         <v>5.9912350863160704</v>
       </c>
       <c r="Q4" s="3">
-        <f>ABS(F4-F5)/(2*$D$31)/1000</f>
+        <f>ABS(F4-F5)/(2*$D$41)/1000</f>
         <v>5.9911684329800714</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(G4-G5)/(2*$D$41)/1000</f>
         <v>5.9914017196560678</v>
       </c>
-      <c r="T4" s="3">
-        <f>N4/N5</f>
+      <c r="W4" s="23">
+        <f>N4</f>
+        <v>5.98996867293208</v>
+      </c>
+      <c r="X4" s="23">
+        <f>N5</f>
+        <v>5.965906818636272</v>
+      </c>
+      <c r="Y4" s="21">
+        <f>N9</f>
         <v>1.0040332266371716</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" ref="U4:W4" si="1">O4/O5</f>
-        <v>1.0040717158176944</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="1"/>
-        <v>1.004077232843507</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0040548465469574</v>
-      </c>
-      <c r="X4" s="3">
-        <f>R4/R5</f>
-        <v>1.0040827268817683</v>
-      </c>
-      <c r="Z4" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((N4+N5)/2)*$U$9</f>
-        <v>27.094166769316509</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AD4" si="2">(PI()*$D$27/(LN(2)))*((O4+O5)/2)*$U$9</f>
-        <v>27.098773747398415</v>
-      </c>
-      <c r="AB4" s="3">
-        <f t="shared" si="2"/>
-        <v>27.099302417014375</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="2"/>
-        <v>27.099302417014375</v>
-      </c>
-      <c r="AD4" s="3">
-        <f t="shared" si="2"/>
-        <v>27.099982135092027</v>
-      </c>
-      <c r="AF4" s="16">
-        <f>AVERAGE(Z4:AD4)</f>
-        <v>27.098305497167139</v>
-      </c>
-      <c r="AG4" s="15">
-        <f>_xlfn.STDEV.P(Z4:AD4)</f>
-        <v>2.1046206116766635E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Z4" s="23">
+        <f>N6</f>
+        <v>5.990035326268079</v>
+      </c>
+      <c r="AA4" s="23">
+        <f>N7</f>
+        <v>5.9664733719922678</v>
+      </c>
+      <c r="AB4" s="21">
+        <f>N10</f>
+        <v>1.003949058816958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -3205,94 +3525,70 @@
         <v>89.867999999999995</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H23" si="3">AVERAGE(C5:G5)</f>
+        <f t="shared" ref="H5:H11" si="0">AVERAGE(C5:G5)</f>
         <v>89.862399999999994</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I23" si="4">_xlfn.STDEV.P(C5:G5)</f>
+        <f t="shared" ref="I5:I11" si="1">_xlfn.STDEV.P(C5:G5)</f>
         <v>7.3102667529985847E-3</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:K23" si="5">H5/1000</f>
+        <f t="shared" ref="J5:K11" si="2">H5/1000</f>
         <v>8.9862399999999995E-2</v>
       </c>
       <c r="K5" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.3102667529985847E-6</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="N5" s="3">
-        <f>ABS(C6-C7)/(2*$D$31)/1000</f>
+        <f>ABS(C6-C7)/(2*$D$41)/1000</f>
         <v>5.965906818636272</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" ref="O5:R5" si="6">ABS(D6-D7)/(2*$D$31)/1000</f>
+        <f>ABS(D6-D7)/(2*$D$41)/1000</f>
         <v>5.9668066386722654</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="6"/>
+        <f>ABS(E6-E7)/(2*$D$41)/1000</f>
         <v>5.9669066186762647</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="6"/>
+        <f>ABS(F6-F7)/(2*$D$41)/1000</f>
         <v>5.9669732720122646</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="6"/>
+        <f>ABS(G6-G7)/(2*$D$41)/1000</f>
         <v>5.9670399253482644</v>
       </c>
-      <c r="T5" s="3">
-        <f>N6/N7</f>
-        <v>1.003949058816958</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" ref="U5:X5" si="7">O6/O7</f>
+      <c r="W5" s="23">
+        <f>O4</f>
+        <v>5.9911017796440706</v>
+      </c>
+      <c r="X5" s="23">
+        <f>O5</f>
+        <v>5.9668066386722654</v>
+      </c>
+      <c r="Y5" s="21">
+        <f>O9</f>
+        <v>1.0040717158176944</v>
+      </c>
+      <c r="Z5" s="23">
+        <f>O6</f>
+        <v>5.9907351862960727</v>
+      </c>
+      <c r="AA5" s="23">
+        <f>O7</f>
+        <v>5.9670065986802641</v>
+      </c>
+      <c r="AB5" s="21">
+        <f>O10</f>
         <v>1.0039766317035843</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" si="7"/>
-        <v>1.0039709578330076</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="7"/>
-        <v>1.003976476238879</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="7"/>
-        <v>1.0039764096148691</v>
-      </c>
-      <c r="Z5" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((N6+N7)/2)*$U$10</f>
-        <v>27.095601729702672</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" ref="AA5:AD5" si="8">(PI()*$D$27/(LN(2)))*((O6+O7)/2)*$U$10</f>
-        <v>27.098396126244158</v>
-      </c>
-      <c r="AB5" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((P6+P7)/2)*$U$10</f>
-        <v>27.098924795860118</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="8"/>
-        <v>27.099453465476067</v>
-      </c>
-      <c r="AD5" s="3">
-        <f t="shared" si="8"/>
-        <v>27.099906610861179</v>
-      </c>
-      <c r="AF5" s="16">
-        <f>AVERAGE(Z5:AD5)</f>
-        <v>27.098456545628842</v>
-      </c>
-      <c r="AG5" s="15">
-        <f>_xlfn.STDEV.P(Z5:AD5)</f>
-        <v>1.5145574345843921E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -3313,46 +3609,70 @@
         <v>-89.546000000000006</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-89.541399999999996</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.2801273872456842E-3</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-8.9541399999999993E-2</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.2801273872456842E-6</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="N6" s="3">
-        <f>ABS(C8-C9)/(2*$D$31)/1000</f>
+        <f>ABS(C8-C9)/(2*$D$41)/1000</f>
         <v>5.990035326268079</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:R6" si="9">ABS(D8-D9)/(2*$D$31)/1000</f>
+        <f>ABS(D8-D9)/(2*$D$41)/1000</f>
         <v>5.9907351862960727</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(E8-E9)/(2*$D$41)/1000</f>
         <v>5.9908351663000738</v>
       </c>
       <c r="Q6" s="3">
-        <f>ABS(F8-F9)/(2*$D$31)/1000</f>
+        <f>ABS(F8-F9)/(2*$D$41)/1000</f>
         <v>5.9909684729720709</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(G8-G9)/(2*$D$41)/1000</f>
         <v>5.9910684529760712</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W6" s="23">
+        <f>P4</f>
+        <v>5.9912350863160704</v>
+      </c>
+      <c r="X6" s="23">
+        <f>P5</f>
+        <v>5.9669066186762647</v>
+      </c>
+      <c r="Y6" s="21">
+        <f>P9</f>
+        <v>1.004077232843507</v>
+      </c>
+      <c r="Z6" s="23">
+        <f>P6</f>
+        <v>5.9908351663000738</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>P7</f>
+        <v>5.9671399053522629</v>
+      </c>
+      <c r="AB6" s="21">
+        <f>P10</f>
+        <v>1.0039709578330076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -3373,54 +3693,70 @@
         <v>89.501000000000005</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>89.496200000000002</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.2417946137332857E-3</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.9496199999999998E-2</v>
       </c>
       <c r="K7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.2417946137332857E-6</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N7" s="3">
-        <f>ABS(C10-C11)/(2*$D$31)/1000</f>
+        <f>ABS(C10-C11)/(2*$D$41)/1000</f>
         <v>5.9664733719922678</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7:R7" si="10">ABS(D10-D11)/(2*$D$31)/1000</f>
+        <f>ABS(D10-D11)/(2*$D$41)/1000</f>
         <v>5.9670065986802641</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="10"/>
+        <f>ABS(E10-E11)/(2*$D$41)/1000</f>
         <v>5.9671399053522629</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="10"/>
+        <f>ABS(F10-F11)/(2*$D$41)/1000</f>
         <v>5.9672398853562614</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="10"/>
+        <f>ABS(G10-G11)/(2*$D$41)/1000</f>
         <v>5.9673398653602607</v>
       </c>
-      <c r="AF7" s="19">
-        <f>(AF4+AF5)/2</f>
-        <v>27.098381021397991</v>
-      </c>
-      <c r="AG7" s="20">
-        <f>(AG4+AG5)/2</f>
-        <v>1.8095890231305278E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W7" s="23">
+        <f>Q4</f>
+        <v>5.9911684329800714</v>
+      </c>
+      <c r="X7" s="23">
+        <f>Q5</f>
+        <v>5.9669732720122646</v>
+      </c>
+      <c r="Y7" s="21">
+        <f>Q9</f>
+        <v>1.0040548465469574</v>
+      </c>
+      <c r="Z7" s="23">
+        <f>Q6</f>
+        <v>5.9909684729720709</v>
+      </c>
+      <c r="AA7" s="23">
+        <f>Q7</f>
+        <v>5.9672398853562614</v>
+      </c>
+      <c r="AB7" s="21">
+        <f>Q10</f>
+        <v>1.003976476238879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -3441,48 +3777,48 @@
         <v>-89.864000000000004</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-89.859200000000016</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.7758116312787615E-3</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-8.9859200000000014E-2</v>
       </c>
       <c r="K8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.7758116312787613E-6</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" s="10"/>
-      <c r="Y8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="W8" s="23">
+        <f>R4</f>
+        <v>5.9914017196560678</v>
+      </c>
+      <c r="X8" s="23">
+        <f>R5</f>
+        <v>5.9670399253482644</v>
+      </c>
+      <c r="Y8" s="21">
+        <f>R9</f>
+        <v>1.0040827268817683</v>
+      </c>
+      <c r="Z8" s="23">
+        <f>R6</f>
+        <v>5.9910684529760712</v>
+      </c>
+      <c r="AA8" s="23">
+        <f>R7</f>
+        <v>5.9673398653602607</v>
+      </c>
+      <c r="AB8" s="21">
+        <f>R10</f>
+        <v>1.0039764096148691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -3503,59 +3839,46 @@
         <v>89.903999999999996</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>89.898600000000002</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.2000000000013268E-3</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.9898599999999995E-2</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.2000000000013266E-6</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N9" s="3">
-        <f>ABS(J4-J5)/(2*$D$31)</f>
-        <v>5.9909751383056724</v>
-      </c>
-      <c r="O9" s="11">
-        <f>SQRT((K4/(2*$D$31))^2+(K5/(2*$D$31))^2+(($E$31*ABS(J4-J5))/(2*$D$31^2))^2)</f>
-        <v>2.0294759598209621E-3</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <f>N4/N5</f>
+        <v>1.0040332266371716</v>
+      </c>
+      <c r="O9" s="3">
+        <f>O4/O5</f>
+        <v>1.0040717158176944</v>
+      </c>
+      <c r="P9" s="3">
+        <f>P4/P5</f>
+        <v>1.004077232843507</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>Q4/Q5</f>
+        <v>1.0040548465469574</v>
       </c>
       <c r="R9" s="3">
-        <f>N9/N10</f>
-        <v>1.0040639508125668</v>
-      </c>
-      <c r="S9" s="11">
-        <f>SQRT((O9/N10)^2+(N9*O10/N10^2)^2)</f>
-        <v>4.7971547301332797E-4</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((N9+N10)/2)*U9</f>
-        <v>27.098305497167139</v>
-      </c>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+        <f>R4/R5</f>
+        <v>1.0040827268817683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -3576,59 +3899,46 @@
         <v>-89.504999999999995</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-89.500200000000007</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.4452221541761419E-3</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-8.9500200000000002E-2</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4.4452221541761421E-6</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N10" s="3">
-        <f>ABS(J6-J7)/(2*$D$31)</f>
-        <v>5.966726654669066</v>
-      </c>
-      <c r="O10" s="11">
-        <f>SQRT((K6/(2*$D$31))^2+(K7/(2*$D$31))^2+(($E$31*ABS(J6-J7))/(2*$D$31^2))^2)</f>
-        <v>2.0102867956224416E-3</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <f>N6/N7</f>
+        <v>1.003949058816958</v>
+      </c>
+      <c r="O10" s="3">
+        <f>O6/O7</f>
+        <v>1.0039766317035843</v>
+      </c>
+      <c r="P10" s="3">
+        <f>P6/P7</f>
+        <v>1.0039709578330076</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>Q6/Q7</f>
+        <v>1.003976476238879</v>
       </c>
       <c r="R10" s="3">
-        <f>N11/N12</f>
-        <v>1.0039699073427648</v>
-      </c>
-      <c r="S10" s="11">
-        <f>SQRT((O11/N12)^2+(N11*O12/N12^2)^2)</f>
-        <v>4.7655292852805467E-4</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" s="3">
-        <f>(PI()*$D$27/(LN(2)))*((N11+N12)/2)*U10</f>
-        <v>27.098456545628842</v>
-      </c>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <f>R6/R7</f>
+        <v>1.0039764096148691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -3649,915 +3959,1290 @@
         <v>89.551000000000002</v>
       </c>
       <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>89.546800000000005</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7074409183775149E-3</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>8.954680000000001E-2</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="2"/>
+        <v>4.7074409183775146E-6</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="W11" s="21">
+        <f>N12</f>
+        <v>27.094166769316509</v>
+      </c>
+      <c r="X11" s="21">
+        <f>N13</f>
+        <v>27.095601729702672</v>
+      </c>
+      <c r="Y11" s="21">
+        <f>AVERAGE(W11:X11)</f>
+        <v>27.09488424950959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M12" s="7"/>
+      <c r="N12" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((N4+N5)/2)</f>
+        <v>27.094166769316509</v>
+      </c>
+      <c r="O12" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((O4+O5)/2)</f>
+        <v>27.098773747398415</v>
+      </c>
+      <c r="P12" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((P4+P5)/2)</f>
+        <v>27.099302417014375</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((Q4+Q5)/2)</f>
+        <v>27.099302417014375</v>
+      </c>
+      <c r="R12" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((R4+R5)/2)</f>
+        <v>27.099982135092027</v>
+      </c>
+      <c r="T12" s="16">
+        <f>AVERAGE(N12:R12)</f>
+        <v>27.098305497167139</v>
+      </c>
+      <c r="U12" s="15">
+        <f>_xlfn.STDEV.P(N12:R12)</f>
+        <v>2.1046206116766635E-3</v>
+      </c>
+      <c r="W12" s="21">
+        <f>O12</f>
+        <v>27.098773747398415</v>
+      </c>
+      <c r="X12" s="21">
+        <f>O13</f>
+        <v>27.098396126244158</v>
+      </c>
+      <c r="Y12" s="21">
+        <f t="shared" ref="Y12:Y15" si="3">AVERAGE(W12:X12)</f>
+        <v>27.098584936821286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((N6+N7)/2)</f>
+        <v>27.095601729702672</v>
+      </c>
+      <c r="O13" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((O6+O7)/2)</f>
+        <v>27.098396126244158</v>
+      </c>
+      <c r="P13" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((P6+P7)/2)</f>
+        <v>27.098924795860118</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((Q6+Q7)/2)</f>
+        <v>27.099453465476067</v>
+      </c>
+      <c r="R13" s="3">
+        <f>(PI()*$D$37/(LN(2)))*((R6+R7)/2)</f>
+        <v>27.099906610861179</v>
+      </c>
+      <c r="T13" s="16">
+        <f>AVERAGE(N13:R13)</f>
+        <v>27.098456545628842</v>
+      </c>
+      <c r="U13" s="15">
+        <f>_xlfn.STDEV.P(N13:R13)</f>
+        <v>1.5145574345843921E-3</v>
+      </c>
+      <c r="W13" s="21">
+        <f>P12</f>
+        <v>27.099302417014375</v>
+      </c>
+      <c r="X13" s="21">
+        <f>P13</f>
+        <v>27.098924795860118</v>
+      </c>
+      <c r="Y13" s="21">
         <f t="shared" si="3"/>
-        <v>89.546800000000005</v>
-      </c>
-      <c r="I11" s="11">
+        <v>27.099113606437246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W14" s="21">
+        <f>Q12</f>
+        <v>27.099302417014375</v>
+      </c>
+      <c r="X14" s="21">
+        <f>Q13</f>
+        <v>27.099453465476067</v>
+      </c>
+      <c r="Y14" s="21">
+        <f t="shared" si="3"/>
+        <v>27.099377941245223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T15" s="19">
+        <f>(T12+T13)/2</f>
+        <v>27.098381021397991</v>
+      </c>
+      <c r="U15" s="20">
+        <f>(U12+U13)/2</f>
+        <v>1.8095890231305278E-3</v>
+      </c>
+      <c r="W15" s="21">
+        <f>R12</f>
+        <v>27.099982135092027</v>
+      </c>
+      <c r="X15" s="21">
+        <f>R13</f>
+        <v>27.099906610861179</v>
+      </c>
+      <c r="Y15" s="21">
+        <f t="shared" si="3"/>
+        <v>27.099944372976601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="N23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12">
+        <v>26.524000000000001</v>
+      </c>
+      <c r="D24" s="12">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="E24" s="12">
+        <v>26.515999999999998</v>
+      </c>
+      <c r="F24" s="12">
+        <v>26.513000000000002</v>
+      </c>
+      <c r="G24" s="12">
+        <v>26.498999999999999</v>
+      </c>
+      <c r="H24" s="3">
+        <f>AVERAGE(C24:G24)</f>
+        <v>26.513600000000004</v>
+      </c>
+      <c r="I24" s="11">
+        <f>_xlfn.STDEV.P(C24:G24)</f>
+        <v>8.1633326527838588E-3</v>
+      </c>
+      <c r="J24" s="3">
+        <f>H24/1000</f>
+        <v>2.6513600000000005E-2</v>
+      </c>
+      <c r="K24" s="11">
+        <f>I24/1000</f>
+        <v>8.1633326527838584E-6</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="3">
+        <f>(C24-C32)</f>
+        <v>26.853999999999999</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" ref="O24:R24" si="4">(D24-D32)</f>
+        <v>26.845999999999997</v>
+      </c>
+      <c r="P24" s="3">
         <f t="shared" si="4"/>
-        <v>4.7074409183775149E-3</v>
-      </c>
-      <c r="J11" s="3">
+        <v>26.846999999999998</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="4"/>
+        <v>26.842000000000002</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="4"/>
+        <v>26.83</v>
+      </c>
+      <c r="W24" s="21">
+        <f>N24</f>
+        <v>26.853999999999999</v>
+      </c>
+      <c r="X24" s="21">
+        <f>N25</f>
+        <v>-26.855999999999998</v>
+      </c>
+      <c r="Y24" s="21">
+        <f>N26</f>
+        <v>-26.866000000000003</v>
+      </c>
+      <c r="Z24" s="21">
+        <f>N27</f>
+        <v>26.866000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-26.462</v>
+      </c>
+      <c r="D25" s="12">
+        <v>-26.454000000000001</v>
+      </c>
+      <c r="E25" s="12">
+        <v>-26.454000000000001</v>
+      </c>
+      <c r="F25" s="12">
+        <v>-26.451000000000001</v>
+      </c>
+      <c r="G25" s="12">
+        <v>-26.437000000000001</v>
+      </c>
+      <c r="H25" s="3">
+        <f>AVERAGE(C25:G25)</f>
+        <v>-26.451600000000003</v>
+      </c>
+      <c r="I25" s="11">
+        <f>_xlfn.STDEV.P(C25:G25)</f>
+        <v>8.1633326527830053E-3</v>
+      </c>
+      <c r="J25" s="3">
+        <f>H25/1000</f>
+        <v>-2.6451600000000002E-2</v>
+      </c>
+      <c r="K25" s="11">
+        <f>I25/1000</f>
+        <v>8.1633326527830046E-6</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="3">
+        <f>(C25-C33)</f>
+        <v>-26.855999999999998</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" ref="O25:R25" si="5">(D25-D33)</f>
+        <v>-26.847000000000001</v>
+      </c>
+      <c r="P25" s="3">
         <f t="shared" si="5"/>
-        <v>8.954680000000001E-2</v>
-      </c>
-      <c r="K11" s="11">
+        <v>-26.847000000000001</v>
+      </c>
+      <c r="Q25" s="3">
         <f t="shared" si="5"/>
-        <v>4.7074409183775146E-6</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="3">
-        <f>ABS(J8-J9)/(2*$D$31)</f>
-        <v>5.9907285209624748</v>
-      </c>
-      <c r="O11" s="11">
-        <f>SQRT((K8/(2*$D$31))^2+(K9/(2*$D$31))^2+(($E$31*ABS(J8-J9))/(2*$D$31^2))^2)</f>
-        <v>2.013240490645221E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="M12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="3">
-        <f>ABS(J10-J11)/(2*$D$31)</f>
-        <v>5.9670399253482636</v>
-      </c>
-      <c r="O12" s="11">
-        <f>SQRT((K10/(2*$D$31))^2+(K11/(2*$D$31))^2+(($E$31*ABS(J10-J11))/(2*$D$31^2))^2)</f>
-        <v>2.0002877539197325E-3</v>
-      </c>
-      <c r="Y12" s="3">
-        <f>(Y9+Y10)/2</f>
-        <v>27.098381021397991</v>
-      </c>
-      <c r="Z12" s="11">
-        <f>(Z9+Z10)/2</f>
+        <v>-26.844999999999999</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="5"/>
+        <v>-26.830000000000002</v>
+      </c>
+      <c r="W25" s="21">
+        <f>O24</f>
+        <v>26.845999999999997</v>
+      </c>
+      <c r="X25" s="21">
+        <f>O25</f>
+        <v>-26.847000000000001</v>
+      </c>
+      <c r="Y25" s="21">
+        <f>O26</f>
+        <v>-26.869000000000003</v>
+      </c>
+      <c r="Z25" s="21">
+        <f>O27</f>
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12">
+        <v>27.192</v>
+      </c>
+      <c r="D26" s="12">
+        <v>27.184000000000001</v>
+      </c>
+      <c r="E26" s="12">
+        <v>27.184000000000001</v>
+      </c>
+      <c r="F26" s="12">
+        <v>27.181999999999999</v>
+      </c>
+      <c r="G26" s="12">
+        <v>27.169</v>
+      </c>
+      <c r="H26" s="3">
+        <f>AVERAGE(C26:G26)</f>
+        <v>27.182200000000002</v>
+      </c>
+      <c r="I26" s="11">
+        <f>_xlfn.STDEV.P(C26:G26)</f>
+        <v>7.4404300950952924E-3</v>
+      </c>
+      <c r="J26" s="3">
+        <f>H26/1000</f>
+        <v>2.71822E-2</v>
+      </c>
+      <c r="K26" s="11">
+        <f>I26/1000</f>
+        <v>7.4404300950952924E-6</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="3">
+        <f>(C28-C32)</f>
+        <v>-26.866000000000003</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" ref="O26:R26" si="6">(D28-D32)</f>
+        <v>-26.869000000000003</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="6"/>
+        <v>-26.862000000000002</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="6"/>
+        <v>-26.858000000000001</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="6"/>
+        <v>-26.849</v>
+      </c>
+      <c r="W26" s="21">
+        <f>P24</f>
+        <v>26.846999999999998</v>
+      </c>
+      <c r="X26" s="21">
+        <f>P25</f>
+        <v>-26.847000000000001</v>
+      </c>
+      <c r="Y26" s="21">
+        <f>P26</f>
+        <v>-26.862000000000002</v>
+      </c>
+      <c r="Z26" s="21">
+        <f>P27</f>
+        <v>26.864000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12">
+        <v>-27.202999999999999</v>
+      </c>
+      <c r="D27" s="12">
+        <v>-27.193999999999999</v>
+      </c>
+      <c r="E27" s="12">
+        <v>-27.193999999999999</v>
+      </c>
+      <c r="F27" s="12">
+        <v>-27.192</v>
+      </c>
+      <c r="G27" s="12">
+        <v>-27.178000000000001</v>
+      </c>
+      <c r="H27" s="3">
+        <f>AVERAGE(C27:G27)</f>
+        <v>-27.192199999999996</v>
+      </c>
+      <c r="I27" s="11">
+        <f>_xlfn.STDEV.P(C27:G27)</f>
+        <v>8.0597766718434188E-3</v>
+      </c>
+      <c r="J27" s="3">
+        <f>H27/1000</f>
+        <v>-2.7192199999999996E-2</v>
+      </c>
+      <c r="K27" s="11">
+        <f>I27/1000</f>
+        <v>8.0597766718434196E-6</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="3">
+        <f>(C29-C33)</f>
+        <v>26.866000000000003</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" ref="O27:R27" si="7">(D29-D33)</f>
+        <v>26.87</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="7"/>
+        <v>26.864000000000001</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="7"/>
+        <v>26.856000000000002</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="7"/>
+        <v>26.849999999999998</v>
+      </c>
+      <c r="W27" s="21">
+        <f>Q24</f>
+        <v>26.842000000000002</v>
+      </c>
+      <c r="X27" s="21">
+        <f>Q25</f>
+        <v>-26.844999999999999</v>
+      </c>
+      <c r="Y27" s="21">
+        <f>Q26</f>
+        <v>-26.858000000000001</v>
+      </c>
+      <c r="Z27" s="21">
+        <f>Q27</f>
+        <v>26.856000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12">
+        <v>-27.196000000000002</v>
+      </c>
+      <c r="D28" s="12">
+        <v>-27.199000000000002</v>
+      </c>
+      <c r="E28" s="12">
+        <v>-27.193000000000001</v>
+      </c>
+      <c r="F28" s="12">
+        <v>-27.187000000000001</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-27.18</v>
+      </c>
+      <c r="H28" s="3">
+        <f>AVERAGE(C28:G28)</f>
+        <v>-27.191000000000003</v>
+      </c>
+      <c r="I28" s="11">
+        <f>_xlfn.STDEV.P(C28:G28)</f>
+        <v>6.7823299831259089E-3</v>
+      </c>
+      <c r="J28" s="3">
+        <f>H28/1000</f>
+        <v>-2.7191000000000003E-2</v>
+      </c>
+      <c r="K28" s="11">
+        <f>I28/1000</f>
+        <v>6.7823299831259092E-6</v>
+      </c>
+      <c r="W28" s="21">
+        <f>R24</f>
+        <v>26.83</v>
+      </c>
+      <c r="X28" s="21">
+        <f>R25</f>
+        <v>-26.830000000000002</v>
+      </c>
+      <c r="Y28" s="21">
+        <f>R26</f>
+        <v>-26.849</v>
+      </c>
+      <c r="Z28" s="21">
+        <f>R27</f>
+        <v>26.849999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="12">
+        <v>27.26</v>
+      </c>
+      <c r="D29" s="12">
+        <v>27.263000000000002</v>
+      </c>
+      <c r="E29" s="12">
+        <v>27.257000000000001</v>
+      </c>
+      <c r="F29" s="12">
+        <v>27.25</v>
+      </c>
+      <c r="G29" s="12">
+        <v>27.242999999999999</v>
+      </c>
+      <c r="H29" s="3">
+        <f>AVERAGE(C29:G29)</f>
+        <v>27.2546</v>
+      </c>
+      <c r="I29" s="11">
+        <f>_xlfn.STDEV.P(C29:G29)</f>
+        <v>7.2277243998382455E-3</v>
+      </c>
+      <c r="J29" s="3">
+        <f>H29/1000</f>
+        <v>2.72546E-2</v>
+      </c>
+      <c r="K29" s="11">
+        <f>I29/1000</f>
+        <v>7.2277243998382454E-6</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="3">
+        <f>(N24-N25)/2</f>
+        <v>26.854999999999997</v>
+      </c>
+      <c r="O29" s="3">
+        <f>(O24-O25)/2</f>
+        <v>26.846499999999999</v>
+      </c>
+      <c r="P29" s="3">
+        <f>(P24-P25)/2</f>
+        <v>26.847000000000001</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>(Q24-Q25)/2</f>
+        <v>26.843499999999999</v>
+      </c>
+      <c r="R29" s="3">
+        <f>(R24-R25)/2</f>
+        <v>26.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-26.501000000000001</v>
+      </c>
+      <c r="D30" s="12">
+        <v>-26.504000000000001</v>
+      </c>
+      <c r="E30" s="12">
+        <v>-26.495999999999999</v>
+      </c>
+      <c r="F30" s="12">
+        <v>-26.49</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-26.484000000000002</v>
+      </c>
+      <c r="H30" s="3">
+        <f>AVERAGE(C30:G30)</f>
+        <v>-26.494999999999997</v>
+      </c>
+      <c r="I30" s="11">
+        <f>_xlfn.STDEV.P(C30:G30)</f>
+        <v>7.2663608498341583E-3</v>
+      </c>
+      <c r="J30" s="3">
+        <f>H30/1000</f>
+        <v>-2.6494999999999998E-2</v>
+      </c>
+      <c r="K30" s="11">
+        <f>I30/1000</f>
+        <v>7.2663608498341582E-6</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="3">
+        <f>-(N26-N27)/2</f>
+        <v>26.866000000000003</v>
+      </c>
+      <c r="O30" s="3">
+        <f>-(O26-O27)/2</f>
+        <v>26.869500000000002</v>
+      </c>
+      <c r="P30" s="3">
+        <f>-(P26-P27)/2</f>
+        <v>26.863</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>-(Q26-Q27)/2</f>
+        <v>26.856999999999999</v>
+      </c>
+      <c r="R30" s="3">
+        <f>-(R26-R27)/2</f>
+        <v>26.849499999999999</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="12">
+        <v>26.495000000000001</v>
+      </c>
+      <c r="D31" s="12">
+        <v>26.498999999999999</v>
+      </c>
+      <c r="E31" s="12">
+        <v>26.492000000000001</v>
+      </c>
+      <c r="F31" s="12">
+        <v>26.486000000000001</v>
+      </c>
+      <c r="G31" s="12">
+        <v>26.478999999999999</v>
+      </c>
+      <c r="H31" s="3">
+        <f>AVERAGE(C31:G31)</f>
+        <v>26.490200000000005</v>
+      </c>
+      <c r="I31" s="11">
+        <f>_xlfn.STDEV.P(C31:G31)</f>
+        <v>7.0256672281001683E-3</v>
+      </c>
+      <c r="J31" s="3">
+        <f>H31/1000</f>
+        <v>2.6490200000000005E-2</v>
+      </c>
+      <c r="K31" s="11">
+        <f>I31/1000</f>
+        <v>7.025667228100168E-6</v>
+      </c>
+      <c r="W31" s="21">
+        <f>N29</f>
+        <v>26.854999999999997</v>
+      </c>
+      <c r="X31" s="21">
+        <f>N30</f>
+        <v>26.866000000000003</v>
+      </c>
+      <c r="Y31" s="21">
+        <f>N32</f>
+        <v>12.970835784533911</v>
+      </c>
+      <c r="Z31" s="21">
+        <f>N33</f>
+        <v>12.976148731606333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C32" s="12">
+        <v>-0.33</v>
+      </c>
+      <c r="D32" s="12">
+        <v>-0.33</v>
+      </c>
+      <c r="E32" s="12">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="F32" s="12">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="H32" s="3">
+        <f>AVERAGE(C32:G32)</f>
+        <v>-0.33019999999999999</v>
+      </c>
+      <c r="I32" s="11">
+        <f>_xlfn.STDEV.P(C32:G32)</f>
+        <v>7.4833147735478892E-4</v>
+      </c>
+      <c r="J32" s="3">
+        <f>H32/1000</f>
+        <v>-3.302E-4</v>
+      </c>
+      <c r="K32" s="11">
+        <f>I32/1000</f>
+        <v>7.483314773547889E-7</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="3">
+        <f>N29/($D$35*$D$41)/1000</f>
+        <v>12.970835784533911</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" ref="O32:R32" si="8">O29/($D$35*$D$41)/1000</f>
+        <v>12.966730325432493</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="8"/>
+        <v>12.966971823026697</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="8"/>
+        <v>12.965281339867289</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="8"/>
+        <v>12.958760904823864</v>
+      </c>
+      <c r="T32" s="16">
+        <f>AVERAGE(N32:R32)</f>
+        <v>12.965716035536852</v>
+      </c>
+      <c r="U32" s="15">
+        <f>_xlfn.STDEV.P(N32:R32)</f>
+        <v>3.9339654183743397E-3</v>
+      </c>
+      <c r="W32" s="21">
+        <f>O29</f>
+        <v>26.846499999999999</v>
+      </c>
+      <c r="X32" s="21">
+        <f>O30</f>
+        <v>26.869500000000002</v>
+      </c>
+      <c r="Y32" s="21">
+        <f>O32</f>
+        <v>12.966730325432493</v>
+      </c>
+      <c r="Z32" s="21">
+        <f>O33</f>
+        <v>12.977839214765741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="N13" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H33" s="3">
+        <f>AVERAGE(C33:G33)</f>
+        <v>0.39340000000000008</v>
+      </c>
+      <c r="I33" s="11">
+        <f>_xlfn.STDEV.P(C33:G33)</f>
+        <v>4.89897948556636E-4</v>
+      </c>
+      <c r="J33" s="3">
+        <f>H33/1000</f>
+        <v>3.9340000000000008E-4</v>
+      </c>
+      <c r="K33" s="11">
+        <f>I33/1000</f>
+        <v>4.8989794855663599E-7</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="3">
+        <f>N30/($D$35*$D$41)/1000</f>
+        <v>12.976148731606333</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" ref="O33:R33" si="9">O30/($D$35*$D$41)/1000</f>
+        <v>12.977839214765741</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="9"/>
+        <v>12.974699746041127</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="9"/>
+        <v>12.971801774910714</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="9"/>
+        <v>12.968179310997701</v>
+      </c>
+      <c r="T33" s="16">
+        <f>AVERAGE(N33:R33)</f>
+        <v>12.973733755664323</v>
+      </c>
+      <c r="U33" s="15">
+        <f>_xlfn.STDEV.P(N33:R33)</f>
+        <v>3.4118747289093821E-3</v>
+      </c>
+      <c r="W33" s="21">
+        <f>P29</f>
+        <v>26.847000000000001</v>
+      </c>
+      <c r="X33" s="21">
+        <f>P30</f>
+        <v>26.863</v>
+      </c>
+      <c r="Y33" s="21">
+        <f>P32</f>
+        <v>12.966971823026697</v>
+      </c>
+      <c r="Z33" s="21">
+        <f>P33</f>
+        <v>12.974699746041127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="W34" s="21">
+        <f>Q29</f>
+        <v>26.843499999999999</v>
+      </c>
+      <c r="X34" s="21">
+        <f>Q30</f>
+        <v>26.856999999999999</v>
+      </c>
+      <c r="Y34" s="21">
+        <f>Q32</f>
+        <v>12.965281339867289</v>
+      </c>
+      <c r="Z34" s="21">
+        <f>Q33</f>
+        <v>12.971801774910714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E35">
+        <v>1E-3</v>
+      </c>
+      <c r="T35" s="19">
+        <f>(T32+T33)/2</f>
+        <v>12.969724895600589</v>
+      </c>
+      <c r="U35" s="20">
+        <f>(U32+U33)/2</f>
+        <v>3.6729200736418609E-3</v>
+      </c>
+      <c r="W35" s="21">
+        <f>R29</f>
+        <v>26.83</v>
+      </c>
+      <c r="X35" s="21">
+        <f>R30</f>
+        <v>26.849499999999999</v>
+      </c>
+      <c r="Y35" s="21">
+        <f>R32</f>
+        <v>12.958760904823864</v>
+      </c>
+      <c r="Z35" s="21">
+        <f>R33</f>
+        <v>12.968179310997701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="12">
-        <v>26.524000000000001</v>
-      </c>
-      <c r="D14" s="12">
-        <v>26.515999999999998</v>
-      </c>
-      <c r="E14" s="12">
-        <v>26.515999999999998</v>
-      </c>
-      <c r="F14" s="12">
-        <v>26.513000000000002</v>
-      </c>
-      <c r="G14" s="12">
-        <v>26.498999999999999</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="3"/>
-        <v>26.513600000000004</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" si="4"/>
-        <v>8.1633326527838588E-3</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6513600000000005E-2</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="5"/>
-        <v>8.1633326527838584E-6</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="3">
-        <f>(C14-C22)/1000</f>
-        <v>2.6853999999999999E-2</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" ref="O14:R15" si="11">(D14-D22)/1000</f>
-        <v>2.6845999999999995E-2</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="11"/>
-        <v>2.6846999999999999E-2</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="11"/>
-        <v>2.6842000000000001E-2</v>
-      </c>
-      <c r="R14" s="3">
-        <f>(G14-G22)/1000</f>
-        <v>2.683E-2</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" s="3">
-        <f>(N14-N15)/2</f>
-        <v>2.6854999999999997E-2</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" ref="V14:Y14" si="12">(O14-O15)/2</f>
-        <v>2.6846499999999999E-2</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="12"/>
-        <v>2.6847000000000003E-2</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="12"/>
-        <v>2.6843499999999999E-2</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="12"/>
-        <v>2.683E-2</v>
-      </c>
-      <c r="AA14" s="7" t="s">
+      <c r="W40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AB14" s="3">
-        <f>U14/($D$25*$D$31)</f>
-        <v>12.970835784533911</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" ref="AC14:AF15" si="13">V14/($D$25*$D$31)</f>
-        <v>12.966730325432495</v>
-      </c>
-      <c r="AD14" s="3">
-        <f t="shared" si="13"/>
-        <v>12.966971823026698</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="13"/>
-        <v>12.965281339867289</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="13"/>
-        <v>12.958760904823864</v>
-      </c>
-      <c r="AH14" s="16">
-        <f>AVERAGE(AB14:AF14)</f>
-        <v>12.965716035536852</v>
-      </c>
-      <c r="AI14" s="15">
-        <f>_xlfn.STDEV.P(AB14:AF14)</f>
-        <v>3.9339654183745444E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="12">
-        <v>-26.462</v>
-      </c>
-      <c r="D15" s="12">
-        <v>-26.454000000000001</v>
-      </c>
-      <c r="E15" s="12">
-        <v>-26.454000000000001</v>
-      </c>
-      <c r="F15" s="12">
-        <v>-26.451000000000001</v>
-      </c>
-      <c r="G15" s="12">
-        <v>-26.437000000000001</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="3"/>
-        <v>-26.451600000000003</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" si="4"/>
-        <v>8.1633326527830053E-3</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.6451600000000002E-2</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" si="5"/>
-        <v>8.1633326527830046E-6</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="3">
-        <f>(C15-C23)/1000</f>
-        <v>-2.6855999999999998E-2</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="11"/>
-        <v>-2.6847000000000003E-2</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="11"/>
-        <v>-2.6847000000000003E-2</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="11"/>
-        <v>-2.6844999999999997E-2</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="11"/>
-        <v>-2.6830000000000003E-2</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="3">
-        <f>-(N16-N17)/2</f>
-        <v>2.6866000000000004E-2</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" ref="V15:Y15" si="14">-(O16-O17)/2</f>
-        <v>2.6869500000000004E-2</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="14"/>
-        <v>2.6863000000000001E-2</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="14"/>
-        <v>2.6856999999999999E-2</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="14"/>
-        <v>2.6849499999999998E-2</v>
-      </c>
-      <c r="AA15" s="7" t="s">
+      <c r="X40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AB15" s="3">
-        <f>U15/($D$25*$D$31)</f>
-        <v>12.976148731606335</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="13"/>
-        <v>12.977839214765742</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="13"/>
-        <v>12.974699746041129</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="13"/>
-        <v>12.971801774910714</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="13"/>
-        <v>12.9681793109977</v>
-      </c>
-      <c r="AH15" s="16">
-        <f>AVERAGE(AB15:AF15)</f>
-        <v>12.973733755664323</v>
-      </c>
-      <c r="AI15" s="15">
-        <f>_xlfn.STDEV.P(AB15:AF15)</f>
-        <v>3.41187472891074E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12">
-        <v>27.192</v>
-      </c>
-      <c r="D16" s="12">
-        <v>27.184000000000001</v>
-      </c>
-      <c r="E16" s="12">
-        <v>27.184000000000001</v>
-      </c>
-      <c r="F16" s="12">
-        <v>27.181999999999999</v>
-      </c>
-      <c r="G16" s="12">
-        <v>27.169</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>27.182200000000002</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" si="4"/>
-        <v>7.4404300950952924E-3</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="5"/>
-        <v>2.71822E-2</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="5"/>
-        <v>7.4404300950952924E-6</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="3">
-        <f>(C18-C22)/1000</f>
-        <v>-2.6866000000000004E-2</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" ref="O16:R17" si="15">(D18-D22)/1000</f>
-        <v>-2.6869000000000004E-2</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="15"/>
-        <v>-2.6862E-2</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="15"/>
-        <v>-2.6858E-2</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="15"/>
-        <v>-2.6849000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="12">
-        <v>-27.202999999999999</v>
-      </c>
-      <c r="D17" s="12">
-        <v>-27.193999999999999</v>
-      </c>
-      <c r="E17" s="12">
-        <v>-27.193999999999999</v>
-      </c>
-      <c r="F17" s="12">
-        <v>-27.192</v>
-      </c>
-      <c r="G17" s="12">
-        <v>-27.178000000000001</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>-27.192199999999996</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="4"/>
-        <v>8.0597766718434188E-3</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.7192199999999996E-2</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="5"/>
-        <v>8.0597766718434196E-6</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="3">
-        <f>(C19-C23)/1000</f>
-        <v>2.6866000000000004E-2</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="15"/>
-        <v>2.6870000000000002E-2</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="15"/>
-        <v>2.6864000000000002E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="15"/>
-        <v>2.6856000000000001E-2</v>
-      </c>
-      <c r="R17" s="3">
-        <f>(G19-G23)/1000</f>
-        <v>2.6849999999999999E-2</v>
-      </c>
-      <c r="AH17" s="19">
-        <f>(AH14+AH15)/2</f>
-        <v>12.969724895600589</v>
-      </c>
-      <c r="AI17" s="20">
-        <f>(AI14+AI15)/2</f>
-        <v>3.672920073642642E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>5</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="12">
-        <v>-27.196000000000002</v>
-      </c>
-      <c r="D18" s="12">
-        <v>-27.199000000000002</v>
-      </c>
-      <c r="E18" s="12">
-        <v>-27.193000000000001</v>
-      </c>
-      <c r="F18" s="12">
-        <v>-27.187000000000001</v>
-      </c>
-      <c r="G18" s="12">
-        <v>-27.18</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>-27.191000000000003</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="4"/>
-        <v>6.7823299831259089E-3</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.7191000000000003E-2</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="5"/>
-        <v>6.7823299831259092E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="12">
-        <v>27.26</v>
-      </c>
-      <c r="D19" s="12">
-        <v>27.263000000000002</v>
-      </c>
-      <c r="E19" s="12">
-        <v>27.257000000000001</v>
-      </c>
-      <c r="F19" s="12">
-        <v>27.25</v>
-      </c>
-      <c r="G19" s="12">
-        <v>27.242999999999999</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>27.2546</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="4"/>
-        <v>7.2277243998382455E-3</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="5"/>
-        <v>2.72546E-2</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="5"/>
-        <v>7.2277243998382454E-6</v>
-      </c>
-      <c r="O19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>7</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="12">
-        <v>-26.501000000000001</v>
-      </c>
-      <c r="D20" s="12">
-        <v>-26.504000000000001</v>
-      </c>
-      <c r="E20" s="12">
-        <v>-26.495999999999999</v>
-      </c>
-      <c r="F20" s="12">
-        <v>-26.49</v>
-      </c>
-      <c r="G20" s="12">
-        <v>-26.484000000000002</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>-26.494999999999997</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="4"/>
-        <v>7.2663608498341583E-3</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="5"/>
-        <v>-2.6494999999999998E-2</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="5"/>
-        <v>7.2663608498341582E-6</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20" s="3">
-        <f>((C14-C15)-(C18-C19))/(4*1000*$D$25*$D$31)</f>
+      <c r="Y40" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1.5003000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="3">
+        <f>((C24-C25)-(C28-C29))/(4*1000*$D$35*$D$41)</f>
         <v>12.973492258070126</v>
       </c>
-      <c r="O20" s="3">
-        <f t="shared" ref="O20:R20" si="16">((D14-D15)-(D18-D19))/(4*1000*$D$25*$D$31)</f>
+      <c r="O41" s="3">
+        <f>((D24-D25)-(D28-D29))/(4*1000*$D$35*$D$41)</f>
         <v>12.972284770099121</v>
       </c>
-      <c r="P20" s="3">
-        <f t="shared" si="16"/>
+      <c r="P41" s="3">
+        <f>((E24-E25)-(E28-E29))/(4*1000*$D$35*$D$41)</f>
         <v>12.970835784533914</v>
       </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="16"/>
+      <c r="Q41" s="3">
+        <f>((F24-F25)-(F28-F29))/(4*1000*$D$35*$D$41)</f>
         <v>12.968541557389004</v>
       </c>
-      <c r="R20" s="3">
-        <f t="shared" si="16"/>
+      <c r="R41" s="3">
+        <f>((G24-G25)-(G28-G29))/(4*1000*$D$35*$D$41)</f>
         <v>12.963470107910787</v>
       </c>
-      <c r="T20" s="16">
-        <f>AVERAGE(N20:R20)</f>
+      <c r="T41" s="16">
+        <f>AVERAGE(N41:R41)</f>
         <v>12.969724895600592</v>
       </c>
-      <c r="U20" s="15">
-        <f>_xlfn.STDEV.P(N20:R20)</f>
+      <c r="U41" s="15">
+        <f>_xlfn.STDEV.P(N41:R41)</f>
         <v>3.5356105558950997E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="12">
-        <v>26.495000000000001</v>
-      </c>
-      <c r="D21" s="12">
-        <v>26.498999999999999</v>
-      </c>
-      <c r="E21" s="12">
-        <v>26.492000000000001</v>
-      </c>
-      <c r="F21" s="12">
-        <v>26.486000000000001</v>
-      </c>
-      <c r="G21" s="12">
-        <v>26.478999999999999</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="3"/>
-        <v>26.490200000000005</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" si="4"/>
-        <v>7.0256672281001683E-3</v>
-      </c>
-      <c r="J21" s="3">
-        <f t="shared" si="5"/>
-        <v>2.6490200000000005E-2</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="5"/>
-        <v>7.025667228100168E-6</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="3">
-        <f>((C16-C17)-(C20-C21))/(4*1000*$D$25*$D$31)</f>
+      <c r="W41" s="21">
+        <f>N41</f>
+        <v>12.973492258070126</v>
+      </c>
+      <c r="X41" s="21">
+        <f>N42</f>
         <v>12.967334069417999</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" ref="O21:R21" si="17">((D16-D17)-(D20-D21))/(4*1000*$D$25*$D$31)</f>
+      <c r="Y41" s="21">
+        <f>AVERAGE(W41:X41)</f>
+        <v>12.970413163744063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N42" s="3">
+        <f>((C26-C27)-(C30-C31))/(4*1000*$D$35*$D$41)</f>
+        <v>12.967334069417999</v>
+      </c>
+      <c r="O42" s="3">
+        <f>((D26-D27)-(D30-D31))/(4*1000*$D$35*$D$41)</f>
         <v>12.966126581446996</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="17"/>
+      <c r="P42" s="3">
+        <f>((E26-E27)-(E30-E31))/(4*1000*$D$35*$D$41)</f>
         <v>12.964315349490489</v>
       </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="17"/>
+      <c r="Q42" s="3">
+        <f>((F26-F27)-(F30-F31))/(4*1000*$D$35*$D$41)</f>
         <v>12.96238336873688</v>
       </c>
-      <c r="R21" s="3">
-        <f t="shared" si="17"/>
+      <c r="R42" s="3">
+        <f>((G26-G27)-(G30-G31))/(4*1000*$D$35*$D$41)</f>
         <v>12.957553416852862</v>
       </c>
-      <c r="T21" s="16">
-        <f>AVERAGE(N21:R21)</f>
+      <c r="T42" s="16">
+        <f>AVERAGE(N42:R42)</f>
         <v>12.963542557189047</v>
       </c>
-      <c r="U21" s="15">
-        <f>_xlfn.STDEV.P(N21:R21)</f>
+      <c r="U42" s="15">
+        <f>_xlfn.STDEV.P(N42:R42)</f>
         <v>3.4311360836692673E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>9</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <v>-0.33</v>
-      </c>
-      <c r="D22" s="12">
-        <v>-0.33</v>
-      </c>
-      <c r="E22" s="12">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="F22" s="12">
-        <v>-0.32900000000000001</v>
-      </c>
-      <c r="G22" s="12">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.33019999999999999</v>
-      </c>
-      <c r="I22" s="11">
-        <f t="shared" si="4"/>
-        <v>7.4833147735478892E-4</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="5"/>
-        <v>-3.302E-4</v>
-      </c>
-      <c r="K22" s="11">
-        <f t="shared" si="5"/>
-        <v>7.483314773547889E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>10</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="3"/>
-        <v>0.39340000000000008</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" si="4"/>
-        <v>4.89897948556636E-4</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="5"/>
-        <v>3.9340000000000008E-4</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" si="5"/>
-        <v>4.8989794855663599E-7</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" s="3">
-        <f>AVERAGE(N20:N21)</f>
-        <v>12.970413163744063</v>
-      </c>
-      <c r="O23" s="3">
-        <f t="shared" ref="O23:R23" si="18">AVERAGE(O20:O21)</f>
+      <c r="W42" s="21">
+        <f>O41</f>
+        <v>12.972284770099121</v>
+      </c>
+      <c r="X42" s="21">
+        <f>O42</f>
+        <v>12.966126581446996</v>
+      </c>
+      <c r="Y42" s="21">
+        <f t="shared" ref="Y42:Y45" si="10">AVERAGE(W42:X42)</f>
         <v>12.969205675773058</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="18"/>
-        <v>12.967575567012201</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="18"/>
-        <v>12.965462463062941</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="18"/>
-        <v>12.960511762381824</v>
-      </c>
-      <c r="T23" s="14">
-        <f>(T20+T21)/2</f>
-        <v>12.96663372639482</v>
-      </c>
-      <c r="U23" s="18">
-        <f>(U20+U21)/2</f>
-        <v>3.4833733197821835E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E25">
-        <v>1E-3</v>
-      </c>
-      <c r="R25" s="3">
-        <f>AVERAGE(N23:R23)</f>
-        <v>12.966633726394818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="R26" s="11">
-        <f>_xlfn.STDEV.P(N23:R23)</f>
-        <v>3.4824254535779637E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J29" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="3">
-        <f>AF7</f>
-        <v>27.098381021397991</v>
-      </c>
-      <c r="O29" s="18">
-        <f>AG7</f>
-        <v>1.8095890231305278E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="3">
-        <f>1/N29</f>
-        <v>3.6902573596937729E-2</v>
-      </c>
-      <c r="O30" s="18">
-        <f>O29/N29^2</f>
-        <v>2.4642982196447058E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>1.5003000000000001E-2</v>
-      </c>
-      <c r="E31">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N31" s="3">
-        <f>R25</f>
-        <v>12.966633726394818</v>
-      </c>
-      <c r="O31" s="11">
-        <f>R26</f>
-        <v>3.4824254535779637E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" s="3">
-        <f>ABS(N31/N29)</f>
-        <v>0.47850215539281971</v>
-      </c>
-      <c r="O32" s="11">
-        <f>SQRT((O31/N29)^2+(N31*O29/N29^2)^2)</f>
-        <v>1.324234671116824E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D33">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D43">
         <f>1.602*10^-19</f>
         <v>1.602E-19</v>
       </c>
-      <c r="M33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" s="3">
-        <f>1/(D33*N31)</f>
+      <c r="W43" s="21">
+        <f>P41</f>
+        <v>12.970835784533914</v>
+      </c>
+      <c r="X43" s="21">
+        <f>P42</f>
+        <v>12.964315349490489</v>
+      </c>
+      <c r="Y43" s="21">
+        <f t="shared" si="10"/>
+        <v>12.967575567012201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N44" s="3">
+        <f>AVERAGE(N41:N42)</f>
+        <v>12.970413163744063</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" ref="O44:R44" si="11">AVERAGE(O41:O42)</f>
+        <v>12.969205675773058</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="11"/>
+        <v>12.967575567012201</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="11"/>
+        <v>12.965462463062941</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="11"/>
+        <v>12.960511762381824</v>
+      </c>
+      <c r="T44" s="14">
+        <f>(T41+T42)/2</f>
+        <v>12.96663372639482</v>
+      </c>
+      <c r="U44" s="18">
+        <f>(U41+U42)/2</f>
+        <v>3.4833733197821835E-3</v>
+      </c>
+      <c r="W44" s="21">
+        <f>Q41</f>
+        <v>12.968541557389004</v>
+      </c>
+      <c r="X44" s="21">
+        <f>Q42</f>
+        <v>12.96238336873688</v>
+      </c>
+      <c r="Y44" s="21">
+        <f t="shared" si="10"/>
+        <v>12.965462463062941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W45" s="21">
+        <f>R41</f>
+        <v>12.963470107910787</v>
+      </c>
+      <c r="X45" s="21">
+        <f>R42</f>
+        <v>12.957553416852862</v>
+      </c>
+      <c r="Y45" s="21">
+        <f t="shared" si="10"/>
+        <v>12.960511762381824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R46" s="3">
+        <f>AVERAGE(N44:R44)</f>
+        <v>12.966633726394818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R47" s="11">
+        <f>_xlfn.STDEV.P(N44:R44)</f>
+        <v>3.4824254535779637E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" s="3">
+        <f>T15</f>
+        <v>27.098381021397991</v>
+      </c>
+      <c r="O50" s="18">
+        <f>U15</f>
+        <v>1.8095890231305278E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M51" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" s="3">
+        <f>1/N50</f>
+        <v>3.6902573596937729E-2</v>
+      </c>
+      <c r="O51" s="18">
+        <f>O50/N50^2</f>
+        <v>2.4642982196447058E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N52" s="3">
+        <f>R46</f>
+        <v>12.966633726394818</v>
+      </c>
+      <c r="O52" s="11">
+        <f>R47</f>
+        <v>3.4824254535779637E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N53" s="3">
+        <f>ABS(N52/N50)</f>
+        <v>0.47850215539281971</v>
+      </c>
+      <c r="O53" s="11">
+        <f>SQRT((O52/N50)^2+(N52*O50/N50^2)^2)</f>
+        <v>1.324234671116824E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="3">
+        <f>1/(D43*N52)</f>
         <v>4.8140461010529056E+17</v>
       </c>
-      <c r="O33" s="11">
-        <f>O31/(D33*N31^2)</f>
+      <c r="O54" s="11">
+        <f>O52/(D43*N52^2)</f>
         <v>129289968628315.17</v>
       </c>
     </row>
@@ -4565,7 +5250,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H4:I11 H13:I23 G12:H12" formulaRange="1"/>
+    <ignoredError sqref="H4:I11 G12:H12" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4574,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4850,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4911,10 +5596,10 @@
         <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -5017,10 +5702,10 @@
         <v>90.165999999999997</v>
       </c>
       <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
         <v>45</v>
-      </c>
-      <c r="S9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -5123,7 +5808,7 @@
         <v>29</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -5226,7 +5911,7 @@
         <v>90.182000000000002</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5799,7 +6484,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3">
         <f>1/(B4+273.15)</f>
@@ -5999,59 +6684,59 @@
         <v>41</v>
       </c>
       <c r="B33" s="3">
-        <f>ABS(B10-B11)/(2*$R$12)/1000</f>
+        <f t="shared" ref="B33:O33" si="5">ABS(B10-B11)/(2*$R$12)/1000</f>
         <v>5.4718389655402246</v>
       </c>
       <c r="C33" s="3">
-        <f>ABS(C10-C11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.4828034393121374</v>
       </c>
       <c r="D33" s="3">
-        <f>ABS(D10-D11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.5074985002999401</v>
       </c>
       <c r="E33" s="3">
-        <f>ABS(E10-E11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.532626807971738</v>
       </c>
       <c r="F33" s="3">
-        <f>ABS(F10-F11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.5530893821235754</v>
       </c>
       <c r="G33" s="3">
-        <f>ABS(G10-G11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.5670532560154644</v>
       </c>
       <c r="H33" s="3">
-        <f>ABS(H10-H11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.58118376324735</v>
       </c>
       <c r="I33" s="3">
-        <f>ABS(I10-I11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.6131440378590938</v>
       </c>
       <c r="J33" s="3">
-        <f>ABS(J10-J11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.659401453042725</v>
       </c>
       <c r="K33" s="3">
-        <f>ABS(K10-K11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.6893954542424847</v>
       </c>
       <c r="L33" s="3">
-        <f>ABS(L10-L11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.7398853562620804</v>
       </c>
       <c r="M33" s="3">
-        <f>ABS(M10-M11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.7932080250616549</v>
       </c>
       <c r="N33" s="3">
-        <f>ABS(N10-N11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.9004865693527959</v>
       </c>
       <c r="O33" s="3">
-        <f>ABS(O10-O11)/(2*$R$12)/1000</f>
+        <f t="shared" si="5"/>
         <v>5.986769312804106</v>
       </c>
     </row>
@@ -6077,59 +6762,59 @@
         <v>42</v>
       </c>
       <c r="B35" s="3">
-        <f>ABS(B12-B13)/(2*$R$12)/1000</f>
+        <f t="shared" ref="B35:O35" si="6">ABS(B12-B13)/(2*$R$12)/1000</f>
         <v>5.4951343064720382</v>
       </c>
       <c r="C35" s="3">
-        <f>ABS(C12-C13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.5062320869159507</v>
       </c>
       <c r="D35" s="3">
-        <f>ABS(D12-D13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.5308938212357512</v>
       </c>
       <c r="E35" s="3">
-        <f>ABS(E12-E13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.55502232886756</v>
       </c>
       <c r="F35" s="3">
-        <f>ABS(F12-F13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.5744517763114034</v>
       </c>
       <c r="G35" s="3">
-        <f>ABS(G12-G13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.5917483170032654</v>
       </c>
       <c r="H35" s="3">
-        <f>ABS(H12-H13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.6030127307871762</v>
       </c>
       <c r="I35" s="3">
-        <f>ABS(I12-I13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.633306671998934</v>
       </c>
       <c r="J35" s="3">
-        <f>ABS(J12-J13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.681996933946543</v>
       </c>
       <c r="K35" s="3">
-        <f>ABS(K12-K13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.7115576884623067</v>
       </c>
       <c r="L35" s="3">
-        <f>ABS(L12-L13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.7627807771778983</v>
       </c>
       <c r="M35" s="3">
-        <f>ABS(M12-M13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.816103445977471</v>
       </c>
       <c r="N35" s="3">
-        <f>ABS(N12-N13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>5.9249816703325999</v>
       </c>
       <c r="O35" s="3">
-        <f>ABS(O12-O13)/(2*$R$12)/1000</f>
+        <f t="shared" si="6"/>
         <v>6.010097980403919</v>
       </c>
     </row>
@@ -6155,59 +6840,59 @@
         <v>43</v>
       </c>
       <c r="B37" s="3">
-        <f>ABS(B14-B15)/(2*$R$12)/1000</f>
+        <f t="shared" ref="B37:O37" si="7">ABS(B14-B15)/(2*$R$12)/1000</f>
         <v>5.4717389855362262</v>
       </c>
       <c r="C37" s="3">
-        <f>ABS(C14-C15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.4834366460041322</v>
       </c>
       <c r="D37" s="3">
-        <f>ABS(D14-D15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.5058988202359522</v>
       </c>
       <c r="E37" s="3">
-        <f>ABS(E14-E15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.5317603146037451</v>
       </c>
       <c r="F37" s="3">
-        <f>ABS(F14-F15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.5520895820835827</v>
       </c>
       <c r="G37" s="3">
-        <f>ABS(G14-G15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.5687862427514494</v>
       </c>
       <c r="H37" s="3">
-        <f>ABS(H14-H15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.5793507965073639</v>
       </c>
       <c r="I37" s="3">
-        <f>ABS(I14-I15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.6088448976871286</v>
       </c>
       <c r="J37" s="3">
-        <f>ABS(J14-J15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.6568352996067448</v>
       </c>
       <c r="K37" s="3">
-        <f>ABS(K14-K15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.687962407518496</v>
       </c>
       <c r="L37" s="3">
-        <f>ABS(L14-L15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.7391188428980868</v>
       </c>
       <c r="M37" s="3">
-        <f>ABS(M14-M15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.7923415316936619</v>
       </c>
       <c r="N37" s="3">
-        <f>ABS(N14-N15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.9024861694327804</v>
       </c>
       <c r="O37" s="3">
-        <f>ABS(O14-O15)/(2*$R$12)/1000</f>
+        <f t="shared" si="7"/>
         <v>5.9862360861161097</v>
       </c>
     </row>
@@ -6229,62 +6914,62 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3">
-        <f>B31/B33</f>
+        <f t="shared" ref="B40:O40" si="8">B31/B33</f>
         <v>1.0042573147854899</v>
       </c>
       <c r="C40" s="3">
-        <f>C31/C33</f>
+        <f t="shared" si="8"/>
         <v>1.0041819386446384</v>
       </c>
       <c r="D40" s="3">
-        <f>D31/D33</f>
+        <f t="shared" si="8"/>
         <v>1.0040482155175545</v>
       </c>
       <c r="E40" s="3">
-        <f>E31/E33</f>
+        <f t="shared" si="8"/>
         <v>1.0042165626581212</v>
       </c>
       <c r="F40" s="3">
-        <f>F31/F33</f>
+        <f t="shared" si="8"/>
         <v>1.0040929986916807</v>
       </c>
       <c r="G40" s="3">
-        <f>G31/G33</f>
+        <f t="shared" si="8"/>
         <v>1.0038791942290997</v>
       </c>
       <c r="H40" s="3">
-        <f>H31/H33</f>
+        <f t="shared" si="8"/>
         <v>1.0040067116899247</v>
       </c>
       <c r="I40" s="3">
-        <f>I31/I33</f>
+        <f t="shared" si="8"/>
         <v>1.0043163844491414</v>
       </c>
       <c r="J40" s="3">
-        <f>J31/J33</f>
+        <f t="shared" si="8"/>
         <v>1.003845338484006</v>
       </c>
       <c r="K40" s="3">
-        <f>K31/K33</f>
+        <f t="shared" si="8"/>
         <v>1.0043581152323156</v>
       </c>
       <c r="L40" s="3">
-        <f>L31/L33</f>
+        <f t="shared" si="8"/>
         <v>1.0039307673995972</v>
       </c>
       <c r="M40" s="3">
-        <f>M31/M33</f>
+        <f t="shared" si="8"/>
         <v>1.0041131903975697</v>
       </c>
       <c r="N40" s="3">
-        <f>N31/N33</f>
+        <f t="shared" si="8"/>
         <v>1.0038859079356115</v>
       </c>
       <c r="O40" s="3">
-        <f>O31/O33</f>
+        <f t="shared" si="8"/>
         <v>1.0040470053830179</v>
       </c>
     </row>
@@ -6307,62 +6992,62 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3">
         <f>B35/B37</f>
         <v>1.0042756646465876</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:O42" si="5">C35/C37</f>
+        <f t="shared" ref="C42:O42" si="9">C35/C37</f>
         <v>1.004157144940925</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0045396767750134</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0042051739303317</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.004027707748085</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0041233535012597</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0042409834302988</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0043612855691362</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0044480054672171</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0041482835597897</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0041229211186473</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0041022985529759</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0038111907853875</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.003986126498277</v>
       </c>
     </row>
@@ -6385,62 +7070,62 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((B31+B33)/2)*1</f>
+        <f t="shared" ref="B45:O45" si="10">(PI()*$R$8/(LN(2)))*((B31+B33)/2)*1</f>
         <v>24.853136267276273</v>
       </c>
       <c r="C45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((C31+C33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>24.902000444636837</v>
       </c>
       <c r="D45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((D31+D33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.012492394371783</v>
       </c>
       <c r="E45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((E31+E33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.128724185651386</v>
       </c>
       <c r="F45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((F31+F33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.220108504981042</v>
       </c>
       <c r="G45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((G31+G33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.280829986585204</v>
       </c>
       <c r="H45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((H31+H33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.346611591656384</v>
       </c>
       <c r="I45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((I31+I33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.495696423356151</v>
       </c>
       <c r="J45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((J31+J33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.69976289511542</v>
       </c>
       <c r="K45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((K31+K33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>25.842579215654567</v>
       </c>
       <c r="L45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((L31+L33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>26.066357511665935</v>
       </c>
       <c r="M45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((M31+M33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>26.310904971161307</v>
       </c>
       <c r="N45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((N31+N33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>26.795090815146747</v>
       </c>
       <c r="O45" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((O31+O33)/2)*1</f>
+        <f t="shared" si="10"/>
         <v>27.189100727496147</v>
       </c>
     </row>
@@ -6463,62 +7148,62 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3">
         <f>(PI()*$R$8/(LN(2)))*((B35+B37)/2)*1</f>
         <v>24.852909694583722</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:O47" si="6">(PI()*$R$8/(LN(2)))*((C35+C37)/2)*1</f>
+        <f t="shared" ref="C47:O47" si="11">(PI()*$R$8/(LN(2)))*((C35+C37)/2)*1</f>
         <v>24.904568268485775</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.011359530909008</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.12464587718544</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.214746284590621</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.291781000058592</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.341249371265963</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.476739841412567</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.69583563511117</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.833365259490751</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26.065375696664873</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26.306826662695361</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26.803171907847798</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>27.185853185569556</v>
       </c>
     </row>
@@ -6541,62 +7226,62 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B50" s="3">
         <f>AVERAGE(B45:B47)</f>
         <v>24.85302298093</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ref="C50:O50" si="7">AVERAGE(C45:C47)</f>
+        <f t="shared" ref="C50:O50" si="12">AVERAGE(C45:C47)</f>
         <v>24.903284356561308</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.011925962640397</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.126685031418411</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.21742739478583</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.286305493321898</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.343930481461172</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.486218132384359</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.697799265113296</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.837972237572657</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26.065866604165404</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26.308865816928332</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>26.799131361497274</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>27.187476956532851</v>
       </c>
     </row>
@@ -6619,62 +7304,62 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3">
-        <f>((B17-B18)-(B21-B22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" ref="B55:O55" si="13">((B17-B18)-(B21-B22))/(4*1000*$R$6*$R$12)</f>
         <v>13.250852245009936</v>
       </c>
       <c r="C55" s="3">
-        <f>((C17-C18)-(C21-C22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.271500289314117</v>
       </c>
       <c r="D55" s="3">
-        <f>((D17-D18)-(D21-D22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.278624468343045</v>
       </c>
       <c r="E55" s="3">
-        <f>((E17-E18)-(E21-E22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.279831956314052</v>
       </c>
       <c r="F55" s="3">
-        <f>((F17-F18)-(F21-F22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.272587028488022</v>
       </c>
       <c r="G55" s="3">
-        <f>((G17-G18)-(G21-G22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.273190772473525</v>
       </c>
       <c r="H55" s="3">
-        <f>((H17-H18)-(H21-H22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.260753646372175</v>
       </c>
       <c r="I55" s="3">
-        <f>((I17-I18)-(I21-I22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.23986410447379</v>
       </c>
       <c r="J55" s="3">
-        <f>((J17-J18)-(J21-J22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.204846953314652</v>
       </c>
       <c r="K55" s="3">
-        <f>((K17-K18)-(K21-K22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.181180189082957</v>
       </c>
       <c r="L55" s="3">
-        <f>((L17-L18)-(L21-L22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.154856951315052</v>
       </c>
       <c r="M55" s="3">
-        <f>((M17-M18)-(M21-M22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.12442825444573</v>
       </c>
       <c r="N55" s="3">
-        <f>((N17-N18)-(N21-N22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>13.034591149402971</v>
       </c>
       <c r="O55" s="3">
-        <f>((O17-O18)-(O21-O22))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="13"/>
         <v>12.959002402418067</v>
       </c>
     </row>
@@ -6697,62 +7382,62 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3">
-        <f>((B19-B20)-(B23-B24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" ref="B57:O57" si="14">((B19-B20)-(B23-B24))/(4*1000*$R$6*$R$12)</f>
         <v>13.256406689676558</v>
       </c>
       <c r="C57" s="3">
-        <f>((C19-C20)-(C23-C24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.274639758038729</v>
       </c>
       <c r="D57" s="3">
-        <f>((D19-D20)-(D23-D24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.27898671473435</v>
       </c>
       <c r="E57" s="3">
-        <f>((E19-E20)-(E23-E24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.280073453908251</v>
       </c>
       <c r="F57" s="3">
-        <f>((F19-F20)-(F23-F24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.270775796531515</v>
       </c>
       <c r="G57" s="3">
-        <f>((G19-G20)-(G23-G24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.270413550140216</v>
       </c>
       <c r="H57" s="3">
-        <f>((H19-H20)-(H23-H24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.257855675241762</v>
       </c>
       <c r="I57" s="3">
-        <f>((I19-I20)-(I23-I24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.23660388695208</v>
       </c>
       <c r="J57" s="3">
-        <f>((J19-J20)-(J23-J24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.200499996619033</v>
       </c>
       <c r="K57" s="3">
-        <f>((K19-K20)-(K23-K24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.175625744416335</v>
       </c>
       <c r="L57" s="3">
-        <f>((L19-L20)-(L23-L24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.150026999431031</v>
       </c>
       <c r="M57" s="3">
-        <f>((M19-M20)-(M23-M24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.119598302561711</v>
       </c>
       <c r="N57" s="3">
-        <f>((N19-N20)-(N23-N24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>13.027587719171143</v>
       </c>
       <c r="O57" s="3">
-        <f>((O19-O20)-(O23-O24))/(4*1000*$R$6*$R$12)</f>
+        <f t="shared" si="14"/>
         <v>12.95211972098334</v>
       </c>
     </row>
@@ -6774,62 +7459,62 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
-        <f>AVERAGE(B55:B57)</f>
+        <f t="shared" ref="B60:O60" si="15">AVERAGE(B55:B57)</f>
         <v>13.253629467343247</v>
       </c>
       <c r="C60" s="3">
-        <f>AVERAGE(C55:C57)</f>
+        <f t="shared" si="15"/>
         <v>13.273070023676423</v>
       </c>
       <c r="D60" s="3">
-        <f>AVERAGE(D55:D57)</f>
+        <f t="shared" si="15"/>
         <v>13.278805591538697</v>
       </c>
       <c r="E60" s="3">
-        <f>AVERAGE(E55:E57)</f>
+        <f t="shared" si="15"/>
         <v>13.279952705111151</v>
       </c>
       <c r="F60" s="3">
-        <f>AVERAGE(F55:F57)</f>
+        <f t="shared" si="15"/>
         <v>13.271681412509768</v>
       </c>
       <c r="G60" s="3">
-        <f>AVERAGE(G55:G57)</f>
+        <f t="shared" si="15"/>
         <v>13.271802161306869</v>
       </c>
       <c r="H60" s="3">
-        <f>AVERAGE(H55:H57)</f>
+        <f t="shared" si="15"/>
         <v>13.259304660806968</v>
       </c>
       <c r="I60" s="3">
-        <f>AVERAGE(I55:I57)</f>
+        <f t="shared" si="15"/>
         <v>13.238233995712935</v>
       </c>
       <c r="J60" s="3">
-        <f>AVERAGE(J55:J57)</f>
+        <f t="shared" si="15"/>
         <v>13.202673474966844</v>
       </c>
       <c r="K60" s="3">
-        <f>AVERAGE(K55:K57)</f>
+        <f t="shared" si="15"/>
         <v>13.178402966749646</v>
       </c>
       <c r="L60" s="3">
-        <f>AVERAGE(L55:L57)</f>
+        <f t="shared" si="15"/>
         <v>13.152441975373041</v>
       </c>
       <c r="M60" s="3">
-        <f>AVERAGE(M55:M57)</f>
+        <f t="shared" si="15"/>
         <v>13.12201327850372</v>
       </c>
       <c r="N60" s="3">
-        <f>AVERAGE(N55:N57)</f>
+        <f t="shared" si="15"/>
         <v>13.031089434287058</v>
       </c>
       <c r="O60" s="3">
-        <f>AVERAGE(O55:O57)</f>
+        <f t="shared" si="15"/>
         <v>12.955561061700703</v>
       </c>
     </row>
@@ -6851,62 +7536,62 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3">
-        <f>B50</f>
+        <f t="shared" ref="B63:O63" si="16">B50</f>
         <v>24.85302298093</v>
       </c>
       <c r="C63" s="3">
-        <f>C50</f>
+        <f t="shared" si="16"/>
         <v>24.903284356561308</v>
       </c>
       <c r="D63" s="3">
-        <f>D50</f>
+        <f t="shared" si="16"/>
         <v>25.011925962640397</v>
       </c>
       <c r="E63" s="3">
-        <f>E50</f>
+        <f t="shared" si="16"/>
         <v>25.126685031418411</v>
       </c>
       <c r="F63" s="3">
-        <f>F50</f>
+        <f t="shared" si="16"/>
         <v>25.21742739478583</v>
       </c>
       <c r="G63" s="3">
-        <f>G50</f>
+        <f t="shared" si="16"/>
         <v>25.286305493321898</v>
       </c>
       <c r="H63" s="3">
-        <f>H50</f>
+        <f t="shared" si="16"/>
         <v>25.343930481461172</v>
       </c>
       <c r="I63" s="3">
-        <f>I50</f>
+        <f t="shared" si="16"/>
         <v>25.486218132384359</v>
       </c>
       <c r="J63" s="3">
-        <f>J50</f>
+        <f t="shared" si="16"/>
         <v>25.697799265113296</v>
       </c>
       <c r="K63" s="3">
-        <f>K50</f>
+        <f t="shared" si="16"/>
         <v>25.837972237572657</v>
       </c>
       <c r="L63" s="3">
-        <f>L50</f>
+        <f t="shared" si="16"/>
         <v>26.065866604165404</v>
       </c>
       <c r="M63" s="3">
-        <f>M50</f>
+        <f t="shared" si="16"/>
         <v>26.308865816928332</v>
       </c>
       <c r="N63" s="3">
-        <f>N50</f>
+        <f t="shared" si="16"/>
         <v>26.799131361497274</v>
       </c>
       <c r="O63" s="3">
-        <f>O50</f>
+        <f t="shared" si="16"/>
         <v>27.187476956532851</v>
       </c>
     </row>
@@ -6929,62 +7614,62 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="3">
         <f>1/B63</f>
         <v>4.0236553950290521E-2</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65:O65" si="8">1/C63</f>
+        <f t="shared" ref="C65:O65" si="17">1/C63</f>
         <v>4.0155346005055291E-2</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9980927558064566E-2</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9798325913251185E-2</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9655115660480439E-2</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9547097944541545E-2</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9457178938029754E-2</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.9236892457156614E-2</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.8913838094983312E-2</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.8702727551732395E-2</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.8364348869958424E-2</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.8010000391448043E-2</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.731464227369382E-2</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.6781640370630676E-2</v>
       </c>
     </row>
@@ -7007,62 +7692,62 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B67" s="3">
         <f>B60</f>
         <v>13.253629467343247</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67:O67" si="9">C60</f>
+        <f t="shared" ref="C67:O67" si="18">C60</f>
         <v>13.273070023676423</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.278805591538697</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.279952705111151</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.271681412509768</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.271802161306869</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.259304660806968</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.238233995712935</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.202673474966844</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.178402966749646</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.152441975373041</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.12201327850372</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.031089434287058</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>12.955561061700703</v>
       </c>
     </row>
@@ -7085,62 +7770,62 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3">
         <f>ABS(B67/B63)</f>
         <v>0.53328037709991671</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" ref="C69:O69" si="10">ABS(C67/C63)</f>
+        <f t="shared" ref="C69:O69" si="19">ABS(C67/C63)</f>
         <v>0.5329847193500542</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.53089896441293127</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.5285198858705753</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.5262900614221232</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.52486125997378097</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.52317475659531243</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.51942716361246311</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.51376669802579045</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.51004013958905348</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.50458487243509642</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.49876772985251289</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.48625044067693274</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.47652678777122143</v>
       </c>
     </row>
@@ -7163,62 +7848,62 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
         <f>1/($R$14*B67)</f>
         <v>4.7098021480183168E+17</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" ref="C71:O71" si="11">1/($R$14*C67)</f>
+        <f t="shared" ref="C71:O71" si="20">1/($R$14*C67)</f>
         <v>4.7029038815424122E+17</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7008725373694445E+17</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7004664790942586E+17</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7033959446535309E+17</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7033531524693421E+17</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7077862777257472E+17</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7152794364072128E+17</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7279797271884627E+17</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7366871912953805E+17</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7460367170760032E+17</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7570423234208115E+17</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.7902343736578957E+17</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4.8181604978007667E+17</v>
       </c>
     </row>
@@ -7229,55 +7914,55 @@
         <v>1.54964590035585</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" ref="C72:O72" si="12">LN(C71/10^17)</f>
+        <f t="shared" ref="C72:O72" si="21">LN(C71/10^17)</f>
         <v>1.5481801650637359</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5477481377346984</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5476617546620901</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5482847892242793</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.548275691036638</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5492177928123421</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5508081797390969</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5534979922749053</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.555337986569171</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.557309894409268</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5596261144929309</v>
       </c>
       <c r="N72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5665793400082428</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5723922157592145</v>
       </c>
     </row>

--- a/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
+++ b/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="Tag 1 probe 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
   <si>
     <t>mess nr.</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>T^-1</t>
+  </si>
+  <si>
+    <t>mV</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,6 +2188,9 @@
       <c r="P19" t="s">
         <v>62</v>
       </c>
+      <c r="W19" t="s">
+        <v>77</v>
+      </c>
       <c r="X19" s="7" t="s">
         <v>55</v>
       </c>
@@ -3337,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41:Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,7 +5266,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
+++ b/Versuch424-Hall-Effekt-in-Halbleitern/Report/Tables/Day1-2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tag 1 probe 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tag 1 probe 2" sheetId="2" r:id="rId2"/>
     <sheet name="Tag 2" sheetId="3" r:id="rId3"/>
+    <sheet name="tag 2.2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="83">
   <si>
     <t>mess nr.</t>
   </si>
@@ -251,15 +252,33 @@
   <si>
     <t>mV</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>1/T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -367,7 +386,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,19 +407,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -459,6 +482,222 @@
             <c:symbol val="diamond"/>
             <c:size val="3"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$66:$O$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>6.9241602258820566E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.9093158242757159E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8774527216873009E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.844118567896196E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.8179929596104026E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.7982984480430217E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.781911565282049E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.7417929026948197E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.6830209758061439E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6446592093460966E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.5832385957705148E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.5190134894865441E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.3932493083174813E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.2970912742995978E-6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$66:$O$66</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>6.9241602258820566E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.9093158242757159E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8774527216873009E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.844118567896196E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.8179929596104026E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.7982984480430217E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.781911565282049E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.7417929026948197E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.6830209758061439E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.6446592093460966E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6.5832385957705148E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.5190134894865441E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.3932493083174813E-6</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>6.2970912742995978E-6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$29:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.0925325943442871E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2925306274253107E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9356283017810976E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2032996884055462E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8132317730294499E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8669727755229422E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2643377726241456E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$29:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.0925325943442871E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2925306274253107E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9356283017810976E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2032996884055462E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8132317730294499E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8669727755229422E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2643377726241456E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Tag 2'!$B$28:$O$28</c:f>
@@ -571,11 +810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55706752"/>
-        <c:axId val="55707328"/>
+        <c:axId val="82815232"/>
+        <c:axId val="82815808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55706752"/>
+        <c:axId val="82815232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,12 +824,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55707328"/>
+        <c:crossAx val="82815808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55707328"/>
+        <c:axId val="82815808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55706752"/>
+        <c:crossAx val="82815232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -657,6 +896,222 @@
             <c:symbol val="diamond"/>
             <c:size val="3"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$72:$O$72</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>2416597766877254.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2413056005835261.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2412013053356507</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2411804574271723</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2413308630510050.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2413286667654238.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2415562734189519</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2419409902000928.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2425930570962837</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2430401246319378</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2435201557497584.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2440852186055351</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2457894240400002.5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2472232706446346</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$72:$O$72</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>2416597766877254.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2413056005835261.5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2412013053356507</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2411804574271723</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2413308630510050.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2413286667654238.5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2415562734189519</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2419409902000928.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2425930570962837</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2430401246319378</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2435201557497584.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2440852186055351</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2457894240400002.5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2472232706446346</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$29:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.0925325943442871E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2925306274253107E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9356283017810976E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2032996884055462E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8132317730294499E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8669727755229422E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2643377726241456E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$29:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.0925325943442871E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2925306274253107E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9356283017810976E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2032996884055462E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8132317730294499E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8669727755229422E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2643377726241456E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Tag 2'!$B$28:$O$28</c:f>
@@ -769,11 +1224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55709056"/>
-        <c:axId val="55709632"/>
+        <c:axId val="82817536"/>
+        <c:axId val="82818112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55709056"/>
+        <c:axId val="82817536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,12 +1238,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55709632"/>
+        <c:crossAx val="82818112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55709632"/>
+        <c:axId val="82818112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55709056"/>
+        <c:crossAx val="82817536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -855,6 +1310,222 @@
             <c:symbol val="diamond"/>
             <c:size val="3"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$70:$O$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>2.7377981620575189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7362773401119586E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7255677513721185E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.713352861873063E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7019056281606217E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6945698389652943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.6859127283111045E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.666674739938214E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6376176754354277E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6184881217399237E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5904831842110173E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.5606209174205627E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.4963669234922569E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.446453773053219E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$70:$O$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>2.7377981620575189E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7362773401119586E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7255677513721185E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.713352861873063E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.7019056281606217E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.6945698389652943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.6859127283111045E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.666674739938214E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.6376176754354277E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6184881217399237E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.5904831842110173E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.5606209174205627E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.4963669234922569E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.446453773053219E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$29:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.0925325943442871E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2925306274253107E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9356283017810976E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2032996884055462E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8132317730294499E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8669727755229422E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2643377726241456E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Tag 2'!$B$29:$O$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.0925325943442871E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2925306274253107E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.9356283017810976E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2032996884055462E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.8132317730294499E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.8669727755229422E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2643377726241456E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>'Tag 2'!$B$28:$O$28</c:f>
@@ -967,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55711360"/>
-        <c:axId val="55711936"/>
+        <c:axId val="82819840"/>
+        <c:axId val="82820416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55711360"/>
+        <c:axId val="82819840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,12 +1652,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55711936"/>
+        <c:crossAx val="82820416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55711936"/>
+        <c:axId val="82820416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55711360"/>
+        <c:crossAx val="82819840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1018,16 +1689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299570</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1048,16 +1719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1078,16 +1749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5328</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1398,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView topLeftCell="F9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,27 +2193,27 @@
         <f>ABS(H2-H3)/(2*$D$39)/1000</f>
         <v>2.42</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="22">
         <f>O2</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="22">
         <f>O3</f>
         <v>1.915</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="Z2" s="20">
         <f>O7</f>
         <v>1.2663185378590076</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="22">
         <f>O4</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="22">
         <f>O5</f>
         <v>1.915</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AC2" s="20">
         <f>O8</f>
         <v>1.2663185378590076</v>
       </c>
@@ -1609,27 +2280,27 @@
         <f>ABS(H4-H5)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="22">
         <f>P2</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="22">
         <f>P3</f>
         <v>1.915</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="20">
         <f>P7</f>
         <v>1.2663185378590076</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AA3" s="22">
         <f>P4</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AB3" s="22">
         <f>P5</f>
         <v>1.915</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="20">
         <f>P8</f>
         <v>1.2663185378590076</v>
       </c>
@@ -1696,27 +2367,27 @@
         <f>ABS(H6-H7)/(2*$D$39)/1000</f>
         <v>2.42</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="22">
         <f>Q2</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Y4" s="22">
         <f>Q3</f>
         <v>1.915</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="20">
         <f>Q7</f>
         <v>1.2689295039164492</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AA4" s="22">
         <f>Q4</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AB4" s="22">
         <f>Q5</f>
         <v>1.915</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4" s="20">
         <f>Q8</f>
         <v>1.2663185378590076</v>
       </c>
@@ -1783,27 +2454,27 @@
         <f>ABS(H8-H9)/(2*$D$39)/1000</f>
         <v>1.915</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="22">
         <f>R2</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="22">
         <f>R3</f>
         <v>1.915</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="20">
         <f>R7</f>
         <v>1.2689295039164492</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="22">
         <f>R4</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="22">
         <f>R5</f>
         <v>1.91</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="20">
         <f>R8</f>
         <v>1.2696335078534031</v>
       </c>
@@ -1848,27 +2519,27 @@
         <v>4.0000000000000035E-7</v>
       </c>
       <c r="N6" s="10"/>
-      <c r="X6" s="23">
+      <c r="X6" s="22">
         <f>S2</f>
         <v>2.42</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="22">
         <f>S3</f>
         <v>1.915</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="20">
         <f>S7</f>
         <v>1.2637075718015665</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="22">
         <f>S4</f>
         <v>2.42</v>
       </c>
-      <c r="AB6" s="23">
+      <c r="AB6" s="22">
         <f>S5</f>
         <v>1.915</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="20">
         <f>S8</f>
         <v>1.2637075718015665</v>
       </c>
@@ -2039,15 +2710,15 @@
         <v>4.8989794855663599E-7</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="X9" s="21">
+      <c r="X9" s="20">
         <f>O10</f>
         <v>9.8352215077650111</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="20">
         <f>O11</f>
         <v>9.8352215077650111</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="20">
         <f>AVERAGE(X9:Y9)</f>
         <v>9.8352215077650111</v>
       </c>
@@ -2077,23 +2748,23 @@
         <f>(PI()*$D$35/(LN(2)))*((S2+S3)/2)</f>
         <v>9.8238906074104424</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="15">
         <f>AVERAGE(O10:S10)</f>
         <v>9.8374876878359245</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="14">
         <f>_xlfn.STDEV.P(O10:S10)</f>
         <v>8.4792694020943207E-3</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="20">
         <f>P10</f>
         <v>9.8352215077650111</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="20">
         <f>P11</f>
         <v>9.8352215077650111</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="20">
         <f t="shared" ref="Z10:Z13" si="4">AVERAGE(X10:Y10)</f>
         <v>9.8352215077650111</v>
       </c>
@@ -2119,59 +2790,59 @@
         <f>(PI()*$D$35/(LN(2)))*((S4+S5)/2)</f>
         <v>9.8238906074104424</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="15">
         <f>AVERAGE(O11:S11)</f>
         <v>9.8306891476231826</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <f>_xlfn.STDEV.P(O11:S11)</f>
         <v>5.5509848390028812E-3</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="20">
         <f>Q10</f>
         <v>9.8465524081195799</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="20">
         <f>Q11</f>
         <v>9.8352215077650111</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="20">
         <f t="shared" si="4"/>
         <v>9.8408869579422955</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X12" s="21">
+      <c r="X12" s="20">
         <f>R10</f>
         <v>9.8465524081195799</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="20">
         <f>R11</f>
         <v>9.8238906074104424</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="20">
         <f t="shared" si="4"/>
         <v>9.8352215077650111</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="U13" s="14">
+      <c r="U13" s="18">
         <f>(U10+U11)/2</f>
         <v>9.8340884177295536</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="19">
         <f>(V10+V11)/2</f>
         <v>7.015127120548601E-3</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X13" s="20">
         <f>S10</f>
         <v>9.8238906074104424</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="20">
         <f>S11</f>
         <v>9.8238906074104424</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="20">
         <f t="shared" si="4"/>
         <v>9.8238906074104424</v>
       </c>
@@ -2230,22 +2901,22 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="I20" s="3">
-        <f>AVERAGE(D20:H20)</f>
+        <f t="shared" ref="I20:I29" si="5">AVERAGE(D20:H20)</f>
         <v>-7.6E-3</v>
       </c>
       <c r="J20" s="11">
-        <f>_xlfn.STDEV.P(D20:H20)</f>
+        <f t="shared" ref="J20:J29" si="6">_xlfn.STDEV.P(D20:H20)</f>
         <v>4.8989794855663557E-4</v>
       </c>
       <c r="K20" s="3">
-        <f>I20/1000</f>
+        <f t="shared" ref="K20:K29" si="7">I20/1000</f>
         <v>-7.6000000000000001E-6</v>
       </c>
       <c r="L20" s="11">
-        <f>J20/1000</f>
+        <f t="shared" ref="L20:L29" si="8">J20/1000</f>
         <v>4.8989794855663557E-7</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>55</v>
       </c>
       <c r="O20" s="3">
@@ -2253,34 +2924,34 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" ref="P20:S20" si="5">(E20-E28)</f>
+        <f t="shared" ref="P20:S20" si="9">(E20-E28)</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.3000000000000003E-2</v>
       </c>
-      <c r="X20" s="21">
+      <c r="X20" s="20">
         <f>O20</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="20">
         <f>O21</f>
         <v>-4.5000000000000005E-2</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="20">
         <f>O22</f>
         <v>-4.5000000000000005E-2</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="AA20" s="20">
         <f>O23</f>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -2311,22 +2982,22 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I21" s="3">
-        <f>AVERAGE(D21:H21)</f>
+        <f t="shared" si="5"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="J21" s="11">
-        <f>_xlfn.STDEV.P(D21:H21)</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K21" s="3">
-        <f>I21/1000</f>
+        <f t="shared" si="7"/>
         <v>5.7999999999999995E-6</v>
       </c>
       <c r="L21" s="11">
-        <f>J21/1000</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000003E-7</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="16" t="s">
         <v>56</v>
       </c>
       <c r="O21" s="3">
@@ -2334,34 +3005,34 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" ref="P21:S21" si="6">(E21-E29)</f>
+        <f t="shared" ref="P21:S21" si="10">(E21-E29)</f>
         <v>-4.4000000000000004E-2</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.4000000000000004E-2</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.4000000000000004E-2</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="20">
         <f>P20</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="20">
         <f>P21</f>
         <v>-4.4000000000000004E-2</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="20">
         <f>P22</f>
         <v>-4.6000000000000006E-2</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="20">
         <f>P23</f>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -2392,22 +3063,22 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I22" s="3">
-        <f>AVERAGE(D22:H22)</f>
+        <f t="shared" si="5"/>
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="J22" s="11">
-        <f>_xlfn.STDEV.P(D22:H22)</f>
+        <f t="shared" si="6"/>
         <v>4.89897948556636E-4</v>
       </c>
       <c r="K22" s="3">
-        <f>I22/1000</f>
+        <f t="shared" si="7"/>
         <v>9.4400000000000004E-5</v>
       </c>
       <c r="L22" s="11">
-        <f>J22/1000</f>
+        <f t="shared" si="8"/>
         <v>4.8989794855663599E-7</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="16" t="s">
         <v>57</v>
       </c>
       <c r="O22" s="3">
@@ -2415,34 +3086,34 @@
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" ref="P22:S22" si="7">(E24-E28)</f>
+        <f t="shared" ref="P22:S22" si="11">(E24-E28)</f>
         <v>-4.6000000000000006E-2</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-4.5000000000000005E-2</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="X22" s="21">
+      <c r="X22" s="20">
         <f>Q20</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y22" s="20">
         <f>Q21</f>
         <v>-4.4000000000000004E-2</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="20">
         <f>Q22</f>
         <v>-4.5000000000000005E-2</v>
       </c>
-      <c r="AA22" s="21">
+      <c r="AA22" s="20">
         <f>Q23</f>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -2473,22 +3144,22 @@
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="I23" s="3">
-        <f>AVERAGE(D23:H23)</f>
+        <f t="shared" si="5"/>
         <v>-9.6299999999999983E-2</v>
       </c>
       <c r="J23" s="11">
-        <f>_xlfn.STDEV.P(D23:H23)</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000034E-4</v>
       </c>
       <c r="K23" s="3">
-        <f>I23/1000</f>
+        <f t="shared" si="7"/>
         <v>-9.6299999999999983E-5</v>
       </c>
       <c r="L23" s="11">
-        <f>J23/1000</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000035E-7</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="16" t="s">
         <v>58</v>
       </c>
       <c r="O23" s="3">
@@ -2496,34 +3167,34 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" ref="P23:S23" si="8">(E25-E29)</f>
+        <f t="shared" ref="P23:S23" si="12">(E25-E29)</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="X23" s="21">
+      <c r="X23" s="20">
         <f>R20</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="Y23" s="20">
         <f>R21</f>
         <v>-4.4000000000000004E-2</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="20">
         <f>R22</f>
         <v>-4.5000000000000005E-2</v>
       </c>
-      <c r="AA23" s="21">
+      <c r="AA23" s="20">
         <f>R23</f>
         <v>4.5999999999999999E-2</v>
       </c>
@@ -2554,34 +3225,34 @@
         <v>-9.5000000000000001E-2</v>
       </c>
       <c r="I24" s="3">
-        <f>AVERAGE(D24:H24)</f>
+        <f t="shared" si="5"/>
         <v>-9.6000000000000002E-2</v>
       </c>
       <c r="J24" s="11">
-        <f>_xlfn.STDEV.P(D24:H24)</f>
+        <f t="shared" si="6"/>
         <v>6.3245553203367642E-4</v>
       </c>
       <c r="K24" s="3">
-        <f>I24/1000</f>
+        <f t="shared" si="7"/>
         <v>-9.6000000000000002E-5</v>
       </c>
       <c r="L24" s="11">
-        <f>J24/1000</f>
+        <f t="shared" si="8"/>
         <v>6.3245553203367647E-7</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="20">
         <f>S20</f>
         <v>4.3000000000000003E-2</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="20">
         <f>S21</f>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="20">
         <f>S22</f>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA24" s="20">
         <f>S23</f>
         <v>4.4000000000000004E-2</v>
       </c>
@@ -2612,19 +3283,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I25" s="3">
-        <f>AVERAGE(D25:H25)</f>
+        <f t="shared" si="5"/>
         <v>9.5399999999999999E-2</v>
       </c>
       <c r="J25" s="11">
-        <f>_xlfn.STDEV.P(D25:H25)</f>
+        <f t="shared" si="6"/>
         <v>4.89897948556636E-4</v>
       </c>
       <c r="K25" s="3">
-        <f>I25/1000</f>
+        <f t="shared" si="7"/>
         <v>9.5400000000000001E-5</v>
       </c>
       <c r="L25" s="11">
-        <f>J25/1000</f>
+        <f t="shared" si="8"/>
         <v>4.8989794855663599E-7</v>
       </c>
       <c r="N25" s="7" t="s">
@@ -2650,10 +3321,10 @@
         <f>(S20-S21)/2</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2681,19 +3352,19 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I26" s="3">
-        <f>AVERAGE(D26:H26)</f>
+        <f t="shared" si="5"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="J26" s="11">
-        <f>_xlfn.STDEV.P(D26:H26)</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K26" s="3">
-        <f>I26/1000</f>
+        <f t="shared" si="7"/>
         <v>5.200000000000001E-6</v>
       </c>
       <c r="L26" s="11">
-        <f>J26/1000</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000003E-7</v>
       </c>
       <c r="N26" s="7" t="s">
@@ -2719,16 +3390,16 @@
         <f>-(S22-S23)/2</f>
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="X26" s="24" t="s">
+      <c r="X26" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="Y26" s="24" t="s">
+      <c r="Y26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="24" t="s">
+      <c r="Z26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AA26" s="24" t="s">
+      <c r="AA26" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2758,34 +3429,34 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="I27" s="3">
-        <f>AVERAGE(D27:H27)</f>
+        <f t="shared" si="5"/>
         <v>-7.7999999999999996E-3</v>
       </c>
       <c r="J27" s="11">
-        <f>_xlfn.STDEV.P(D27:H27)</f>
+        <f t="shared" si="6"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K27" s="3">
-        <f>I27/1000</f>
+        <f t="shared" si="7"/>
         <v>-7.7999999999999999E-6</v>
       </c>
       <c r="L27" s="11">
-        <f>J27/1000</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000003E-7</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="20">
         <f>O25</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="20">
         <f>O26</f>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="20">
         <f>O28</f>
         <v>3.1884057971014488</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA27" s="20">
         <f>O29</f>
         <v>3.2971014492753619</v>
       </c>
@@ -2816,19 +3487,19 @@
         <v>-0.05</v>
       </c>
       <c r="I28" s="3">
-        <f>AVERAGE(D28:H28)</f>
+        <f t="shared" si="5"/>
         <v>-5.0799999999999998E-2</v>
       </c>
       <c r="J28" s="11">
-        <f>_xlfn.STDEV.P(D28:H28)</f>
+        <f t="shared" si="6"/>
         <v>3.9999999999999758E-4</v>
       </c>
       <c r="K28" s="3">
-        <f>I28/1000</f>
+        <f t="shared" si="7"/>
         <v>-5.0799999999999995E-5</v>
       </c>
       <c r="L28" s="11">
-        <f>J28/1000</f>
+        <f t="shared" si="8"/>
         <v>3.999999999999976E-7</v>
       </c>
       <c r="N28" s="7" t="s">
@@ -2839,42 +3510,42 @@
         <v>3.1884057971014488</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:S28" si="9">P25/($D$33*$D$39)/1000</f>
+        <f t="shared" ref="P28:S28" si="13">P25/($D$33*$D$39)/1000</f>
         <v>3.1521739130434776</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1521739130434776</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1884057971014488</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1884057971014488</v>
       </c>
-      <c r="U28" s="16">
+      <c r="U28" s="15">
         <f>AVERAGE(O28:S28)</f>
         <v>3.1739130434782603</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="14">
         <f>_xlfn.STDEV.P(O28:S28)</f>
         <v>1.7749925672341949E-2</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X28" s="20">
         <f>P25</f>
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="20">
         <f>P26</f>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="20">
         <f>P28</f>
         <v>3.1521739130434776</v>
       </c>
-      <c r="AA28" s="21">
+      <c r="AA28" s="20">
         <f>P29</f>
         <v>3.2971014492753619</v>
       </c>
@@ -2905,19 +3576,19 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I29" s="3">
-        <f>AVERAGE(D29:H29)</f>
+        <f t="shared" si="5"/>
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="J29" s="11">
-        <f>_xlfn.STDEV.P(D29:H29)</f>
+        <f t="shared" si="6"/>
         <v>3.9999999999999758E-4</v>
       </c>
       <c r="K29" s="3">
-        <f>I29/1000</f>
+        <f t="shared" si="7"/>
         <v>5.02E-5</v>
       </c>
       <c r="L29" s="11">
-        <f>J29/1000</f>
+        <f t="shared" si="8"/>
         <v>3.999999999999976E-7</v>
       </c>
       <c r="N29" s="7" t="s">
@@ -2928,86 +3599,86 @@
         <v>3.2971014492753619</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" ref="P29:S29" si="10">P26/($D$33*$D$39)/1000</f>
+        <f t="shared" ref="P29:S29" si="14">P26/($D$33*$D$39)/1000</f>
         <v>3.2971014492753619</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.2608695652173907</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.2971014492753619</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.2246376811594195</v>
       </c>
-      <c r="U29" s="16">
+      <c r="U29" s="15">
         <f>AVERAGE(O29:S29)</f>
         <v>3.2753623188405792</v>
       </c>
-      <c r="V29" s="15">
+      <c r="V29" s="14">
         <f>_xlfn.STDEV.P(O29:S29)</f>
         <v>2.8985507246376937E-2</v>
       </c>
-      <c r="X29" s="21">
+      <c r="X29" s="20">
         <f>Q25</f>
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="20">
         <f>Q26</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Z29" s="21">
+      <c r="Z29" s="20">
         <f>Q28</f>
         <v>3.1521739130434776</v>
       </c>
-      <c r="AA29" s="21">
+      <c r="AA29" s="20">
         <f>Q29</f>
         <v>3.2608695652173907</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X30" s="21">
+      <c r="X30" s="20">
         <f>R25</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30" s="20">
         <f>R26</f>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="Z30" s="20">
         <f>R28</f>
         <v>3.1884057971014488</v>
       </c>
-      <c r="AA30" s="21">
+      <c r="AA30" s="20">
         <f>R29</f>
         <v>3.2971014492753619</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U31" s="19">
+      <c r="U31" s="18">
         <f>(U28+U29)/2</f>
         <v>3.22463768115942</v>
       </c>
-      <c r="V31" s="20">
+      <c r="V31" s="19">
         <f>(V28+V29)/2</f>
         <v>2.3367716459359443E-2</v>
       </c>
-      <c r="X31" s="21">
+      <c r="X31" s="20">
         <f>S25</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y31" s="21">
+      <c r="Y31" s="20">
         <f>S26</f>
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="Z31" s="21">
+      <c r="Z31" s="20">
         <f>S28</f>
         <v>3.1884057971014488</v>
       </c>
-      <c r="AA31" s="21">
+      <c r="AA31" s="20">
         <f>S29</f>
         <v>3.2246376811594195</v>
       </c>
@@ -3068,7 +3739,7 @@
       <c r="E37">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="N37" s="17" t="s">
+      <c r="N37" s="16" t="s">
         <v>67</v>
       </c>
       <c r="O37" s="3">
@@ -3091,23 +3762,23 @@
         <f>((H20-H21)-(H24-H25))/(4*1000*$D$33*$D$39)</f>
         <v>3.2065217391304341</v>
       </c>
-      <c r="U37" s="16">
+      <c r="U37" s="15">
         <f>AVERAGE(O37:S37)</f>
         <v>3.2246376811594195</v>
       </c>
-      <c r="V37" s="15">
+      <c r="V37" s="14">
         <f>_xlfn.STDEV.P(O37:S37)</f>
         <v>1.6203391141302894E-2</v>
       </c>
-      <c r="X37" s="21">
+      <c r="X37" s="20">
         <f>O37</f>
         <v>3.2427536231884053</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="20">
         <f>O38</f>
         <v>3.22463768115942</v>
       </c>
-      <c r="Z37" s="21">
+      <c r="Z37" s="20">
         <f>AVERAGE(X37:Y37)</f>
         <v>3.2336956521739126</v>
       </c>
@@ -3119,7 +3790,7 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="N38" s="17" t="s">
+      <c r="N38" s="16" t="s">
         <v>68</v>
       </c>
       <c r="O38" s="3">
@@ -3142,24 +3813,24 @@
         <f>((H22-H23)-(H26-H27))/(4*1000*$D$33*$D$39)</f>
         <v>3.22463768115942</v>
       </c>
-      <c r="U38" s="16">
+      <c r="U38" s="15">
         <f>AVERAGE(O38:S38)</f>
         <v>3.2192028985507242</v>
       </c>
-      <c r="V38" s="15">
+      <c r="V38" s="14">
         <f>_xlfn.STDEV.P(O38:S38)</f>
         <v>7.2463768115943461E-3</v>
       </c>
-      <c r="X38" s="21">
+      <c r="X38" s="20">
         <f>P37</f>
         <v>3.22463768115942</v>
       </c>
-      <c r="Y38" s="21">
+      <c r="Y38" s="20">
         <f>P38</f>
         <v>3.2065217391304341</v>
       </c>
-      <c r="Z38" s="21">
-        <f t="shared" ref="Z38:Z41" si="11">AVERAGE(X38:Y38)</f>
+      <c r="Z38" s="20">
+        <f t="shared" ref="Z38:Z41" si="15">AVERAGE(X38:Y38)</f>
         <v>3.2155797101449268</v>
       </c>
     </row>
@@ -3170,16 +3841,16 @@
       <c r="E39">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X39" s="20">
         <f>Q37</f>
         <v>3.2065217391304341</v>
       </c>
-      <c r="Y39" s="21">
+      <c r="Y39" s="20">
         <f>Q38</f>
         <v>3.2155797101449268</v>
       </c>
-      <c r="Z39" s="21">
-        <f t="shared" si="11"/>
+      <c r="Z39" s="20">
+        <f t="shared" si="15"/>
         <v>3.2110507246376807</v>
       </c>
     </row>
@@ -3195,39 +3866,39 @@
         <v>3.2336956521739126</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" ref="P40:S40" si="12">AVERAGE(P37:P38)</f>
+        <f t="shared" ref="P40:S40" si="16">AVERAGE(P37:P38)</f>
         <v>3.2155797101449268</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.2110507246376807</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.2336956521739126</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.2155797101449268</v>
       </c>
-      <c r="U40" s="14">
+      <c r="U40" s="25">
         <f>(U37+U38)/2</f>
         <v>3.2219202898550718</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="26">
         <f>(V37+V38)/2</f>
         <v>1.172488397644862E-2</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X40" s="20">
         <f>R37</f>
         <v>3.2427536231884053</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y40" s="20">
         <f>R38</f>
         <v>3.22463768115942</v>
       </c>
-      <c r="Z40" s="21">
-        <f t="shared" si="11"/>
+      <c r="Z40" s="20">
+        <f t="shared" si="15"/>
         <v>3.2336956521739126</v>
       </c>
     </row>
@@ -3236,16 +3907,16 @@
         <f>1.602*10^-19</f>
         <v>1.602E-19</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41" s="20">
         <f>S37</f>
         <v>3.2065217391304341</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="Y41" s="20">
         <f>S38</f>
         <v>3.22463768115942</v>
       </c>
-      <c r="Z41" s="21">
-        <f t="shared" si="11"/>
+      <c r="Z41" s="20">
+        <f t="shared" si="15"/>
         <v>3.2155797101449268</v>
       </c>
     </row>
@@ -3270,11 +3941,11 @@
       <c r="N46" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="18">
         <f>U13</f>
         <v>9.8340884177295536</v>
       </c>
-      <c r="P46" s="18">
+      <c r="P46" s="19">
         <f>V13</f>
         <v>7.015127120548601E-3</v>
       </c>
@@ -3283,11 +3954,11 @@
       <c r="N47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="18">
         <f>1/O46</f>
         <v>0.10168710687989474</v>
       </c>
-      <c r="P47" s="18">
+      <c r="P47" s="19">
         <f>P46/O46^2</f>
         <v>7.2538292415309403E-5</v>
       </c>
@@ -3296,11 +3967,11 @@
       <c r="N48" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="18">
         <f>S42</f>
         <v>3.2219202898550718</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="19">
         <f>S43</f>
         <v>9.7557333462582486E-3</v>
       </c>
@@ -3309,11 +3980,11 @@
       <c r="N49" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="18">
         <f>ABS(O48/O46)</f>
         <v>0.32762775287299412</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="19">
         <f>SQRT((P48/O46)^2+(O48*P46/O46^2)^2)</f>
         <v>1.0191906891177411E-3</v>
       </c>
@@ -3343,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41:Y45"/>
+    <sheetView topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q47" sqref="O40:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,27 +4156,27 @@
         <f>ABS(G4-G5)/(2*$D$41)/1000</f>
         <v>5.9914017196560678</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="22">
         <f>N4</f>
         <v>5.98996867293208</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="22">
         <f>N5</f>
         <v>5.965906818636272</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="20">
         <f>N9</f>
         <v>1.0040332266371716</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="22">
         <f>N6</f>
         <v>5.990035326268079</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AA4" s="22">
         <f>N7</f>
         <v>5.9664733719922678</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="20">
         <f>N10</f>
         <v>1.003949058816958</v>
       </c>
@@ -3569,27 +4240,27 @@
         <f>ABS(G6-G7)/(2*$D$41)/1000</f>
         <v>5.9670399253482644</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="22">
         <f>O4</f>
         <v>5.9911017796440706</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="22">
         <f>O5</f>
         <v>5.9668066386722654</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="20">
         <f>O9</f>
         <v>1.0040717158176944</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="22">
         <f>O6</f>
         <v>5.9907351862960727</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="22">
         <f>O7</f>
         <v>5.9670065986802641</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="20">
         <f>O10</f>
         <v>1.0039766317035843</v>
       </c>
@@ -3653,27 +4324,27 @@
         <f>ABS(G8-G9)/(2*$D$41)/1000</f>
         <v>5.9910684529760712</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="22">
         <f>P4</f>
         <v>5.9912350863160704</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="22">
         <f>P5</f>
         <v>5.9669066186762647</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="20">
         <f>P9</f>
         <v>1.004077232843507</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="22">
         <f>P6</f>
         <v>5.9908351663000738</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="22">
         <f>P7</f>
         <v>5.9671399053522629</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="20">
         <f>P10</f>
         <v>1.0039709578330076</v>
       </c>
@@ -3737,27 +4408,27 @@
         <f>ABS(G10-G11)/(2*$D$41)/1000</f>
         <v>5.9673398653602607</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="22">
         <f>Q4</f>
         <v>5.9911684329800714</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="22">
         <f>Q5</f>
         <v>5.9669732720122646</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="20">
         <f>Q9</f>
         <v>1.0040548465469574</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="22">
         <f>Q6</f>
         <v>5.9909684729720709</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="22">
         <f>Q7</f>
         <v>5.9672398853562614</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AB7" s="20">
         <f>Q10</f>
         <v>1.003976476238879</v>
       </c>
@@ -3799,27 +4470,27 @@
         <v>5.7758116312787613E-6</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="W8" s="23">
+      <c r="W8" s="22">
         <f>R4</f>
         <v>5.9914017196560678</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="22">
         <f>R5</f>
         <v>5.9670399253482644</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="20">
         <f>R9</f>
         <v>1.0040827268817683</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="22">
         <f>R6</f>
         <v>5.9910684529760712</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="22">
         <f>R7</f>
         <v>5.9673398653602607</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="20">
         <f>R10</f>
         <v>1.0039764096148691</v>
       </c>
@@ -3981,15 +4652,15 @@
         <v>4.7074409183775146E-6</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="W11" s="21">
+      <c r="W11" s="20">
         <f>N12</f>
         <v>27.094166769316509</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="20">
         <f>N13</f>
         <v>27.095601729702672</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="20">
         <f>AVERAGE(W11:X11)</f>
         <v>27.09488424950959</v>
       </c>
@@ -4016,23 +4687,23 @@
         <f>(PI()*$D$37/(LN(2)))*((R4+R5)/2)</f>
         <v>27.099982135092027</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="15">
         <f>AVERAGE(N12:R12)</f>
         <v>27.098305497167139</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="14">
         <f>_xlfn.STDEV.P(N12:R12)</f>
         <v>2.1046206116766635E-3</v>
       </c>
-      <c r="W12" s="21">
+      <c r="W12" s="20">
         <f>O12</f>
         <v>27.098773747398415</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="20">
         <f>O13</f>
         <v>27.098396126244158</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="20">
         <f t="shared" ref="Y12:Y15" si="3">AVERAGE(W12:X12)</f>
         <v>27.098584936821286</v>
       </c>
@@ -4058,59 +4729,59 @@
         <f>(PI()*$D$37/(LN(2)))*((R6+R7)/2)</f>
         <v>27.099906610861179</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="15">
         <f>AVERAGE(N13:R13)</f>
         <v>27.098456545628842</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="14">
         <f>_xlfn.STDEV.P(N13:R13)</f>
         <v>1.5145574345843921E-3</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="20">
         <f>P12</f>
         <v>27.099302417014375</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X13" s="20">
         <f>P13</f>
         <v>27.098924795860118</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="20">
         <f t="shared" si="3"/>
         <v>27.099113606437246</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W14" s="21">
+      <c r="W14" s="20">
         <f>Q12</f>
         <v>27.099302417014375</v>
       </c>
-      <c r="X14" s="21">
+      <c r="X14" s="20">
         <f>Q13</f>
         <v>27.099453465476067</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="20">
         <f t="shared" si="3"/>
         <v>27.099377941245223</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="T15" s="19">
+      <c r="T15" s="18">
         <f>(T12+T13)/2</f>
         <v>27.098381021397991</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="19">
         <f>(U12+U13)/2</f>
         <v>1.8095890231305278E-3</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="20">
         <f>R12</f>
         <v>27.099982135092027</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="20">
         <f>R13</f>
         <v>27.099906610861179</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="20">
         <f t="shared" si="3"/>
         <v>27.099944372976601</v>
       </c>
@@ -4179,22 +4850,22 @@
         <v>26.498999999999999</v>
       </c>
       <c r="H24" s="3">
-        <f>AVERAGE(C24:G24)</f>
+        <f t="shared" ref="H24:H33" si="4">AVERAGE(C24:G24)</f>
         <v>26.513600000000004</v>
       </c>
       <c r="I24" s="11">
-        <f>_xlfn.STDEV.P(C24:G24)</f>
+        <f t="shared" ref="I24:I33" si="5">_xlfn.STDEV.P(C24:G24)</f>
         <v>8.1633326527838588E-3</v>
       </c>
       <c r="J24" s="3">
-        <f>H24/1000</f>
+        <f t="shared" ref="J24:J33" si="6">H24/1000</f>
         <v>2.6513600000000005E-2</v>
       </c>
       <c r="K24" s="11">
-        <f>I24/1000</f>
+        <f t="shared" ref="K24:K33" si="7">I24/1000</f>
         <v>8.1633326527838584E-6</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="16" t="s">
         <v>55</v>
       </c>
       <c r="N24" s="3">
@@ -4202,34 +4873,34 @@
         <v>26.853999999999999</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" ref="O24:R24" si="4">(D24-D32)</f>
+        <f t="shared" ref="O24:R24" si="8">(D24-D32)</f>
         <v>26.845999999999997</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>26.846999999999998</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>26.842000000000002</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>26.83</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W24" s="20">
         <f>N24</f>
         <v>26.853999999999999</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="20">
         <f>N25</f>
         <v>-26.855999999999998</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="20">
         <f>N26</f>
         <v>-26.866000000000003</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="20">
         <f>N27</f>
         <v>26.866000000000003</v>
       </c>
@@ -4257,22 +4928,22 @@
         <v>-26.437000000000001</v>
       </c>
       <c r="H25" s="3">
-        <f>AVERAGE(C25:G25)</f>
+        <f t="shared" si="4"/>
         <v>-26.451600000000003</v>
       </c>
       <c r="I25" s="11">
-        <f>_xlfn.STDEV.P(C25:G25)</f>
+        <f t="shared" si="5"/>
         <v>8.1633326527830053E-3</v>
       </c>
       <c r="J25" s="3">
-        <f>H25/1000</f>
+        <f t="shared" si="6"/>
         <v>-2.6451600000000002E-2</v>
       </c>
       <c r="K25" s="11">
-        <f>I25/1000</f>
+        <f t="shared" si="7"/>
         <v>8.1633326527830046E-6</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="16" t="s">
         <v>56</v>
       </c>
       <c r="N25" s="3">
@@ -4280,34 +4951,34 @@
         <v>-26.855999999999998</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" ref="O25:R25" si="5">(D25-D33)</f>
+        <f t="shared" ref="O25:R25" si="9">(D25-D33)</f>
         <v>-26.847000000000001</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-26.847000000000001</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-26.844999999999999</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-26.830000000000002</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25" s="20">
         <f>O24</f>
         <v>26.845999999999997</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25" s="20">
         <f>O25</f>
         <v>-26.847000000000001</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25" s="20">
         <f>O26</f>
         <v>-26.869000000000003</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="20">
         <f>O27</f>
         <v>26.87</v>
       </c>
@@ -4335,22 +5006,22 @@
         <v>27.169</v>
       </c>
       <c r="H26" s="3">
-        <f>AVERAGE(C26:G26)</f>
+        <f t="shared" si="4"/>
         <v>27.182200000000002</v>
       </c>
       <c r="I26" s="11">
-        <f>_xlfn.STDEV.P(C26:G26)</f>
+        <f t="shared" si="5"/>
         <v>7.4404300950952924E-3</v>
       </c>
       <c r="J26" s="3">
-        <f>H26/1000</f>
+        <f t="shared" si="6"/>
         <v>2.71822E-2</v>
       </c>
       <c r="K26" s="11">
-        <f>I26/1000</f>
+        <f t="shared" si="7"/>
         <v>7.4404300950952924E-6</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="16" t="s">
         <v>57</v>
       </c>
       <c r="N26" s="3">
@@ -4358,34 +5029,34 @@
         <v>-26.866000000000003</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" ref="O26:R26" si="6">(D28-D32)</f>
+        <f t="shared" ref="O26:R26" si="10">(D28-D32)</f>
         <v>-26.869000000000003</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-26.862000000000002</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-26.858000000000001</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-26.849</v>
       </c>
-      <c r="W26" s="21">
+      <c r="W26" s="20">
         <f>P24</f>
         <v>26.846999999999998</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26" s="20">
         <f>P25</f>
         <v>-26.847000000000001</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="20">
         <f>P26</f>
         <v>-26.862000000000002</v>
       </c>
-      <c r="Z26" s="21">
+      <c r="Z26" s="20">
         <f>P27</f>
         <v>26.864000000000001</v>
       </c>
@@ -4413,22 +5084,22 @@
         <v>-27.178000000000001</v>
       </c>
       <c r="H27" s="3">
-        <f>AVERAGE(C27:G27)</f>
+        <f t="shared" si="4"/>
         <v>-27.192199999999996</v>
       </c>
       <c r="I27" s="11">
-        <f>_xlfn.STDEV.P(C27:G27)</f>
+        <f t="shared" si="5"/>
         <v>8.0597766718434188E-3</v>
       </c>
       <c r="J27" s="3">
-        <f>H27/1000</f>
+        <f t="shared" si="6"/>
         <v>-2.7192199999999996E-2</v>
       </c>
       <c r="K27" s="11">
-        <f>I27/1000</f>
+        <f t="shared" si="7"/>
         <v>8.0597766718434196E-6</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="16" t="s">
         <v>58</v>
       </c>
       <c r="N27" s="3">
@@ -4436,34 +5107,34 @@
         <v>26.866000000000003</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" ref="O27:R27" si="7">(D29-D33)</f>
+        <f t="shared" ref="O27:R27" si="11">(D29-D33)</f>
         <v>26.87</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26.864000000000001</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26.856000000000002</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>26.849999999999998</v>
       </c>
-      <c r="W27" s="21">
+      <c r="W27" s="20">
         <f>Q24</f>
         <v>26.842000000000002</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="20">
         <f>Q25</f>
         <v>-26.844999999999999</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="20">
         <f>Q26</f>
         <v>-26.858000000000001</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="20">
         <f>Q27</f>
         <v>26.856000000000002</v>
       </c>
@@ -4491,34 +5162,34 @@
         <v>-27.18</v>
       </c>
       <c r="H28" s="3">
-        <f>AVERAGE(C28:G28)</f>
+        <f t="shared" si="4"/>
         <v>-27.191000000000003</v>
       </c>
       <c r="I28" s="11">
-        <f>_xlfn.STDEV.P(C28:G28)</f>
+        <f t="shared" si="5"/>
         <v>6.7823299831259089E-3</v>
       </c>
       <c r="J28" s="3">
-        <f>H28/1000</f>
+        <f t="shared" si="6"/>
         <v>-2.7191000000000003E-2</v>
       </c>
       <c r="K28" s="11">
-        <f>I28/1000</f>
+        <f t="shared" si="7"/>
         <v>6.7823299831259092E-6</v>
       </c>
-      <c r="W28" s="21">
+      <c r="W28" s="20">
         <f>R24</f>
         <v>26.83</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X28" s="20">
         <f>R25</f>
         <v>-26.830000000000002</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="20">
         <f>R26</f>
         <v>-26.849</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="20">
         <f>R27</f>
         <v>26.849999999999998</v>
       </c>
@@ -4546,19 +5217,19 @@
         <v>27.242999999999999</v>
       </c>
       <c r="H29" s="3">
-        <f>AVERAGE(C29:G29)</f>
+        <f t="shared" si="4"/>
         <v>27.2546</v>
       </c>
       <c r="I29" s="11">
-        <f>_xlfn.STDEV.P(C29:G29)</f>
+        <f t="shared" si="5"/>
         <v>7.2277243998382455E-3</v>
       </c>
       <c r="J29" s="3">
-        <f>H29/1000</f>
+        <f t="shared" si="6"/>
         <v>2.72546E-2</v>
       </c>
       <c r="K29" s="11">
-        <f>I29/1000</f>
+        <f t="shared" si="7"/>
         <v>7.2277243998382454E-6</v>
       </c>
       <c r="M29" s="7" t="s">
@@ -4608,19 +5279,19 @@
         <v>-26.484000000000002</v>
       </c>
       <c r="H30" s="3">
-        <f>AVERAGE(C30:G30)</f>
+        <f t="shared" si="4"/>
         <v>-26.494999999999997</v>
       </c>
       <c r="I30" s="11">
-        <f>_xlfn.STDEV.P(C30:G30)</f>
+        <f t="shared" si="5"/>
         <v>7.2663608498341583E-3</v>
       </c>
       <c r="J30" s="3">
-        <f>H30/1000</f>
+        <f t="shared" si="6"/>
         <v>-2.6494999999999998E-2</v>
       </c>
       <c r="K30" s="11">
-        <f>I30/1000</f>
+        <f t="shared" si="7"/>
         <v>7.2663608498341582E-6</v>
       </c>
       <c r="M30" s="7" t="s">
@@ -4682,34 +5353,34 @@
         <v>26.478999999999999</v>
       </c>
       <c r="H31" s="3">
-        <f>AVERAGE(C31:G31)</f>
+        <f t="shared" si="4"/>
         <v>26.490200000000005</v>
       </c>
       <c r="I31" s="11">
-        <f>_xlfn.STDEV.P(C31:G31)</f>
+        <f t="shared" si="5"/>
         <v>7.0256672281001683E-3</v>
       </c>
       <c r="J31" s="3">
-        <f>H31/1000</f>
+        <f t="shared" si="6"/>
         <v>2.6490200000000005E-2</v>
       </c>
       <c r="K31" s="11">
-        <f>I31/1000</f>
+        <f t="shared" si="7"/>
         <v>7.025667228100168E-6</v>
       </c>
-      <c r="W31" s="21">
+      <c r="W31" s="20">
         <f>N29</f>
         <v>26.854999999999997</v>
       </c>
-      <c r="X31" s="21">
+      <c r="X31" s="20">
         <f>N30</f>
         <v>26.866000000000003</v>
       </c>
-      <c r="Y31" s="21">
+      <c r="Y31" s="20">
         <f>N32</f>
         <v>12.970835784533911</v>
       </c>
-      <c r="Z31" s="21">
+      <c r="Z31" s="20">
         <f>N33</f>
         <v>12.976148731606333</v>
       </c>
@@ -4737,19 +5408,19 @@
         <v>-0.33100000000000002</v>
       </c>
       <c r="H32" s="3">
-        <f>AVERAGE(C32:G32)</f>
+        <f t="shared" si="4"/>
         <v>-0.33019999999999999</v>
       </c>
       <c r="I32" s="11">
-        <f>_xlfn.STDEV.P(C32:G32)</f>
+        <f t="shared" si="5"/>
         <v>7.4833147735478892E-4</v>
       </c>
       <c r="J32" s="3">
-        <f>H32/1000</f>
+        <f t="shared" si="6"/>
         <v>-3.302E-4</v>
       </c>
       <c r="K32" s="11">
-        <f>I32/1000</f>
+        <f t="shared" si="7"/>
         <v>7.483314773547889E-7</v>
       </c>
       <c r="M32" s="7" t="s">
@@ -4760,42 +5431,42 @@
         <v>12.970835784533911</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" ref="O32:R32" si="8">O29/($D$35*$D$41)/1000</f>
+        <f t="shared" ref="O32:R32" si="12">O29/($D$35*$D$41)/1000</f>
         <v>12.966730325432493</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.966971823026697</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.965281339867289</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12.958760904823864</v>
       </c>
-      <c r="T32" s="16">
+      <c r="T32" s="15">
         <f>AVERAGE(N32:R32)</f>
         <v>12.965716035536852</v>
       </c>
-      <c r="U32" s="15">
+      <c r="U32" s="14">
         <f>_xlfn.STDEV.P(N32:R32)</f>
         <v>3.9339654183743397E-3</v>
       </c>
-      <c r="W32" s="21">
+      <c r="W32" s="20">
         <f>O29</f>
         <v>26.846499999999999</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X32" s="20">
         <f>O30</f>
         <v>26.869500000000002</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y32" s="20">
         <f>O32</f>
         <v>12.966730325432493</v>
       </c>
-      <c r="Z32" s="21">
+      <c r="Z32" s="20">
         <f>O33</f>
         <v>12.977839214765741</v>
       </c>
@@ -4823,19 +5494,19 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H33" s="3">
-        <f>AVERAGE(C33:G33)</f>
+        <f t="shared" si="4"/>
         <v>0.39340000000000008</v>
       </c>
       <c r="I33" s="11">
-        <f>_xlfn.STDEV.P(C33:G33)</f>
+        <f t="shared" si="5"/>
         <v>4.89897948556636E-4</v>
       </c>
       <c r="J33" s="3">
-        <f>H33/1000</f>
+        <f t="shared" si="6"/>
         <v>3.9340000000000008E-4</v>
       </c>
       <c r="K33" s="11">
-        <f>I33/1000</f>
+        <f t="shared" si="7"/>
         <v>4.8989794855663599E-7</v>
       </c>
       <c r="M33" s="7" t="s">
@@ -4846,42 +5517,42 @@
         <v>12.976148731606333</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" ref="O33:R33" si="9">O30/($D$35*$D$41)/1000</f>
+        <f t="shared" ref="O33:R33" si="13">O30/($D$35*$D$41)/1000</f>
         <v>12.977839214765741</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.974699746041127</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.971801774910714</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.968179310997701</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="15">
         <f>AVERAGE(N33:R33)</f>
         <v>12.973733755664323</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="14">
         <f>_xlfn.STDEV.P(N33:R33)</f>
         <v>3.4118747289093821E-3</v>
       </c>
-      <c r="W33" s="21">
+      <c r="W33" s="20">
         <f>P29</f>
         <v>26.847000000000001</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33" s="20">
         <f>P30</f>
         <v>26.863</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33" s="20">
         <f>P32</f>
         <v>12.966971823026697</v>
       </c>
-      <c r="Z33" s="21">
+      <c r="Z33" s="20">
         <f>P33</f>
         <v>12.974699746041127</v>
       </c>
@@ -4893,19 +5564,19 @@
       <c r="E34" t="s">
         <v>45</v>
       </c>
-      <c r="W34" s="21">
+      <c r="W34" s="20">
         <f>Q29</f>
         <v>26.843499999999999</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="20">
         <f>Q30</f>
         <v>26.856999999999999</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="20">
         <f>Q32</f>
         <v>12.965281339867289</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="20">
         <f>Q33</f>
         <v>12.971801774910714</v>
       </c>
@@ -4917,27 +5588,27 @@
       <c r="E35">
         <v>1E-3</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T35" s="18">
         <f>(T32+T33)/2</f>
         <v>12.969724895600589</v>
       </c>
-      <c r="U35" s="20">
+      <c r="U35" s="19">
         <f>(U32+U33)/2</f>
         <v>3.6729200736418609E-3</v>
       </c>
-      <c r="W35" s="21">
+      <c r="W35" s="20">
         <f>R29</f>
         <v>26.83</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35" s="20">
         <f>R30</f>
         <v>26.849499999999999</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="20">
         <f>R32</f>
         <v>12.958760904823864</v>
       </c>
-      <c r="Z35" s="21">
+      <c r="Z35" s="20">
         <f>R33</f>
         <v>12.968179310997701</v>
       </c>
@@ -5001,7 +5672,7 @@
       <c r="E41">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="M41" s="17" t="s">
+      <c r="M41" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N41" s="3">
@@ -5024,23 +5695,23 @@
         <f>((G24-G25)-(G28-G29))/(4*1000*$D$35*$D$41)</f>
         <v>12.963470107910787</v>
       </c>
-      <c r="T41" s="16">
+      <c r="T41" s="15">
         <f>AVERAGE(N41:R41)</f>
         <v>12.969724895600592</v>
       </c>
-      <c r="U41" s="15">
+      <c r="U41" s="14">
         <f>_xlfn.STDEV.P(N41:R41)</f>
         <v>3.5356105558950997E-3</v>
       </c>
-      <c r="W41" s="21">
+      <c r="W41" s="20">
         <f>N41</f>
         <v>12.973492258070126</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41" s="20">
         <f>N42</f>
         <v>12.967334069417999</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="Y41" s="20">
         <f>AVERAGE(W41:X41)</f>
         <v>12.970413163744063</v>
       </c>
@@ -5049,7 +5720,7 @@
       <c r="D42" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="17" t="s">
+      <c r="M42" s="16" t="s">
         <v>68</v>
       </c>
       <c r="N42" s="3">
@@ -5072,24 +5743,24 @@
         <f>((G26-G27)-(G30-G31))/(4*1000*$D$35*$D$41)</f>
         <v>12.957553416852862</v>
       </c>
-      <c r="T42" s="16">
+      <c r="T42" s="15">
         <f>AVERAGE(N42:R42)</f>
         <v>12.963542557189047</v>
       </c>
-      <c r="U42" s="15">
+      <c r="U42" s="14">
         <f>_xlfn.STDEV.P(N42:R42)</f>
         <v>3.4311360836692673E-3</v>
       </c>
-      <c r="W42" s="21">
+      <c r="W42" s="20">
         <f>O41</f>
         <v>12.972284770099121</v>
       </c>
-      <c r="X42" s="21">
+      <c r="X42" s="20">
         <f>O42</f>
         <v>12.966126581446996</v>
       </c>
-      <c r="Y42" s="21">
-        <f t="shared" ref="Y42:Y45" si="10">AVERAGE(W42:X42)</f>
+      <c r="Y42" s="20">
+        <f t="shared" ref="Y42:Y45" si="14">AVERAGE(W42:X42)</f>
         <v>12.969205675773058</v>
       </c>
     </row>
@@ -5098,16 +5769,16 @@
         <f>1.602*10^-19</f>
         <v>1.602E-19</v>
       </c>
-      <c r="W43" s="21">
+      <c r="W43" s="20">
         <f>P41</f>
         <v>12.970835784533914</v>
       </c>
-      <c r="X43" s="21">
+      <c r="X43" s="20">
         <f>P42</f>
         <v>12.964315349490489</v>
       </c>
-      <c r="Y43" s="21">
-        <f t="shared" si="10"/>
+      <c r="Y43" s="20">
+        <f t="shared" si="14"/>
         <v>12.967575567012201</v>
       </c>
     </row>
@@ -5120,53 +5791,53 @@
         <v>12.970413163744063</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" ref="O44:R44" si="11">AVERAGE(O41:O42)</f>
+        <f t="shared" ref="O44:R44" si="15">AVERAGE(O41:O42)</f>
         <v>12.969205675773058</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.967575567012201</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.965462463062941</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12.960511762381824</v>
       </c>
-      <c r="T44" s="14">
+      <c r="T44" s="18">
         <f>(T41+T42)/2</f>
         <v>12.96663372639482</v>
       </c>
-      <c r="U44" s="18">
+      <c r="U44" s="19">
         <f>(U41+U42)/2</f>
         <v>3.4833733197821835E-3</v>
       </c>
-      <c r="W44" s="21">
+      <c r="W44" s="20">
         <f>Q41</f>
         <v>12.968541557389004</v>
       </c>
-      <c r="X44" s="21">
+      <c r="X44" s="20">
         <f>Q42</f>
         <v>12.96238336873688</v>
       </c>
-      <c r="Y44" s="21">
-        <f t="shared" si="10"/>
+      <c r="Y44" s="20">
+        <f t="shared" si="14"/>
         <v>12.965462463062941</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W45" s="21">
+      <c r="W45" s="20">
         <f>R41</f>
         <v>12.963470107910787</v>
       </c>
-      <c r="X45" s="21">
+      <c r="X45" s="20">
         <f>R42</f>
         <v>12.957553416852862</v>
       </c>
-      <c r="Y45" s="21">
-        <f t="shared" si="10"/>
+      <c r="Y45" s="20">
+        <f t="shared" si="14"/>
         <v>12.960511762381824</v>
       </c>
     </row>
@@ -5195,7 +5866,7 @@
         <f>T15</f>
         <v>27.098381021397991</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="17">
         <f>U15</f>
         <v>1.8095890231305278E-3</v>
       </c>
@@ -5204,11 +5875,11 @@
       <c r="M51" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="15">
         <f>1/N50</f>
         <v>3.6902573596937729E-2</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="24">
         <f>O50/N50^2</f>
         <v>2.4642982196447058E-6</v>
       </c>
@@ -5265,8 +5936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5278,7 +5949,7 @@
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -5328,7 +5999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -5375,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -5422,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -5483,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>_xlfn.STDEV.P(B2:B3)</f>
         <v>0.5</v>
@@ -5540,22 +6211,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R6">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="S6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -5601,14 +6258,8 @@
       <c r="O7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5654,14 +6305,11 @@
       <c r="O8" s="4">
         <v>-90.2</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -5707,14 +6355,12 @@
       <c r="O9" s="4">
         <v>90.165999999999997</v>
       </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P9" s="11">
+        <f>P8</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5760,11 +6406,12 @@
       <c r="O10" s="4">
         <v>-89.837000000000003</v>
       </c>
-      <c r="S10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P10" s="11">
+        <f t="shared" ref="P10:P15" si="2">P9</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5810,14 +6457,12 @@
       <c r="O11" s="4">
         <v>89.802000000000007</v>
       </c>
-      <c r="R11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5863,14 +6508,12 @@
       <c r="O12" s="4">
         <v>-90.156999999999996</v>
       </c>
-      <c r="R12">
-        <v>1.5003000000000001E-2</v>
-      </c>
-      <c r="S12">
-        <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5916,11 +6559,12 @@
       <c r="O13" s="4">
         <v>90.182000000000002</v>
       </c>
-      <c r="R13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P13" s="11">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5966,12 +6610,12 @@
       <c r="O14" s="4">
         <v>-89.8</v>
       </c>
-      <c r="R14">
-        <f>1.602*10^-19</f>
-        <v>1.602E-19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -6017,8 +6661,12 @@
       <c r="O15" s="4">
         <v>89.822999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="11">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -6064,8 +6712,11 @@
       <c r="O17" s="4">
         <v>26.483000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2</v>
       </c>
@@ -6111,8 +6762,12 @@
       <c r="O18" s="4">
         <v>-26.443000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="11">
+        <f>P17</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -6158,8 +6813,12 @@
       <c r="O19" s="4">
         <v>27.154</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="11">
+        <f t="shared" ref="P19:P24" si="3">P18</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -6205,8 +6864,12 @@
       <c r="O20" s="4">
         <v>-27.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="11">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -6252,8 +6915,12 @@
       <c r="O21" s="4">
         <v>-27.177</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="11">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6</v>
       </c>
@@ -6299,8 +6966,12 @@
       <c r="O22" s="4">
         <v>27.219000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="11">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>7</v>
       </c>
@@ -6346,8 +7017,12 @@
       <c r="O23" s="4">
         <v>-26.48</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="11">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8</v>
       </c>
@@ -6393,8 +7068,12 @@
       <c r="O24" s="4">
         <v>26.471</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="11">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>9</v>
       </c>
@@ -6440,8 +7119,17 @@
       <c r="O25" s="4">
         <v>-0.33900000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>65</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>10</v>
       </c>
@@ -6487,9 +7175,27 @@
       <c r="O26" s="4">
         <v>0.376</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="P26" s="11">
+        <f>P25</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R26">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="3">
@@ -6497,506 +7203,752 @@
         <v>1.4781966001478202E-2</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:O28" si="2">1/(C4+273.15)</f>
+        <f t="shared" ref="C28:O28" si="4">1/(C4+273.15)</f>
         <v>1.2878300064391505E-2</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1092623405435388E-2</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.935419771485347E-3</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9565606806986144E-3</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2542302930251766E-3</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5103266992114174E-3</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.7499156260546755E-3</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1106018942865877E-3</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.550929780738274E-3</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1506567087303634E-3</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.7585058291696415E-3</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0625634775543372E-3</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6609921288669233E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <f>B5/(B4+273.15)^2</f>
         <v>1.0925325943442871E-4</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:O29" si="3">C5/(C4+273.15)^2</f>
+        <f t="shared" ref="C29:O29" si="5">C5/(C4+273.15)^2</f>
         <v>8.2925306274253107E-5</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9356283017810976E-5</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2032996884055462E-4</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.8132317730294499E-5</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8669727755229422E-5</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2643377726241456E-5</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="3">
-        <f>ABS(B8-B9)/(2*$R$12)/1000</f>
+        <f>ABS(B8-B9)/(2*$R$32)/1000</f>
         <v>5.4951343064720382</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ref="C31:O31" si="4">ABS(C8-C9)/(2*$R$12)/1000</f>
+        <f>ABS(C8-C9)/(2*$R$32)/1000</f>
         <v>5.5057321868959539</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(D8-D9)/(2*$R$32)/1000</f>
         <v>5.5297940411917628</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(E8-E9)/(2*$R$32)/1000</f>
         <v>5.5559554755715519</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(F8-F9)/(2*$R$32)/1000</f>
         <v>5.5758181696993931</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(G8-G9)/(2*$R$32)/1000</f>
         <v>5.5886489368792907</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(H8-H9)/(2*$R$32)/1000</f>
         <v>5.6035459574751716</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(I8-I9)/(2*$R$32)/1000</f>
         <v>5.6373725254949001</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(J8-J9)/(2*$R$32)/1000</f>
         <v>5.6811637672465505</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(K8-K9)/(2*$R$32)/1000</f>
         <v>5.7141904952342859</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(L8-L9)/(2*$R$32)/1000</f>
         <v>5.7624475104979007</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(M8-M9)/(2*$R$32)/1000</f>
         <v>5.8170365926814629</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(N8-N9)/(2*$R$32)/1000</f>
         <v>5.9234153169366124</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="4"/>
+        <f>ABS(O8-O9)/(2*$R$32)/1000</f>
         <v>6.0109978004399105</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <f>SQRT(($P8/(2000*$R$32))^2+($P9/(2000*$R$32))^2+(ABS(B8-B9)*$S$32/(2000*$R$32^2))^2)</f>
+        <v>1.891020486060299E-3</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" ref="C32:O38" si="6">SQRT(($P8/(2000*$R$32))^2+($P9/(2000*$R$32))^2+(ABS(C8-C9)*$S$32/(2000*$R$32^2))^2)</f>
+        <v>1.8944411534684328E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9022090841246521E-3</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9106571799374951E-3</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9170728941092707E-3</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9212180085618894E-3</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9260313662357654E-3</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9369638629143254E-3</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9511226288004035E-3</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9618051886449348E-3</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.977420407564945E-3</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9950935331488197E-3</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0295598517507817E-3</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0579614048238807E-3</v>
+      </c>
+      <c r="R32">
+        <v>1.5003000000000001E-2</v>
+      </c>
+      <c r="S32">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" ref="B33:O33" si="5">ABS(B10-B11)/(2*$R$12)/1000</f>
+        <f>ABS(B10-B11)/(2*$R$32)/1000</f>
         <v>5.4718389655402246</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(C10-C11)/(2*$R$32)/1000</f>
         <v>5.4828034393121374</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(D10-D11)/(2*$R$32)/1000</f>
         <v>5.5074985002999401</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(E10-E11)/(2*$R$32)/1000</f>
         <v>5.532626807971738</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(F10-F11)/(2*$R$32)/1000</f>
         <v>5.5530893821235754</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(G10-G11)/(2*$R$32)/1000</f>
         <v>5.5670532560154644</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(H10-H11)/(2*$R$32)/1000</f>
         <v>5.58118376324735</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(I10-I11)/(2*$R$32)/1000</f>
         <v>5.6131440378590938</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(J10-J11)/(2*$R$32)/1000</f>
         <v>5.659401453042725</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(K10-K11)/(2*$R$32)/1000</f>
         <v>5.6893954542424847</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(L10-L11)/(2*$R$32)/1000</f>
         <v>5.7398853562620804</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(M10-M11)/(2*$R$32)/1000</f>
         <v>5.7932080250616549</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(N10-N11)/(2*$R$32)/1000</f>
         <v>5.9004865693527959</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="5"/>
+        <f>ABS(O10-O11)/(2*$R$32)/1000</f>
         <v>5.986769312804106</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <f>SQRT(($P10/(2000*$R$32))^2+($P11/(2000*$R$32))^2+(ABS(B10-B11)*$S$32/(2000*$R$32^2))^2)</f>
+        <v>1.8835029153161269E-3</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.8870409801538986E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.895011304386809E-3</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9031237282332817E-3</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.909731537402427E-3</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9142416276288579E-3</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.918806235691265E-3</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9291329962553862E-3</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9440855422180074E-3</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9537848474096542E-3</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9701187099570852E-3</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9873779203363391E-3</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0221281384588063E-3</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0501022950566595E-3</v>
+      </c>
+      <c r="R34">
+        <f>1.602*10^-19</f>
+        <v>1.602E-19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" ref="B35:O35" si="6">ABS(B12-B13)/(2*$R$12)/1000</f>
+        <f>ABS(B12-B13)/(2*$R$32)/1000</f>
         <v>5.4951343064720382</v>
       </c>
       <c r="C35" s="3">
+        <f>ABS(C12-C13)/(2*$R$32)/1000</f>
+        <v>5.5062320869159507</v>
+      </c>
+      <c r="D35" s="3">
+        <f>ABS(D12-D13)/(2*$R$32)/1000</f>
+        <v>5.5308938212357512</v>
+      </c>
+      <c r="E35" s="3">
+        <f>ABS(E12-E13)/(2*$R$32)/1000</f>
+        <v>5.55502232886756</v>
+      </c>
+      <c r="F35" s="3">
+        <f>ABS(F12-F13)/(2*$R$32)/1000</f>
+        <v>5.5744517763114034</v>
+      </c>
+      <c r="G35" s="3">
+        <f>ABS(G12-G13)/(2*$R$32)/1000</f>
+        <v>5.5917483170032654</v>
+      </c>
+      <c r="H35" s="3">
+        <f>ABS(H12-H13)/(2*$R$32)/1000</f>
+        <v>5.6030127307871762</v>
+      </c>
+      <c r="I35" s="3">
+        <f>ABS(I12-I13)/(2*$R$32)/1000</f>
+        <v>5.633306671998934</v>
+      </c>
+      <c r="J35" s="3">
+        <f>ABS(J12-J13)/(2*$R$32)/1000</f>
+        <v>5.681996933946543</v>
+      </c>
+      <c r="K35" s="3">
+        <f>ABS(K12-K13)/(2*$R$32)/1000</f>
+        <v>5.7115576884623067</v>
+      </c>
+      <c r="L35" s="3">
+        <f>ABS(L12-L13)/(2*$R$32)/1000</f>
+        <v>5.7627807771778983</v>
+      </c>
+      <c r="M35" s="3">
+        <f>ABS(M12-M13)/(2*$R$32)/1000</f>
+        <v>5.816103445977471</v>
+      </c>
+      <c r="N35" s="3">
+        <f>ABS(N12-N13)/(2*$R$32)/1000</f>
+        <v>5.9249816703325999</v>
+      </c>
+      <c r="O35" s="3">
+        <f>ABS(O12-O13)/(2*$R$32)/1000</f>
+        <v>6.010097980403919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="11">
+        <f>SQRT(($P12/(2000*$R$32))^2+($P13/(2000*$R$32))^2+(ABS(B12-B13)*$S$32/(2000*$R$32^2))^2)</f>
+        <v>1.891020486060299E-3</v>
+      </c>
+      <c r="C36" s="11">
         <f t="shared" si="6"/>
-        <v>5.5062320869159507</v>
-      </c>
-      <c r="D35" s="3">
+        <v>1.8946025157877038E-3</v>
+      </c>
+      <c r="D36" s="11">
         <f t="shared" si="6"/>
-        <v>5.5308938212357512</v>
-      </c>
-      <c r="E35" s="3">
+        <v>1.902564177835646E-3</v>
+      </c>
+      <c r="E36" s="11">
         <f t="shared" si="6"/>
-        <v>5.55502232886756</v>
-      </c>
-      <c r="F35" s="3">
+        <v>1.9103558047572956E-3</v>
+      </c>
+      <c r="F36" s="11">
         <f t="shared" si="6"/>
-        <v>5.5744517763114034</v>
-      </c>
-      <c r="G35" s="3">
+        <v>1.9166315002357129E-3</v>
+      </c>
+      <c r="G36" s="11">
         <f t="shared" si="6"/>
-        <v>5.5917483170032654</v>
-      </c>
-      <c r="H35" s="3">
+        <v>1.9222193819779779E-3</v>
+      </c>
+      <c r="H36" s="11">
         <f t="shared" si="6"/>
-        <v>5.6030127307871762</v>
-      </c>
-      <c r="I35" s="3">
+        <v>1.9258590627700119E-3</v>
+      </c>
+      <c r="I36" s="11">
         <f t="shared" si="6"/>
-        <v>5.633306671998934</v>
-      </c>
-      <c r="J35" s="3">
+        <v>1.9356496024212377E-3</v>
+      </c>
+      <c r="J36" s="11">
         <f t="shared" si="6"/>
-        <v>5.681996933946543</v>
-      </c>
-      <c r="K35" s="3">
+        <v>1.9513920739031641E-3</v>
+      </c>
+      <c r="K36" s="11">
         <f t="shared" si="6"/>
-        <v>5.7115576884623067</v>
-      </c>
-      <c r="L35" s="3">
+        <v>1.9609534706265487E-3</v>
+      </c>
+      <c r="L36" s="11">
         <f t="shared" si="6"/>
-        <v>5.7627807771778983</v>
-      </c>
-      <c r="M35" s="3">
+        <v>1.9775282735140583E-3</v>
+      </c>
+      <c r="M36" s="11">
         <f t="shared" si="6"/>
-        <v>5.816103445977471</v>
-      </c>
-      <c r="N35" s="3">
+        <v>1.9947913499549054E-3</v>
+      </c>
+      <c r="N36" s="11">
         <f t="shared" si="6"/>
-        <v>5.9249816703325999</v>
-      </c>
-      <c r="O35" s="3">
+        <v>2.0300675982757497E-3</v>
+      </c>
+      <c r="O36" s="11">
         <f t="shared" si="6"/>
-        <v>6.010097980403919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0576694960911324E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" ref="B37:O37" si="7">ABS(B14-B15)/(2*$R$12)/1000</f>
+        <f>ABS(B14-B15)/(2*$R$32)/1000</f>
         <v>5.4717389855362262</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(C14-C15)/(2*$R$32)/1000</f>
         <v>5.4834366460041322</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(D14-D15)/(2*$R$32)/1000</f>
         <v>5.5058988202359522</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(E14-E15)/(2*$R$32)/1000</f>
         <v>5.5317603146037451</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(F14-F15)/(2*$R$32)/1000</f>
         <v>5.5520895820835827</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(G14-G15)/(2*$R$32)/1000</f>
         <v>5.5687862427514494</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(H14-H15)/(2*$R$32)/1000</f>
         <v>5.5793507965073639</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(I14-I15)/(2*$R$32)/1000</f>
         <v>5.6088448976871286</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(J14-J15)/(2*$R$32)/1000</f>
         <v>5.6568352996067448</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(K14-K15)/(2*$R$32)/1000</f>
         <v>5.687962407518496</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(L14-L15)/(2*$R$32)/1000</f>
         <v>5.7391188428980868</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(M14-M15)/(2*$R$32)/1000</f>
         <v>5.7923415316936619</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(N14-N15)/(2*$R$32)/1000</f>
         <v>5.9024861694327804</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="7"/>
+        <f>ABS(O14-O15)/(2*$R$32)/1000</f>
         <v>5.9862360861161097</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <f>SQRT(($P14/(2000*$R$32))^2+($P15/(2000*$R$32))^2+(ABS(B14-B15)*$S$32/(2000*$R$32^2))^2)</f>
+        <v>1.8834706553651946E-3</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.8872453195922043E-3</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.8944949408074437E-3</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9028439516901874E-3</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9094086456871568E-3</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.914801400368553E-3</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9182140890480492E-3</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9277436852416904E-3</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.943255852415412E-3</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9533213681105321E-3</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.9698706751192017E-3</v>
+      </c>
+      <c r="M38" s="11">
+        <f t="shared" si="6"/>
+        <v>1.98709738610043E-3</v>
+      </c>
+      <c r="N38" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0227761908024576E-3</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0499293486123294E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:O40" si="8">B31/B33</f>
+        <f t="shared" ref="B40:O40" si="7">B31/B33</f>
         <v>1.0042573147854899</v>
       </c>
       <c r="C40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0041819386446384</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0040482155175545</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0042165626581212</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0040929986916807</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0038791942290997</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0040067116899247</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0043163844491414</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.003845338484006</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0043581152323156</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0039307673995972</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0041131903975697</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0038859079356115</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0040470053830179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="11">
+        <f>SQRT((B32/B33)^2+(B31*B34/B33^2)^2)</f>
+        <v>4.888048031818263E-4</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" ref="C41:O41" si="8">SQRT((C32/C33)^2+(C31*C34/C33^2)^2)</f>
+        <v>4.887083474011066E-4</v>
+      </c>
+      <c r="D41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0041819386446384</v>
-      </c>
-      <c r="D40" s="3">
+        <v>4.8850940514180013E-4</v>
+      </c>
+      <c r="E41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0040482155175545</v>
-      </c>
-      <c r="E40" s="3">
+        <v>4.8845236375406659E-4</v>
+      </c>
+      <c r="F41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0042165626581212</v>
-      </c>
-      <c r="F40" s="3">
+        <v>4.8828432579908234E-4</v>
+      </c>
+      <c r="G41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0040929986916807</v>
-      </c>
-      <c r="G40" s="3">
+        <v>4.881092716046103E-4</v>
+      </c>
+      <c r="H41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0038791942290997</v>
-      </c>
-      <c r="H40" s="3">
+        <v>4.8809485337577213E-4</v>
+      </c>
+      <c r="I41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0040067116899247</v>
-      </c>
-      <c r="I40" s="3">
+        <v>4.8807429542040625E-4</v>
+      </c>
+      <c r="J41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0043163844491414</v>
-      </c>
-      <c r="J40" s="3">
+        <v>4.8761591609618193E-4</v>
+      </c>
+      <c r="K41" s="11">
         <f t="shared" si="8"/>
-        <v>1.003845338484006</v>
-      </c>
-      <c r="K40" s="3">
+        <v>4.8770756010874079E-4</v>
+      </c>
+      <c r="L41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0043581152323156</v>
-      </c>
-      <c r="L40" s="3">
+        <v>4.8725844041301928E-4</v>
+      </c>
+      <c r="M41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0039307673995972</v>
-      </c>
-      <c r="M40" s="3">
+        <v>4.870898465681499E-4</v>
+      </c>
+      <c r="N41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0041131903975697</v>
-      </c>
-      <c r="N40" s="3">
+        <v>4.8649079046951608E-4</v>
+      </c>
+      <c r="O41" s="11">
         <f t="shared" si="8"/>
-        <v>1.0038859079356115</v>
-      </c>
-      <c r="O40" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0040470053830179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.8618984129557145E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
@@ -7057,568 +8009,904 @@
         <v>1.003986126498277</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <f>SQRT((B36/B37)^2+(B35*B38/B37^2)^2)</f>
+        <v>4.8881401436363253E-4</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" ref="C43:O43" si="10">SQRT((C36/C37)^2+(C35*C38/C37^2)^2)</f>
+        <v>4.8869314780390703E-4</v>
+      </c>
+      <c r="D43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.887499321782065E-4</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8845166712907788E-4</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8825886998942207E-4</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8821524300590274E-4</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8821497497078531E-4</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8811771823756213E-4</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8791308095317659E-4</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8761572960014489E-4</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8735276512096559E-4</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8708879287317542E-4</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8644663906149092E-4</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="10"/>
+        <v>4.8616341511663124E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" ref="B45:O45" si="10">(PI()*$R$8/(LN(2)))*((B31+B33)/2)*1</f>
+        <f>(PI()*$R$28/(LN(2)))*((B31+B33)/2)*1</f>
         <v>24.853136267276273</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((C31+C33)/2)*1</f>
         <v>24.902000444636837</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((D31+D33)/2)*1</f>
         <v>25.012492394371783</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((E31+E33)/2)*1</f>
         <v>25.128724185651386</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((F31+F33)/2)*1</f>
         <v>25.220108504981042</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((G31+G33)/2)*1</f>
         <v>25.280829986585204</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((H31+H33)/2)*1</f>
         <v>25.346611591656384</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((I31+I33)/2)*1</f>
         <v>25.495696423356151</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((J31+J33)/2)*1</f>
         <v>25.69976289511542</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((K31+K33)/2)*1</f>
         <v>25.842579215654567</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((L31+L33)/2)*1</f>
         <v>26.066357511665935</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((M31+M33)/2)*1</f>
         <v>26.310904971161307</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((N31+N33)/2)*1</f>
         <v>26.795090815146747</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="10"/>
+        <f>(PI()*$R$28/(LN(2)))*((O31+O33)/2)*1</f>
         <v>27.189100727496147</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <f>(PI()/(2*LN(2)))*SQRT(B32^2+B34^2)</f>
+        <v>6.0484264202373701E-3</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" ref="C46:O46" si="11">(PI()/(2*LN(2)))*SQRT(C32^2+C34^2)</f>
+        <v>6.0595769174264895E-3</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.0847957181004953E-3</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1113338044412281E-3</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1322024669985481E-3</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1460707207661386E-3</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1610989779043706E-3</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1951673072418237E-3</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.2418136618670669E-3</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.2744771767218694E-3</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.3256710433295012E-3</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.3816488673313267E-3</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.4925625569642398E-3</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="11"/>
+        <v>6.5829018831665568E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="3">
-        <f>(PI()*$R$8/(LN(2)))*((B35+B37)/2)*1</f>
+        <f>(PI()*$R$28/(LN(2)))*((B35+B37)/2)*1</f>
         <v>24.852909694583722</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:O47" si="11">(PI()*$R$8/(LN(2)))*((C35+C37)/2)*1</f>
+        <f>(PI()*$R$28/(LN(2)))*((C35+C37)/2)*1</f>
         <v>24.904568268485775</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((D35+D37)/2)*1</f>
         <v>25.011359530909008</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((E35+E37)/2)*1</f>
         <v>25.12464587718544</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((F35+F37)/2)*1</f>
         <v>25.214746284590621</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((G35+G37)/2)*1</f>
         <v>25.291781000058592</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((H35+H37)/2)*1</f>
         <v>25.341249371265963</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((I35+I37)/2)*1</f>
         <v>25.476739841412567</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((J35+J37)/2)*1</f>
         <v>25.69583563511117</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((K35+K37)/2)*1</f>
         <v>25.833365259490751</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((L35+L37)/2)*1</f>
         <v>26.065375696664873</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((M35+M37)/2)*1</f>
         <v>26.306826662695361</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((N35+N37)/2)*1</f>
         <v>26.803171907847798</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="11"/>
+        <f>(PI()*$R$28/(LN(2)))*((O35+O37)/2)*1</f>
         <v>27.185853185569556</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="B48" s="11">
+        <f>(PI()/(2*LN(2)))*SQRT(B36^2+B38^2)</f>
+        <v>6.0483748291641449E-3</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" ref="C48:O48" si="12">(PI()/(2*LN(2)))*SQRT(C36^2+C38^2)</f>
+        <v>6.0601627938792263E-3</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.0845401020624299E-3</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1104024822706002E-3</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1309773926862387E-3</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1485736734096554E-3</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1598753025312175E-3</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.1908352734770852E-3</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.2409193406206378E-3</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.2723684239237914E-3</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.3254475133314777E-3</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.3807150373125683E-3</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.4944142337480457E-3</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="12"/>
+        <v>6.5821566240751453E-3</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="3">
-        <f>AVERAGE(B45:B47)</f>
+        <f>AVERAGE(B45,B47)</f>
         <v>24.85302298093</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ref="C50:O50" si="12">AVERAGE(C45:C47)</f>
+        <f t="shared" ref="C50:O50" si="13">AVERAGE(C45,C47)</f>
         <v>24.903284356561308</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.011925962640397</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.126685031418411</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.21742739478583</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.286305493321898</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.343930481461172</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.486218132384359</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.697799265113296</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25.837972237572657</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26.065866604165404</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26.308865816928332</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26.799131361497274</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.187476956532851</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="B51" s="11">
+        <f>SQRT((B46/2)^2+(B48/2)^2)</f>
+        <v>4.2768650970977521E-3</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" ref="C51:O51" si="14">SQRT((C46/2)^2+(C48/2)^2)</f>
+        <v>4.284975073046691E-3</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3025099414359287E-3</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3210363156494305E-3</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3356888404811993E-3</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3468133017765184E-3</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3561222537443879E-3</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.3791134761514798E-3</v>
+      </c>
+      <c r="J51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.4133125882267589E-3</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.4359798660115633E-3</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.4728458612031535E-3</v>
+      </c>
+      <c r="M51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.5121770425510218E-3</v>
+      </c>
+      <c r="N51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.5915897245835035E-3</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="14"/>
+        <v>4.6545510800520308E-3</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" ref="B55:O55" si="13">((B17-B18)-(B21-B22))/(4*1000*$R$6*$R$12)</f>
+        <f>((B17-B18)-(B21-B22))/(4*1000*$R$26*$R$32)</f>
         <v>13.250852245009936</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="13"/>
+        <f>((C17-C18)-(C21-C22))/(4*1000*$R$26*$R$32)</f>
         <v>13.271500289314117</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="13"/>
+        <f>((D17-D18)-(D21-D22))/(4*1000*$R$26*$R$32)</f>
         <v>13.278624468343045</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="13"/>
+        <f>((E17-E18)-(E21-E22))/(4*1000*$R$26*$R$32)</f>
         <v>13.279831956314052</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="13"/>
+        <f>((F17-F18)-(F21-F22))/(4*1000*$R$26*$R$32)</f>
         <v>13.272587028488022</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="13"/>
+        <f>((G17-G18)-(G21-G22))/(4*1000*$R$26*$R$32)</f>
         <v>13.273190772473525</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="13"/>
+        <f>((H17-H18)-(H21-H22))/(4*1000*$R$26*$R$32)</f>
         <v>13.260753646372175</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="13"/>
+        <f>((I17-I18)-(I21-I22))/(4*1000*$R$26*$R$32)</f>
         <v>13.23986410447379</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="13"/>
+        <f>((J17-J18)-(J21-J22))/(4*1000*$R$26*$R$32)</f>
         <v>13.204846953314652</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="13"/>
+        <f>((K17-K18)-(K21-K22))/(4*1000*$R$26*$R$32)</f>
         <v>13.181180189082957</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="13"/>
+        <f>((L17-L18)-(L21-L22))/(4*1000*$R$26*$R$32)</f>
         <v>13.154856951315052</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="13"/>
+        <f>((M17-M18)-(M21-M22))/(4*1000*$R$26*$R$32)</f>
         <v>13.12442825444573</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="13"/>
+        <f>((N17-N18)-(N21-N22))/(4*1000*$R$26*$R$32)</f>
         <v>13.034591149402971</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="13"/>
+        <f>((O17-O18)-(O21-O22))/(4*1000*$R$26*$R$32)</f>
         <v>12.959002402418067</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="11">
+        <f>SQRT(4*($P17/(4000*$R$26*$R$32))^2+(((B17-B18)-(B21-B22))*$S$26/(4000*$R$26^2*$R$32))^2+(((B17-B18)-(B21-B22))*$S$32/(4000*$R$26*$R$32^2))^2)</f>
+        <v>9.6152496220017855E-2</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" ref="C56:O58" si="15">SQRT(4*($P17/(4000*$R$26*$R$32))^2+(((C17-C18)-(C21-C22))*$S$26/(4000*$R$26^2*$R$32))^2+(((C17-C18)-(C21-C22))*$S$32/(4000*$R$26*$R$32^2))^2)</f>
+        <v>9.6302230707748585E-2</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6353893518244929E-2</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6362649928530109E-2</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6310111474324861E-2</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6314489678153661E-2</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6224298704581324E-2</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6072813014577874E-2</v>
+      </c>
+      <c r="J56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.58188778039889E-2</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.5647252869218033E-2</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.5456364141963609E-2</v>
+      </c>
+      <c r="M56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.5235704083097159E-2</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.4584233456448549E-2</v>
+      </c>
+      <c r="O56" s="11">
+        <f t="shared" si="15"/>
+        <v>9.4036089737377385E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" ref="B57:O57" si="14">((B19-B20)-(B23-B24))/(4*1000*$R$6*$R$12)</f>
+        <f>((B19-B20)-(B23-B24))/(4*1000*$R$26*$R$32)</f>
         <v>13.256406689676558</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="14"/>
+        <f>((C19-C20)-(C23-C24))/(4*1000*$R$26*$R$32)</f>
         <v>13.274639758038729</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="14"/>
+        <f>((D19-D20)-(D23-D24))/(4*1000*$R$26*$R$32)</f>
         <v>13.27898671473435</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="14"/>
+        <f>((E19-E20)-(E23-E24))/(4*1000*$R$26*$R$32)</f>
         <v>13.280073453908251</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="14"/>
+        <f>((F19-F20)-(F23-F24))/(4*1000*$R$26*$R$32)</f>
         <v>13.270775796531515</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="14"/>
+        <f>((G19-G20)-(G23-G24))/(4*1000*$R$26*$R$32)</f>
         <v>13.270413550140216</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="14"/>
+        <f>((H19-H20)-(H23-H24))/(4*1000*$R$26*$R$32)</f>
         <v>13.257855675241762</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="14"/>
+        <f>((I19-I20)-(I23-I24))/(4*1000*$R$26*$R$32)</f>
         <v>13.23660388695208</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="14"/>
+        <f>((J19-J20)-(J23-J24))/(4*1000*$R$26*$R$32)</f>
         <v>13.200499996619033</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="14"/>
+        <f>((K19-K20)-(K23-K24))/(4*1000*$R$26*$R$32)</f>
         <v>13.175625744416335</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="14"/>
+        <f>((L19-L20)-(L23-L24))/(4*1000*$R$26*$R$32)</f>
         <v>13.150026999431031</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="14"/>
+        <f>((M19-M20)-(M23-M24))/(4*1000*$R$26*$R$32)</f>
         <v>13.119598302561711</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="14"/>
+        <f>((N19-N20)-(N23-N24))/(4*1000*$R$26*$R$32)</f>
         <v>13.027587719171143</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="14"/>
+        <f>((O19-O20)-(O23-O24))/(4*1000*$R$26*$R$32)</f>
         <v>12.95211972098334</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
+      <c r="B58" s="11">
+        <f>SQRT(4*($P19/(4000*$R$26*$R$32))^2+(((B19-B20)-(B23-B24))*$S$26/(4000*$R$26^2*$R$32))^2+(((B19-B20)-(B23-B24))*$S$32/(4000*$R$26*$R$32^2))^2)</f>
+        <v>9.6192775658414956E-2</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6324997367853563E-2</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6356520441277974E-2</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6364401210647127E-2</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6296976863589873E-2</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.629434994157815E-2</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6203283339746828E-2</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6049170752865579E-2</v>
+      </c>
+      <c r="J58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.578735484210657E-2</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.560697357621592E-2</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.5421338713923429E-2</v>
+      </c>
+      <c r="M58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.5200678707121747E-2</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.4533446890025408E-2</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" si="15"/>
+        <v>9.3986178991750907E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" ref="B60:O60" si="15">AVERAGE(B55:B57)</f>
+        <f>AVERAGE(B55,B57)</f>
         <v>13.253629467343247</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C60:O60" si="16">AVERAGE(C55,C57)</f>
         <v>13.273070023676423</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.278805591538697</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.279952705111151</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.271681412509768</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.271802161306869</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.259304660806968</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.238233995712935</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.202673474966844</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.178402966749646</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.152441975373041</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.12201327850372</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.031089434287058</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.955561061700703</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
+      <c r="B61" s="11">
+        <f>SQRT((B56/2)^2+(B58/2)^2)</f>
+        <v>6.8004324528317131E-2</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" ref="C61:O61" si="17">SQRT((C56/2)^2+(C58/2)^2)</f>
+        <v>6.8104010082383232E-2</v>
+      </c>
+      <c r="D61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.8133420264352845E-2</v>
+      </c>
+      <c r="E61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.8139302392112536E-2</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.8096889292506679E-2</v>
+      </c>
+      <c r="G61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.8097508678060831E-2</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.8033424481162383E-2</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7925379282796738E-2</v>
+      </c>
+      <c r="J61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7743034127619714E-2</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7618581724684573E-2</v>
+      </c>
+      <c r="L61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7485460169506989E-2</v>
+      </c>
+      <c r="M61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7329429966582727E-2</v>
+      </c>
+      <c r="N61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.6863199518593958E-2</v>
+      </c>
+      <c r="O61" s="11">
+        <f t="shared" si="17"/>
+        <v>6.6475912958314329E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" ref="B63:O63" si="16">B50</f>
+        <f>B50</f>
         <v>24.85302298093</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="C63:O63" si="18">C50</f>
         <v>24.903284356561308</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.011925962640397</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.126685031418411</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.21742739478583</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.286305493321898</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.343930481461172</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.486218132384359</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.697799265113296</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.837972237572657</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26.065866604165404</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26.308865816928332</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26.799131361497274</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27.187476956532851</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="11">
+        <f>B51</f>
+        <v>4.2768650970977521E-3</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" ref="C64:O64" si="19">C51</f>
+        <v>4.284975073046691E-3</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.3025099414359287E-3</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.3210363156494305E-3</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.3356888404811993E-3</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.3468133017765184E-3</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.3561222537443879E-3</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.3791134761514798E-3</v>
+      </c>
+      <c r="J64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.4133125882267589E-3</v>
+      </c>
+      <c r="K64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.4359798660115633E-3</v>
+      </c>
+      <c r="L64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.4728458612031535E-3</v>
+      </c>
+      <c r="M64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.5121770425510218E-3</v>
+      </c>
+      <c r="N64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.5915897245835035E-3</v>
+      </c>
+      <c r="O64" s="11">
+        <f t="shared" si="19"/>
+        <v>4.6545510800520308E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>46</v>
       </c>
@@ -7627,76 +8915,121 @@
         <v>4.0236553950290521E-2</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ref="C65:O65" si="17">1/C63</f>
+        <f t="shared" ref="C65:O65" si="20">1/C63</f>
         <v>4.0155346005055291E-2</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9980927558064566E-2</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9798325913251185E-2</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9655115660480439E-2</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9547097944541545E-2</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9457178938029754E-2</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9236892457156614E-2</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.8913838094983312E-2</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.8702727551732395E-2</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.8364348869958424E-2</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.8010000391448043E-2</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.731464227369382E-2</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.6781640370630676E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="11">
+        <f>B64/B63^2</f>
+        <v>6.9241602258820566E-6</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" ref="C66:O66" si="21">C64/C63^2</f>
+        <v>6.9093158242757159E-6</v>
+      </c>
+      <c r="D66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.8774527216873009E-6</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.844118567896196E-6</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.8179929596104026E-6</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.7982984480430217E-6</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.781911565282049E-6</v>
+      </c>
+      <c r="I66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.7417929026948197E-6</v>
+      </c>
+      <c r="J66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.6830209758061439E-6</v>
+      </c>
+      <c r="K66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.6446592093460966E-6</v>
+      </c>
+      <c r="L66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.5832385957705148E-6</v>
+      </c>
+      <c r="M66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.5190134894865441E-6</v>
+      </c>
+      <c r="N66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.3932493083174813E-6</v>
+      </c>
+      <c r="O66" s="11">
+        <f t="shared" si="21"/>
+        <v>6.2970912742995978E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>73</v>
       </c>
@@ -7705,76 +9038,118 @@
         <v>13.253629467343247</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ref="C67:O67" si="18">C60</f>
+        <f t="shared" ref="C67:O67" si="22">C60</f>
         <v>13.273070023676423</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.278805591538697</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.279952705111151</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.271681412509768</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.271802161306869</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.259304660806968</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.238233995712935</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.202673474966844</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.178402966749646</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.152441975373041</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.12201327850372</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13.031089434287058</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.955561061700703</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="11">
+        <f>B61</f>
+        <v>6.8004324528317131E-2</v>
+      </c>
+      <c r="C68" s="11">
+        <f t="shared" ref="C68:O68" si="23">C61</f>
+        <v>6.8104010082383232E-2</v>
+      </c>
+      <c r="D68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.8133420264352845E-2</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.8139302392112536E-2</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.8096889292506679E-2</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.8097508678060831E-2</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.8033424481162383E-2</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7925379282796738E-2</v>
+      </c>
+      <c r="J68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7743034127619714E-2</v>
+      </c>
+      <c r="K68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7618581724684573E-2</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7485460169506989E-2</v>
+      </c>
+      <c r="M68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7329429966582727E-2</v>
+      </c>
+      <c r="N68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.6863199518593958E-2</v>
+      </c>
+      <c r="O68" s="11">
+        <f t="shared" si="23"/>
+        <v>6.6475912958314329E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>71</v>
       </c>
@@ -7783,215 +9158,1835 @@
         <v>0.53328037709991671</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" ref="C69:O69" si="19">ABS(C67/C63)</f>
+        <f t="shared" ref="C69:O69" si="24">ABS(C67/C63)</f>
         <v>0.5329847193500542</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.53089896441293127</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.5285198858705753</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.5262900614221232</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.52486125997378097</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.52317475659531243</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.51942716361246311</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.51376669802579045</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.51004013958905348</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.50458487243509642</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.49876772985251289</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.48625044067693274</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.47652678777122143</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="11">
+        <f>SQRT((B68/B63)^2+(B67*B64/B63^2)^2)</f>
+        <v>2.7377981620575189E-3</v>
+      </c>
+      <c r="C70" s="11">
+        <f t="shared" ref="C70:O70" si="25">SQRT((C68/C63)^2+(C67*C64/C63^2)^2)</f>
+        <v>2.7362773401119586E-3</v>
+      </c>
+      <c r="D70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.7255677513721185E-3</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.713352861873063E-3</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.7019056281606217E-3</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.6945698389652943E-3</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.6859127283111045E-3</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.666674739938214E-3</v>
+      </c>
+      <c r="J70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.6376176754354277E-3</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.6184881217399237E-3</v>
+      </c>
+      <c r="L70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.5904831842110173E-3</v>
+      </c>
+      <c r="M70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.5606209174205627E-3</v>
+      </c>
+      <c r="N70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.4963669234922569E-3</v>
+      </c>
+      <c r="O70" s="11">
+        <f t="shared" si="25"/>
+        <v>2.446453773053219E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="3">
-        <f>1/($R$14*B67)</f>
+        <f>1/($R$34*B67)</f>
         <v>4.7098021480183168E+17</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" ref="C71:O71" si="20">1/($R$14*C67)</f>
+        <f>1/($R$34*C67)</f>
         <v>4.7029038815424122E+17</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*D67)</f>
         <v>4.7008725373694445E+17</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*E67)</f>
         <v>4.7004664790942586E+17</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*F67)</f>
         <v>4.7033959446535309E+17</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*G67)</f>
         <v>4.7033531524693421E+17</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*H67)</f>
         <v>4.7077862777257472E+17</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*I67)</f>
         <v>4.7152794364072128E+17</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*J67)</f>
         <v>4.7279797271884627E+17</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*K67)</f>
         <v>4.7366871912953805E+17</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*L67)</f>
         <v>4.7460367170760032E+17</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*M67)</f>
         <v>4.7570423234208115E+17</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*N67)</f>
         <v>4.7902343736578957E+17</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="20"/>
+        <f>1/($R$34*O67)</f>
         <v>4.8181604978007667E+17</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="3">
-        <f>LN(B71/10^17)</f>
-        <v>1.54964590035585</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" ref="C72:O72" si="21">LN(C71/10^17)</f>
-        <v>1.5481801650637359</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5477481377346984</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5476617546620901</v>
-      </c>
-      <c r="F72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5482847892242793</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.548275691036638</v>
-      </c>
-      <c r="H72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5492177928123421</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5508081797390969</v>
-      </c>
-      <c r="J72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5534979922749053</v>
-      </c>
-      <c r="K72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.555337986569171</v>
-      </c>
-      <c r="L72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.557309894409268</v>
-      </c>
-      <c r="M72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5596261144929309</v>
-      </c>
-      <c r="N72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5665793400082428</v>
-      </c>
-      <c r="O72" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5723922157592145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="11">
+        <f>B68/($R$34*B67^2)</f>
+        <v>2416597766877254.5</v>
+      </c>
+      <c r="C72" s="11">
+        <f t="shared" ref="C72:O72" si="26">C68/($R$34*C67^2)</f>
+        <v>2413056005835261.5</v>
+      </c>
+      <c r="D72" s="11">
+        <f t="shared" si="26"/>
+        <v>2412013053356507</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="26"/>
+        <v>2411804574271723</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="26"/>
+        <v>2413308630510050.5</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="26"/>
+        <v>2413286667654238.5</v>
+      </c>
+      <c r="H72" s="11">
+        <f t="shared" si="26"/>
+        <v>2415562734189519</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="26"/>
+        <v>2419409902000928.5</v>
+      </c>
+      <c r="J72" s="11">
+        <f t="shared" si="26"/>
+        <v>2425930570962837</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="26"/>
+        <v>2430401246319378</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" si="26"/>
+        <v>2435201557497584.5</v>
+      </c>
+      <c r="M72" s="11">
+        <f t="shared" si="26"/>
+        <v>2440852186055351</v>
+      </c>
+      <c r="N72" s="11">
+        <f t="shared" si="26"/>
+        <v>2457894240400002.5</v>
+      </c>
+      <c r="O72" s="11">
+        <f t="shared" si="26"/>
+        <v>2472232706446346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-206</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-205</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-205.5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.4781966001478202E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1.0925325943442871E-4</v>
+      </c>
+      <c r="J2" s="3">
+        <v>24.85302298093</v>
+      </c>
+      <c r="K2" s="11">
+        <v>4.2768650970977521E-3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4.0236553950290521E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>6.9241602258820566E-6</v>
+      </c>
+      <c r="N2" s="3">
+        <v>13.253629467343247</v>
+      </c>
+      <c r="O2" s="11">
+        <v>6.8004324528317131E-2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.53328037709991671</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2.7377981620575189E-3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>4.7098021480183168E+17</v>
+      </c>
+      <c r="S2" s="11">
+        <v>2416597766877254.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-196</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-195</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-195.5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.2878300064391505E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>8.2925306274253107E-5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>24.903284356561308</v>
+      </c>
+      <c r="K3" s="11">
+        <v>4.284975073046691E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4.0155346005055291E-2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6.9093158242757159E-6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>13.273070023676423</v>
+      </c>
+      <c r="O3" s="11">
+        <v>6.8104010082383232E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.5329847193500542</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>2.7362773401119586E-3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4.7029038815424122E+17</v>
+      </c>
+      <c r="S3" s="11">
+        <v>2413056005835261.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-183</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-183</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-183</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.1092623405435388E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>25.011925962640397</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4.3025099414359287E-3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3.9980927558064566E-2</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6.8774527216873009E-6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13.278805591538697</v>
+      </c>
+      <c r="O4" s="11">
+        <v>6.8133420264352845E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.53089896441293127</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2.7255677513721185E-3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>4.7008725373694445E+17</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2412013053356507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-172</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-173</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-172.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.935419771485347E-3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4.9356283017810976E-5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>25.126685031418411</v>
+      </c>
+      <c r="K5" s="11">
+        <v>4.3210363156494305E-3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3.9798325913251185E-2</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6.844118567896196E-6</v>
+      </c>
+      <c r="N5" s="3">
+        <v>13.279952705111151</v>
+      </c>
+      <c r="O5" s="11">
+        <v>6.8139302392112536E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.5285198858705753</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>2.713352861873063E-3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4.7004664790942586E+17</v>
+      </c>
+      <c r="S5" s="11">
+        <v>2411804574271723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-163</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-160</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-161.5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.9565606806986144E-3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.2032996884055462E-4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>25.21742739478583</v>
+      </c>
+      <c r="K6" s="11">
+        <v>4.3356888404811993E-3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3.9655115660480439E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>6.8179929596104026E-6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>13.271681412509768</v>
+      </c>
+      <c r="O6" s="11">
+        <v>6.8096889292506679E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.5262900614221232</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>2.7019056281606217E-3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>4.7033959446535309E+17</v>
+      </c>
+      <c r="S6" s="11">
+        <v>2413308630510050.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-153</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-151</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-152</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8.2542302930251766E-3</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6.8132317730294499E-5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>25.286305493321898</v>
+      </c>
+      <c r="K7" s="11">
+        <v>4.3468133017765184E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3.9547097944541545E-2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>6.7982984480430217E-6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>13.271802161306869</v>
+      </c>
+      <c r="O7" s="11">
+        <v>6.8097508678060831E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.52486125997378097</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2.6945698389652943E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>4.7033531524693421E+17</v>
+      </c>
+      <c r="S7" s="11">
+        <v>2413286667654238.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-140</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-140</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-140</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.5103266992114174E-3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>25.343930481461172</v>
+      </c>
+      <c r="K8" s="11">
+        <v>4.3561222537443879E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3.9457178938029754E-2</v>
+      </c>
+      <c r="M8" s="11">
+        <v>6.781911565282049E-6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>13.259304660806968</v>
+      </c>
+      <c r="O8" s="11">
+        <v>6.8033424481162383E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.52317475659531243</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>2.6859127283111045E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>4.7077862777257472E+17</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2415562734189519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-125</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-125</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-125</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.7499156260546755E-3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25.486218132384359</v>
+      </c>
+      <c r="K9" s="11">
+        <v>4.3791134761514798E-3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.9236892457156614E-2</v>
+      </c>
+      <c r="M9" s="11">
+        <v>6.7417929026948197E-6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>13.238233995712935</v>
+      </c>
+      <c r="O9" s="11">
+        <v>6.7925379282796738E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.51942716361246311</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>2.666674739938214E-3</v>
+      </c>
+      <c r="R9" s="3">
+        <v>4.7152794364072128E+17</v>
+      </c>
+      <c r="S9" s="11">
+        <v>2419409902000928.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-110</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-109</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-109.5</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.1106018942865877E-3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.8669727755229422E-5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25.697799265113296</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4.4133125882267589E-3</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3.8913838094983312E-2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>6.6830209758061439E-6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>13.202673474966844</v>
+      </c>
+      <c r="O10" s="11">
+        <v>6.7743034127619714E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.51376669802579045</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>2.6376176754354277E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>4.7279797271884627E+17</v>
+      </c>
+      <c r="S10" s="11">
+        <v>2425930570962837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-93</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-93</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-93</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.550929780738274E-3</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>25.837972237572657</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4.4359798660115633E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.8702727551732395E-2</v>
+      </c>
+      <c r="M11" s="11">
+        <v>6.6446592093460966E-6</v>
+      </c>
+      <c r="N11" s="3">
+        <v>13.178402966749646</v>
+      </c>
+      <c r="O11" s="11">
+        <v>6.7618581724684573E-2</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.51004013958905348</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>2.6184881217399237E-3</v>
+      </c>
+      <c r="R11" s="3">
+        <v>4.7366871912953805E+17</v>
+      </c>
+      <c r="S11" s="11">
+        <v>2430401246319378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-79</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-79</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-79</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5.1506567087303634E-3</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>26.065866604165404</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4.4728458612031535E-3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3.8364348869958424E-2</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6.5832385957705148E-6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>13.152441975373041</v>
+      </c>
+      <c r="O12" s="11">
+        <v>6.7485460169506989E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.50458487243509642</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>2.5904831842110173E-3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4.7460367170760032E+17</v>
+      </c>
+      <c r="S12" s="11">
+        <v>2435201557497584.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-64</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-62</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-63</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4.7585058291696415E-3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.2643377726241456E-5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>26.308865816928332</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4.5121770425510218E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3.8010000391448043E-2</v>
+      </c>
+      <c r="M13" s="11">
+        <v>6.5190134894865441E-6</v>
+      </c>
+      <c r="N13" s="3">
+        <v>13.12201327850372</v>
+      </c>
+      <c r="O13" s="11">
+        <v>6.7329429966582727E-2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.49876772985251289</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>2.5606209174205627E-3</v>
+      </c>
+      <c r="R13" s="3">
+        <v>4.7570423234208115E+17</v>
+      </c>
+      <c r="S13" s="11">
+        <v>2440852186055351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-27</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-27</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4.0625634775543372E-3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>26.799131361497274</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4.5915897245835035E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.731464227369382E-2</v>
+      </c>
+      <c r="M14" s="11">
+        <v>6.3932493083174813E-6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>13.031089434287058</v>
+      </c>
+      <c r="O14" s="11">
+        <v>6.6863199518593958E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.48625044067693274</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2.4963669234922569E-3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>4.7902343736578957E+17</v>
+      </c>
+      <c r="S14" s="11">
+        <v>2457894240400002.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3.6609921288669233E-3</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>27.187476956532851</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4.6545510800520308E-3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.6781640370630676E-2</v>
+      </c>
+      <c r="M15" s="11">
+        <v>6.2970912742995978E-6</v>
+      </c>
+      <c r="N15" s="3">
+        <v>12.955561061700703</v>
+      </c>
+      <c r="O15" s="11">
+        <v>6.6475912958314329E-2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.47652678777122143</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2.446453773053219E-3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>4.8181604978007667E+17</v>
+      </c>
+      <c r="S15" s="11">
+        <v>2472232706446346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BM16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>D2</f>
+        <v>-205.5</v>
+      </c>
+      <c r="G27" s="27">
+        <f>1/(F27+273.15)</f>
+        <v>1.4781966001478202E-2</v>
+      </c>
+      <c r="H27" s="27">
+        <f>L2</f>
+        <v>4.0236553950290521E-2</v>
+      </c>
+      <c r="I27" s="21">
+        <f>N2</f>
+        <v>13.253629467343247</v>
+      </c>
+      <c r="J27" s="28">
+        <f>R2</f>
+        <v>4.7098021480183168E+17</v>
+      </c>
+      <c r="K27" s="21">
+        <f>P2</f>
+        <v>0.53328037709991671</v>
+      </c>
+      <c r="N27">
+        <f>E2</f>
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <f>H2</f>
+        <v>1.0925325943442871E-4</v>
+      </c>
+      <c r="P27">
+        <f>M2</f>
+        <v>6.9241602258820566E-6</v>
+      </c>
+      <c r="Q27">
+        <f>O2</f>
+        <v>6.8004324528317131E-2</v>
+      </c>
+      <c r="R27">
+        <f>S2</f>
+        <v>2416597766877254.5</v>
+      </c>
+      <c r="S27">
+        <f>Q2</f>
+        <v>2.7377981620575189E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" ref="F28:F40" si="0">D3</f>
+        <v>-195.5</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" ref="G28:G40" si="1">1/(F28+273.15)</f>
+        <v>1.2878300064391505E-2</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" ref="H28:H40" si="2">L3</f>
+        <v>4.0155346005055291E-2</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" ref="I28:I40" si="3">N3</f>
+        <v>13.273070023676423</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" ref="J28:J40" si="4">R3</f>
+        <v>4.7029038815424122E+17</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" ref="K28:K40" si="5">P3</f>
+        <v>0.5329847193500542</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N40" si="6">E3</f>
+        <v>0.5</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O40" si="7">H3</f>
+        <v>8.2925306274253107E-5</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:P40" si="8">M3</f>
+        <v>6.9093158242757159E-6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q40" si="9">O3</f>
+        <v>6.8104010082383232E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28:R40" si="10">S3</f>
+        <v>2413056005835261.5</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S40" si="11">Q3</f>
+        <v>2.7362773401119586E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-183</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1092623405435388E-2</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="2"/>
+        <v>3.9980927558064566E-2</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="3"/>
+        <v>13.278805591538697</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7008725373694445E+17</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="5"/>
+        <v>0.53089896441293127</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>6.8774527216873009E-6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>6.8133420264352845E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>2412013053356507</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>2.7255677513721185E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-172.5</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="1"/>
+        <v>9.935419771485347E-3</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="2"/>
+        <v>3.9798325913251185E-2</v>
+      </c>
+      <c r="I30" s="21">
+        <f t="shared" si="3"/>
+        <v>13.279952705111151</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7004664790942586E+17</v>
+      </c>
+      <c r="K30" s="21">
+        <f t="shared" si="5"/>
+        <v>0.5285198858705753</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>4.9356283017810976E-5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>6.844118567896196E-6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>6.8139302392112536E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>2411804574271723</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>2.713352861873063E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-161.5</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="1"/>
+        <v>8.9565606806986144E-3</v>
+      </c>
+      <c r="H31" s="27">
+        <f t="shared" si="2"/>
+        <v>3.9655115660480439E-2</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="3"/>
+        <v>13.271681412509768</v>
+      </c>
+      <c r="J31" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7033959446535309E+17</v>
+      </c>
+      <c r="K31" s="21">
+        <f t="shared" si="5"/>
+        <v>0.5262900614221232</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>1.2032996884055462E-4</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>6.8179929596104026E-6</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>6.8096889292506679E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>2413308630510050.5</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>2.7019056281606217E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-152</v>
+      </c>
+      <c r="G32" s="27">
+        <f t="shared" si="1"/>
+        <v>8.2542302930251766E-3</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" si="2"/>
+        <v>3.9547097944541545E-2</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="3"/>
+        <v>13.271802161306869</v>
+      </c>
+      <c r="J32" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7033531524693421E+17</v>
+      </c>
+      <c r="K32" s="21">
+        <f t="shared" si="5"/>
+        <v>0.52486125997378097</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>6.8132317730294499E-5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>6.7982984480430217E-6</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>6.8097508678060831E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>2413286667654238.5</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>2.6945698389652943E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-140</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="1"/>
+        <v>7.5103266992114174E-3</v>
+      </c>
+      <c r="H33" s="27">
+        <f t="shared" si="2"/>
+        <v>3.9457178938029754E-2</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="3"/>
+        <v>13.259304660806968</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7077862777257472E+17</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" si="5"/>
+        <v>0.52317475659531243</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>6.781911565282049E-6</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>6.8033424481162383E-2</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>2415562734189519</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>2.6859127283111045E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+      <c r="G34" s="27">
+        <f t="shared" si="1"/>
+        <v>6.7499156260546755E-3</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="2"/>
+        <v>3.9236892457156614E-2</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="3"/>
+        <v>13.238233995712935</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7152794364072128E+17</v>
+      </c>
+      <c r="K34" s="21">
+        <f t="shared" si="5"/>
+        <v>0.51942716361246311</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>6.7417929026948197E-6</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>6.7925379282796738E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="10"/>
+        <v>2419409902000928.5</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="11"/>
+        <v>2.666674739938214E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-109.5</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" si="1"/>
+        <v>6.1106018942865877E-3</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" si="2"/>
+        <v>3.8913838094983312E-2</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="3"/>
+        <v>13.202673474966844</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7279797271884627E+17</v>
+      </c>
+      <c r="K35" s="21">
+        <f t="shared" si="5"/>
+        <v>0.51376669802579045</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>1.8669727755229422E-5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>6.6830209758061439E-6</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>6.7743034127619714E-2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="10"/>
+        <v>2425930570962837</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="11"/>
+        <v>2.6376176754354277E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-93</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="1"/>
+        <v>5.550929780738274E-3</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" si="2"/>
+        <v>3.8702727551732395E-2</v>
+      </c>
+      <c r="I36" s="21">
+        <f t="shared" si="3"/>
+        <v>13.178402966749646</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7366871912953805E+17</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="5"/>
+        <v>0.51004013958905348</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>6.6446592093460966E-6</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="9"/>
+        <v>6.7618581724684573E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="10"/>
+        <v>2430401246319378</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="11"/>
+        <v>2.6184881217399237E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-79</v>
+      </c>
+      <c r="G37" s="27">
+        <f t="shared" si="1"/>
+        <v>5.1506567087303634E-3</v>
+      </c>
+      <c r="H37" s="27">
+        <f t="shared" si="2"/>
+        <v>3.8364348869958424E-2</v>
+      </c>
+      <c r="I37" s="21">
+        <f t="shared" si="3"/>
+        <v>13.152441975373041</v>
+      </c>
+      <c r="J37" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7460367170760032E+17</v>
+      </c>
+      <c r="K37" s="21">
+        <f t="shared" si="5"/>
+        <v>0.50458487243509642</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>6.5832385957705148E-6</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="9"/>
+        <v>6.7485460169506989E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="10"/>
+        <v>2435201557497584.5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="11"/>
+        <v>2.5904831842110173E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>D13</f>
+        <v>-63</v>
+      </c>
+      <c r="G38" s="27">
+        <f t="shared" si="1"/>
+        <v>4.7585058291696415E-3</v>
+      </c>
+      <c r="H38" s="27">
+        <f t="shared" si="2"/>
+        <v>3.8010000391448043E-2</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="3"/>
+        <v>13.12201327850372</v>
+      </c>
+      <c r="J38" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7570423234208115E+17</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="5"/>
+        <v>0.49876772985251289</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>2.2643377726241456E-5</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>6.5190134894865441E-6</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="9"/>
+        <v>6.7329429966582727E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="10"/>
+        <v>2440852186055351</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="11"/>
+        <v>2.5606209174205627E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="G39" s="27">
+        <f t="shared" si="1"/>
+        <v>4.0625634775543372E-3</v>
+      </c>
+      <c r="H39" s="27">
+        <f t="shared" si="2"/>
+        <v>3.731464227369382E-2</v>
+      </c>
+      <c r="I39" s="21">
+        <f t="shared" si="3"/>
+        <v>13.031089434287058</v>
+      </c>
+      <c r="J39" s="28">
+        <f t="shared" si="4"/>
+        <v>4.7902343736578957E+17</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="5"/>
+        <v>0.48625044067693274</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>6.3932493083174813E-6</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="9"/>
+        <v>6.6863199518593958E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="10"/>
+        <v>2457894240400002.5</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="11"/>
+        <v>2.4963669234922569E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="27">
+        <f t="shared" si="1"/>
+        <v>3.6609921288669233E-3</v>
+      </c>
+      <c r="H40" s="27">
+        <f t="shared" si="2"/>
+        <v>3.6781640370630676E-2</v>
+      </c>
+      <c r="I40" s="21">
+        <f t="shared" si="3"/>
+        <v>12.955561061700703</v>
+      </c>
+      <c r="J40" s="28">
+        <f t="shared" si="4"/>
+        <v>4.8181604978007667E+17</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.47652678777122143</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>6.2970912742995978E-6</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="9"/>
+        <v>6.6475912958314329E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="10"/>
+        <v>2472232706446346</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="11"/>
+        <v>2.446453773053219E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>